--- a/유닛 및 건물/양_유닛.xlsx
+++ b/유닛 및 건물/양_유닛.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB19FAFB-C39C-4DE5-803B-8BD897992B82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2530C58E-257F-4C0D-B339-387CDA33EC3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5832" yWindow="612" windowWidth="14676" windowHeight="10932" xr2:uid="{5DC44C0D-AFC0-4050-AC88-DAB7CE401A2D}"/>
   </bookViews>
@@ -33,9 +33,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>칼병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,9 +404,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6F94A7-7021-4009-9B15-493C51B47768}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -411,6 +417,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/유닛 및 건물/양_유닛.xlsx
+++ b/유닛 및 건물/양_유닛.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2530C58E-257F-4C0D-B339-387CDA33EC3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AF725C-33F5-4572-B46D-AABA03B003C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5832" yWindow="612" windowWidth="14676" windowHeight="10932" xr2:uid="{5DC44C0D-AFC0-4050-AC88-DAB7CE401A2D}"/>
   </bookViews>
@@ -33,13 +33,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>칼병</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>내용변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동해물과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백두산이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6F94A7-7021-4009-9B15-493C51B47768}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -422,6 +430,16 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/유닛 및 건물/양_유닛.xlsx
+++ b/유닛 및 건물/양_유닛.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AF725C-33F5-4572-B46D-AABA03B003C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09525420-E025-4439-9CF7-4B43DA267AB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5832" yWindow="612" windowWidth="14676" windowHeight="10932" xr2:uid="{5DC44C0D-AFC0-4050-AC88-DAB7CE401A2D}"/>
+    <workbookView xWindow="8460" yWindow="528" windowWidth="14676" windowHeight="10932" activeTab="1" xr2:uid="{5DC44C0D-AFC0-4050-AC88-DAB7CE401A2D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="유닛 탄생" sheetId="1" r:id="rId1"/>
+    <sheet name="유닛 테이블" sheetId="2" r:id="rId2"/>
+    <sheet name="Index" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="카테고리_유닛타입">Index!$C$2:$D$4</definedName>
+    <definedName name="카테고리_피해타입">Index!$F$2:$G$3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,21 +39,145 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>칼병</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동해물과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백두산이</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입(문자열)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해 타입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해 타입(문자열)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 시간(딜레이)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dead</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projectile(투사체)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectileBomb(투사체 폭발)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;카테고리_유닛타입&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양 검병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양 창병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양 궁수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;카테고리_피해타입&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_SheepSwordMan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_SheepSpeer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_SheepBowman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -55,7 +185,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,21 +201,49 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -94,8 +252,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -412,37 +574,561 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6F94A7-7021-4009-9B15-493C51B47768}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D3F61F-0347-41D5-91A8-0D2FBCD00291}">
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>VLOOKUP(B2, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>근거리</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>VLOOKUP(D2, 카테고리_피해타입,2,FALSE)</f>
+        <v>범위</v>
+      </c>
+      <c r="F2" s="2">
+        <v>200</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>VLOOKUP(B3, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>중거리</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f>VLOOKUP(D3, 카테고리_피해타입,2,FALSE)</f>
+        <v>단일</v>
+      </c>
+      <c r="F3" s="2">
+        <v>100</v>
+      </c>
+      <c r="G3" s="2">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>VLOOKUP(B4, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>원거리</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f>VLOOKUP(D4, 카테고리_피해타입,2,FALSE)</f>
+        <v>단일</v>
+      </c>
+      <c r="F4" s="2">
+        <v>50</v>
+      </c>
+      <c r="G4" s="2">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325F995D-D464-4E08-87B8-359E9E3CF2CA}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C4">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="D4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/유닛 및 건물/양_유닛.xlsx
+++ b/유닛 및 건물/양_유닛.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09525420-E025-4439-9CF7-4B43DA267AB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22743666-3AA2-4B5E-98CC-C51876B33E02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="528" windowWidth="14676" windowHeight="10932" activeTab="1" xr2:uid="{5DC44C0D-AFC0-4050-AC88-DAB7CE401A2D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5DC44C0D-AFC0-4050-AC88-DAB7CE401A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="유닛 탄생" sheetId="1" r:id="rId1"/>
-    <sheet name="유닛 테이블" sheetId="2" r:id="rId2"/>
-    <sheet name="Index" sheetId="3" r:id="rId3"/>
+    <sheet name="유닛 애니메이션" sheetId="4" r:id="rId2"/>
+    <sheet name="유닛 테이블" sheetId="2" r:id="rId3"/>
+    <sheet name="Index" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="카테고리_유닛타입">Index!$C$2:$D$4</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -157,10 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Unit_SheepSpeer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Unit_SheepBowman</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,6 +175,63 @@
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈련을 마친 양 유닛은 넥서스 입구쪽에 생성됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창을 앞으로 세우고 찌릅니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검을 위로 치켜든 후 아래쪽으로 휘두릅니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른손으로 활을 들고 서있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 향해 활시위를 당긴 후 화살을 쏩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양손으로 창을 세우고 전진합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼손으로 창을 세우고 
+서있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 벽을 세워 유닛 랠리포인트가 있다면 유닛은 곧바로 이동합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_SheepPikeMan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -209,7 +263,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +273,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,13 +312,22 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -275,6 +344,674 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>417755</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>205889</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="그룹 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DD6888F-F3AC-42CD-A6AF-354450C30E19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="243840" y="579120"/>
+          <a:ext cx="7550075" cy="3383429"/>
+          <a:chOff x="1990165" y="1353670"/>
+          <a:chExt cx="7550075" cy="3383429"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="직사각형 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B495BB7B-F9C7-4E2A-AC1A-58A2514174E3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1990165" y="1353670"/>
+            <a:ext cx="7550075" cy="3383429"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="그림 3" descr="건물, 집, 거리, 작은이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9A74063-7873-4E5E-B1DB-CC79F8CE3A3E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1990165" y="2169604"/>
+            <a:ext cx="2124636" cy="1751560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="직사각형 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A961725-2CA5-47DD-90ED-3544EAF715D8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1990165" y="3881718"/>
+            <a:ext cx="7550075" cy="855381"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="직사각형 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BED3DAF6-498F-4171-9345-0DF43492E0CE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3246120" y="3177540"/>
+            <a:ext cx="510540" cy="704178"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>744906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2941320</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1990467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{842CE2C5-EC0D-47BD-8F8C-2874D5C438FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3383280" y="3145206"/>
+          <a:ext cx="2560320" cy="1245561"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>899160</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>203112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1645920</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2263140</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AF6CCC1-43FD-4BC2-961C-4593DE3EAD6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1569720" y="2603412"/>
+          <a:ext cx="746760" cy="2060028"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>426720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2125980</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2232660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D14615A-2A17-49F5-8A25-28B9175B4F20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8511540" y="2827020"/>
+          <a:ext cx="1805940" cy="1805940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -574,26 +1311,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6F94A7-7021-4009-9B15-493C51B47768}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="11" max="11" width="8.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D912C3A-A64A-4928-9DD8-1DEF3DA1AAB8}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="30.59765625" customWidth="1"/>
+    <col min="3" max="3" width="39.8984375" customWidth="1"/>
+    <col min="4" max="4" width="28.19921875" customWidth="1"/>
+    <col min="5" max="5" width="30.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="171.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="185.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="168" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D3F61F-0347-41D5-91A8-0D2FBCD00291}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -698,28 +1529,28 @@
         <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.4">
@@ -734,11 +1565,11 @@
         <v>중거리</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2" t="str">
         <f>VLOOKUP(D3, 카테고리_피해타입,2,FALSE)</f>
-        <v>단일</v>
+        <v>범위</v>
       </c>
       <c r="F3" s="2">
         <v>100</v>
@@ -753,31 +1584,31 @@
         <v>10</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
@@ -811,31 +1642,31 @@
         <v>10</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
@@ -1061,10 +1892,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325F995D-D464-4E08-87B8-359E9E3CF2CA}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -1076,7 +1908,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
@@ -1087,7 +1919,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1104,7 +1936,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>1</v>

--- a/유닛 및 건물/양_유닛.xlsx
+++ b/유닛 및 건물/양_유닛.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22743666-3AA2-4B5E-98CC-C51876B33E02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A795951-5E44-4AB1-90C4-621A22BCBEEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5DC44C0D-AFC0-4050-AC88-DAB7CE401A2D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{5DC44C0D-AFC0-4050-AC88-DAB7CE401A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="유닛 탄생" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -202,10 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>창을 앞으로 세우고 찌릅니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>검을 위로 치켜든 후 아래쪽으로 휘두릅니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,24 +210,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적을 향해 활시위를 당긴 후 화살을 쏩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양손으로 창을 세우고 전진합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왼손으로 창을 세우고 
-서있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>플레이어가 벽을 세워 유닛 랠리포인트가 있다면 유닛은 곧바로 이동합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Unit_SheepPikeMan</t>
+    <t>양 투창병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창 날이 아래쪽으로 향도록 들고 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 향해 창을 던집니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활집에서 화살을 꺼내 활을 당긴 후 화살을 쏩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른손으로 칼을 들고 서있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_SheepJavelin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛 생성 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랠리 포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈련을 마친 유닛이 생성되는 위치입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛이 우선적으로 이동한 후 대기하는 위치입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -312,7 +339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -324,10 +351,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -856,30 +889,25 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>744906</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2941320</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1990467</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
+        <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{842CE2C5-EC0D-47BD-8F8C-2874D5C438FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{762D0F60-C604-435F-BD3F-9C38522F7857}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -887,22 +915,21 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="19697" t="25000" r="18182" b="15909"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3383280" y="3145206"/>
-          <a:ext cx="2560320" cy="1245561"/>
+          <a:off x="5730240" y="2324100"/>
+          <a:ext cx="624840" cy="792480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -911,104 +938,557 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>899160</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>203112</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1645920</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>2263140</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="화살표: 오른쪽 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AF6CCC1-43FD-4BC2-961C-4593DE3EAD6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DF0C28B-185D-4D9C-9BF2-FBBB9442E92D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2567940" y="2506980"/>
+          <a:ext cx="4076700" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>이동</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="직사각형 13">
           <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53DED966-D7E9-4876-8F38-931B7D8F0249}"/>
             </a:ext>
           </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1569720" y="2603412"/>
-          <a:ext cx="746760" cy="2060028"/>
+        <a:xfrm>
+          <a:off x="6720840" y="2080260"/>
+          <a:ext cx="541020" cy="1112520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>426720</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2125980</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>2232660</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="그림 6">
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="직선 연결선 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D14615A-2A17-49F5-8A25-28B9175B4F20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D82DB5B-82D6-40D5-B259-3D443073DA57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1783080" y="3108960"/>
+          <a:ext cx="0" cy="1074420"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="직선 연결선 23">
           <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8682FC0-5DA2-4365-BA53-0A5893D352E5}"/>
             </a:ext>
           </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8511540" y="2827020"/>
-          <a:ext cx="1805940" cy="1805940"/>
+          <a:off x="6987540" y="3169920"/>
+          <a:ext cx="0" cy="944880"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="직사각형 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5FF6609-37E7-4A7F-B69A-DFF4AED5696D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1699260" y="4114800"/>
+          <a:ext cx="186146" cy="289560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>376646</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="직사각형 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29051B46-94BB-4C1E-983E-366301280135}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6896100" y="4091940"/>
+          <a:ext cx="186146" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="화살표: 아래쪽 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F72492A2-FC82-478E-B97F-743D5C346C94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6903720" y="2232660"/>
+          <a:ext cx="160020" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1311,25 +1791,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6F94A7-7021-4009-9B15-493C51B47768}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="11" max="11" width="8.796875" customWidth="1"/>
+    <col min="14" max="14" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="42.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="M3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="M4" s="4">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="M5" s="4">
+        <v>2</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1345,13 +1860,13 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="30.59765625" customWidth="1"/>
-    <col min="3" max="3" width="39.8984375" customWidth="1"/>
+    <col min="2" max="2" width="37.19921875" customWidth="1"/>
+    <col min="3" max="3" width="42.5" customWidth="1"/>
     <col min="4" max="4" width="28.19921875" customWidth="1"/>
     <col min="5" max="5" width="30.3984375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1373,49 +1888,49 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="171.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="185.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="168" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="C4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1424,7 +1939,7 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1584,7 +2099,7 @@
         <v>10</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>30</v>
@@ -1900,7 +2415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325F995D-D464-4E08-87B8-359E9E3CF2CA}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>

--- a/유닛 및 건물/양_유닛.xlsx
+++ b/유닛 및 건물/양_유닛.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A795951-5E44-4AB1-90C4-621A22BCBEEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BA298D-0AD1-499C-B7DE-A99DB8682E54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{5DC44C0D-AFC0-4050-AC88-DAB7CE401A2D}"/>
+    <workbookView xWindow="8520" yWindow="780" windowWidth="14676" windowHeight="10932" activeTab="2" xr2:uid="{5DC44C0D-AFC0-4050-AC88-DAB7CE401A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="유닛 탄생" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
     <t>이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -134,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>양 창병</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>양 궁수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -259,6 +255,10 @@
   </si>
   <si>
     <t>유닛이 우선적으로 이동한 후 대기하는 위치입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사거리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1806,23 +1806,23 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="M3" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
@@ -1830,10 +1830,10 @@
         <v>1</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
@@ -1841,10 +1841,10 @@
         <v>2</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1860,7 +1860,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1873,19 +1873,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
@@ -1893,36 +1893,36 @@
         <v>22</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1936,25 +1936,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D3F61F-0347-41D5-91A8-0D2FBCD00291}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.09765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1965,52 +1966,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -2024,53 +2028,56 @@
       <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="str">
-        <f>VLOOKUP(D2, 카테고리_피해타입,2,FALSE)</f>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f>VLOOKUP(E2, 카테고리_피해타입,2,FALSE)</f>
         <v>범위</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>200</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>5</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>1</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -2080,55 +2087,58 @@
         <v>중거리</v>
       </c>
       <c r="D3" s="2">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="str">
-        <f>VLOOKUP(D3, 카테고리_피해타입,2,FALSE)</f>
+      <c r="F3" s="2" t="str">
+        <f>VLOOKUP(E3, 카테고리_피해타입,2,FALSE)</f>
         <v>범위</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>100</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>10</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>2</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>10</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -2138,53 +2148,56 @@
         <v>원거리</v>
       </c>
       <c r="D4" s="2">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="str">
-        <f>VLOOKUP(D4, 카테고리_피해타입,2,FALSE)</f>
+      <c r="F4" s="2" t="str">
+        <f>VLOOKUP(E4, 카테고리_피해타입,2,FALSE)</f>
         <v>단일</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>50</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>20</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>2</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>10</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2203,8 +2216,9 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2223,8 +2237,9 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2243,8 +2258,9 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2263,8 +2279,9 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2283,8 +2300,9 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2303,8 +2321,9 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2323,8 +2342,9 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2343,8 +2363,9 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2363,8 +2384,9 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2383,8 +2405,9 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2403,6 +2426,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2415,26 +2439,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325F995D-D464-4E08-87B8-359E9E3CF2CA}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2446,12 +2470,12 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2463,7 +2487,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -2477,5 +2501,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/유닛 및 건물/양_유닛.xlsx
+++ b/유닛 및 건물/양_유닛.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BA298D-0AD1-499C-B7DE-A99DB8682E54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2709BD4B-6E0C-4E0B-AC2B-9F3616661D5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="780" windowWidth="14676" windowHeight="10932" activeTab="2" xr2:uid="{5DC44C0D-AFC0-4050-AC88-DAB7CE401A2D}"/>
+    <workbookView minimized="1" xWindow="8556" yWindow="0" windowWidth="14676" windowHeight="10932" activeTab="2" xr2:uid="{5DC44C0D-AFC0-4050-AC88-DAB7CE401A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="유닛 탄생" sheetId="1" r:id="rId1"/>
-    <sheet name="유닛 애니메이션" sheetId="4" r:id="rId2"/>
-    <sheet name="유닛 테이블" sheetId="2" r:id="rId3"/>
+    <sheet name="유닛 테이블" sheetId="2" r:id="rId2"/>
+    <sheet name="유닛무기&amp;투사체&amp;특징" sheetId="5" r:id="rId3"/>
     <sheet name="Index" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="65">
   <si>
     <t>이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -150,14 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Unit_SheepSwordMan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_SheepBowman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,30 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Move</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검을 위로 치켜든 후 아래쪽으로 휘두릅니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오른손으로 활을 들고 서있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>플레이어가 벽을 세워 유닛 랠리포인트가 있다면 유닛은 곧바로 이동합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,22 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>창 날이 아래쪽으로 향도록 들고 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적을 향해 창을 던집니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>활집에서 화살을 꺼내 활을 당긴 후 화살을 쏩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오른손으로 칼을 들고 서있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Unit_SheepJavelin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -259,6 +211,94 @@
   </si>
   <si>
     <t>사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입(문자열)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 파일명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체 파일명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체 참고 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체 폭발 파일명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 및 투사체 크기 예시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_Sheepswordman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_Sheepbowman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_Sheepjavelin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_Sheepswordman_Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_SheepJavelin_Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_Sheepbowman_Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날아가는 투창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화살</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -290,7 +330,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,6 +346,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,7 +385,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -347,20 +393,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1794,7 +1834,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1806,45 +1846,45 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="M3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="M5" s="3">
+        <v>2</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="M3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="M4" s="4">
-        <v>1</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="M5" s="4">
-        <v>2</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1856,90 +1896,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D912C3A-A64A-4928-9DD8-1DEF3DA1AAB8}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="37.19921875" customWidth="1"/>
-    <col min="3" max="3" width="42.5" customWidth="1"/>
-    <col min="4" max="4" width="28.19921875" customWidth="1"/>
-    <col min="5" max="5" width="30.3984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D3F61F-0347-41D5-91A8-0D2FBCD00291}">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1966,7 +1927,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -2045,39 +2006,39 @@
         <v>1</v>
       </c>
       <c r="J2" s="2">
-        <v>7</v>
+        <v>1.7</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="N2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -2087,7 +2048,7 @@
         <v>중거리</v>
       </c>
       <c r="D3" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -2106,34 +2067,34 @@
         <v>2</v>
       </c>
       <c r="J3" s="2">
-        <v>10</v>
+        <v>1.7</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="N3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.4">
@@ -2148,7 +2109,7 @@
         <v>원거리</v>
       </c>
       <c r="D4" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -2167,34 +2128,34 @@
         <v>2</v>
       </c>
       <c r="J4" s="2">
-        <v>10</v>
+        <v>1.7</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="N4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.4">
@@ -2435,6 +2396,137 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD3FCF3-595E-4EB2-9B34-2131B7887420}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.59765625" customWidth="1"/>
+    <col min="6" max="6" width="26.5" customWidth="1"/>
+    <col min="7" max="8" width="12.296875" customWidth="1"/>
+    <col min="9" max="10" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="str">
+        <f>VLOOKUP(B2,카테고리_유닛타입,2,FALSE)</f>
+        <v>근거리</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="str">
+        <f>VLOOKUP(B3,카테고리_유닛타입,2,FALSE)</f>
+        <v>중거리</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="str">
+        <f>VLOOKUP(B4,카테고리_유닛타입,2,FALSE)</f>
+        <v>원거리</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325F995D-D464-4E08-87B8-359E9E3CF2CA}">
   <dimension ref="A1:G4"/>
@@ -2447,7 +2539,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
@@ -2458,7 +2550,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2475,7 +2567,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>1</v>

--- a/유닛 및 건물/양_유닛.xlsx
+++ b/유닛 및 건물/양_유닛.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2709BD4B-6E0C-4E0B-AC2B-9F3616661D5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4EDB6C-D164-41D3-A931-55B013EF2D18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="8556" yWindow="0" windowWidth="14676" windowHeight="10932" activeTab="2" xr2:uid="{5DC44C0D-AFC0-4050-AC88-DAB7CE401A2D}"/>
+    <workbookView xWindow="2856" yWindow="1308" windowWidth="14712" windowHeight="10932" activeTab="1" xr2:uid="{5DC44C0D-AFC0-4050-AC88-DAB7CE401A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="유닛 탄생" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
   <si>
     <t>이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -299,6 +299,10 @@
   </si>
   <si>
     <t>화살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재생산 시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1897,26 +1901,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D3F61F-0347-41D5-91A8-0D2FBCD00291}">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.09765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.09765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1930,52 +1934,55 @@
         <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -1990,32 +1997,32 @@
         <v>1</v>
       </c>
       <c r="E2" s="2">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="str">
-        <f>VLOOKUP(E2, 카테고리_피해타입,2,FALSE)</f>
+      <c r="G2" s="2" t="str">
+        <f>VLOOKUP(F2, 카테고리_피해타입,2,FALSE)</f>
         <v>범위</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>200</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>5</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>1</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>1.7</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>29</v>
@@ -2030,13 +2037,16 @@
         <v>29</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
@@ -2051,32 +2061,32 @@
         <v>5</v>
       </c>
       <c r="E3" s="2">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="str">
-        <f>VLOOKUP(E3, 카테고리_피해타입,2,FALSE)</f>
+      <c r="G3" s="2" t="str">
+        <f>VLOOKUP(F3, 카테고리_피해타입,2,FALSE)</f>
         <v>범위</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>100</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>10</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>2</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>1.7</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>29</v>
@@ -2094,10 +2104,13 @@
         <v>29</v>
       </c>
       <c r="S3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -2112,32 +2125,32 @@
         <v>7</v>
       </c>
       <c r="E4" s="2">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="str">
-        <f>VLOOKUP(E4, 카테고리_피해타입,2,FALSE)</f>
+      <c r="G4" s="2" t="str">
+        <f>VLOOKUP(F4, 카테고리_피해타입,2,FALSE)</f>
         <v>단일</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>50</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>20</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>2</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>1.7</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>29</v>
@@ -2155,10 +2168,13 @@
         <v>29</v>
       </c>
       <c r="S4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2178,8 +2194,9 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2199,8 +2216,9 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2220,8 +2238,9 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2241,8 +2260,9 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2262,8 +2282,9 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2283,8 +2304,9 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2304,8 +2326,9 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2325,8 +2348,9 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2346,8 +2370,9 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2367,8 +2392,9 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2388,6 +2414,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2400,8 +2427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD3FCF3-595E-4EB2-9B34-2131B7887420}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/유닛 및 건물/양_유닛.xlsx
+++ b/유닛 및 건물/양_유닛.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Sheperd_Holidays\유닛 및 건물\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home_pc\OneDrive\바탕 화면\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4EDB6C-D164-41D3-A931-55B013EF2D18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8E6F16-6A96-44DD-B2EB-920C729418B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2856" yWindow="1308" windowWidth="14712" windowHeight="10932" activeTab="1" xr2:uid="{5DC44C0D-AFC0-4050-AC88-DAB7CE401A2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{5DC44C0D-AFC0-4050-AC88-DAB7CE401A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="유닛 탄생" sheetId="1" r:id="rId1"/>
@@ -451,8 +451,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="243840" y="579120"/>
-          <a:ext cx="7550075" cy="3383429"/>
+          <a:off x="243840" y="556260"/>
+          <a:ext cx="7698665" cy="3211979"/>
           <a:chOff x="1990165" y="1353670"/>
           <a:chExt cx="7550075" cy="3383429"/>
         </a:xfrm>
@@ -1841,24 +1841,24 @@
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="8.796875" customWidth="1"/>
-    <col min="14" max="14" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="42.69921875" customWidth="1"/>
+    <col min="11" max="11" width="8.75" customWidth="1"/>
+    <col min="14" max="14" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="42.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="M3" s="4" t="s">
         <v>36</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="M4" s="3">
         <v>1</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="M5" s="3">
         <v>2</v>
       </c>
@@ -1903,24 +1903,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D3F61F-0347-41D5-91A8-0D2FBCD00291}">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.59765625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2196,7 +2196,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2218,7 +2218,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2240,7 +2240,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2262,7 +2262,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2284,7 +2284,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2306,7 +2306,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2328,7 +2328,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2350,7 +2350,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2372,7 +2372,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2394,7 +2394,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2431,17 +2431,17 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.59765625" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
     <col min="6" max="6" width="26.5" customWidth="1"/>
-    <col min="7" max="8" width="12.296875" customWidth="1"/>
-    <col min="9" max="10" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.25" customWidth="1"/>
+    <col min="9" max="10" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -2558,13 +2558,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325F995D-D464-4E08-87B8-359E9E3CF2CA}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -2575,45 +2575,45 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/유닛 및 건물/양_유닛.xlsx
+++ b/유닛 및 건물/양_유닛.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home_pc\OneDrive\바탕 화면\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8E6F16-6A96-44DD-B2EB-920C729418B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29EF814-4F89-4D34-9ACE-6A5EB8D6D07D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{5DC44C0D-AFC0-4050-AC88-DAB7CE401A2D}"/>
+    <workbookView xWindow="4020" yWindow="1215" windowWidth="15360" windowHeight="11295" firstSheet="1" activeTab="3" xr2:uid="{5DC44C0D-AFC0-4050-AC88-DAB7CE401A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="유닛 탄생" sheetId="1" r:id="rId1"/>
     <sheet name="유닛 테이블" sheetId="2" r:id="rId2"/>
-    <sheet name="유닛무기&amp;투사체&amp;특징" sheetId="5" r:id="rId3"/>
-    <sheet name="Index" sheetId="3" r:id="rId4"/>
+    <sheet name="Chart1" sheetId="8" r:id="rId3"/>
+    <sheet name="유닛 무기&amp;투사체&amp;특징" sheetId="7" r:id="rId4"/>
+    <sheet name="유닛 강화 테이블" sheetId="6" r:id="rId5"/>
+    <sheet name="유닛무기&amp;투사체&amp;특징" sheetId="5" r:id="rId6"/>
+    <sheet name="Index" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="카테고리_유닛타입">Index!$C$2:$D$4</definedName>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="97">
   <si>
     <t>이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -166,18 +169,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>훈련을 마친 양 유닛은 넥서스 입구쪽에 생성됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>플레이어가 벽을 세워 유닛 랠리포인트가 있다면 유닛은 곧바로 이동합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>양 투창병</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,10 +269,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Unit_Sheepjavelin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Unit_Sheepswordman_Weapon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -303,6 +294,141 @@
   </si>
   <si>
     <t>재생산 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 벽을 세워 유닛 포인트가 있다면 유닛은 렐리포인트로 이동합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈련된 양 유닛은 해당 건물 입구에서 생성됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양 기사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양 마법사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;애니메이션&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양 암살자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 파일명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 참고 이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체 파일명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체 참고 이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체 폭발 파일명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체 폭발 참고 이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 및 투사체 크기 예시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>특징</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>화상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_sheap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_sheapAssassin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_sheapKnight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_sheapSpearman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_sheapArcher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_sheapWizard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_sheapAssassin_Dagger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_sheapKnight_Sword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_sheapSpearman_ Spear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_sheapArcher_Arrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_sheapArcher_Bow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_sheapWizard_Staff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스태프</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -360,7 +486,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -383,13 +509,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -406,6 +543,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -423,20 +562,3292 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'유닛 무기&amp;투사체&amp;특징'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>무기 참고 이미지</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'유닛 무기&amp;투사체&amp;특징'!$A$2:$F$19</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="18"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Unit_sheapAssassin_Dagger</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Unit_sheapKnight_Sword</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Unit_sheapSpearman_ Spear</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Unit_sheapArcher_Bow</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Unit_sheapWizard_Staff</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>대거</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>검</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>창</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>활</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>스태프</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Unit_sheapAssassin</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Unit_sheapKnight</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Unit_sheapSpearman</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Unit_sheapArcher</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Unit_sheapWizard</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>중거리</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>원거리</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>원거리</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>양 암살자</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>양 기사</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>양 투창병</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>양 궁수</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>양 마법사</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'유닛 무기&amp;투사체&amp;특징'!$G$2:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9654-4B1E-A930-361748876282}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'유닛 무기&amp;투사체&amp;특징'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>투사체 이름</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'유닛 무기&amp;투사체&amp;특징'!$A$2:$F$19</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="18"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Unit_sheapAssassin_Dagger</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Unit_sheapKnight_Sword</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Unit_sheapSpearman_ Spear</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Unit_sheapArcher_Bow</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Unit_sheapWizard_Staff</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>대거</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>검</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>창</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>활</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>스태프</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Unit_sheapAssassin</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Unit_sheapKnight</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Unit_sheapSpearman</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Unit_sheapArcher</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Unit_sheapWizard</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>중거리</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>원거리</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>원거리</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>양 암살자</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>양 기사</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>양 투창병</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>양 궁수</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>양 마법사</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'유닛 무기&amp;투사체&amp;특징'!$H$2:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9654-4B1E-A930-361748876282}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'유닛 무기&amp;투사체&amp;특징'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>투사체 파일명</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'유닛 무기&amp;투사체&amp;특징'!$A$2:$F$19</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="18"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Unit_sheapAssassin_Dagger</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Unit_sheapKnight_Sword</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Unit_sheapSpearman_ Spear</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Unit_sheapArcher_Bow</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Unit_sheapWizard_Staff</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>대거</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>검</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>창</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>활</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>스태프</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Unit_sheapAssassin</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Unit_sheapKnight</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Unit_sheapSpearman</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Unit_sheapArcher</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Unit_sheapWizard</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>중거리</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>원거리</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>원거리</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>양 암살자</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>양 기사</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>양 투창병</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>양 궁수</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>양 마법사</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'유닛 무기&amp;투사체&amp;특징'!$I$2:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9654-4B1E-A930-361748876282}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'유닛 무기&amp;투사체&amp;특징'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>투사체 참고 이미지</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'유닛 무기&amp;투사체&amp;특징'!$A$2:$F$19</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="18"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Unit_sheapAssassin_Dagger</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Unit_sheapKnight_Sword</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Unit_sheapSpearman_ Spear</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Unit_sheapArcher_Bow</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Unit_sheapWizard_Staff</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>대거</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>검</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>창</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>활</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>스태프</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Unit_sheapAssassin</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Unit_sheapKnight</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Unit_sheapSpearman</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Unit_sheapArcher</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Unit_sheapWizard</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>중거리</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>원거리</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>원거리</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>양 암살자</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>양 기사</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>양 투창병</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>양 궁수</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>양 마법사</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'유닛 무기&amp;투사체&amp;특징'!$J$2:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9654-4B1E-A930-361748876282}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'유닛 무기&amp;투사체&amp;특징'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>투사체 폭발 파일명</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'유닛 무기&amp;투사체&amp;특징'!$A$2:$F$19</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="18"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Unit_sheapAssassin_Dagger</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Unit_sheapKnight_Sword</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Unit_sheapSpearman_ Spear</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Unit_sheapArcher_Bow</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Unit_sheapWizard_Staff</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>대거</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>검</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>창</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>활</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>스태프</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Unit_sheapAssassin</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Unit_sheapKnight</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Unit_sheapSpearman</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Unit_sheapArcher</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Unit_sheapWizard</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>중거리</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>원거리</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>원거리</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>양 암살자</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>양 기사</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>양 투창병</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>양 궁수</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>양 마법사</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'유닛 무기&amp;투사체&amp;특징'!$K$2:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9654-4B1E-A930-361748876282}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'유닛 무기&amp;투사체&amp;특징'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>투사체 폭발 참고 이미지</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'유닛 무기&amp;투사체&amp;특징'!$A$2:$F$19</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="18"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Unit_sheapAssassin_Dagger</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Unit_sheapKnight_Sword</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Unit_sheapSpearman_ Spear</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Unit_sheapArcher_Bow</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Unit_sheapWizard_Staff</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>대거</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>검</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>창</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>활</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>스태프</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Unit_sheapAssassin</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Unit_sheapKnight</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Unit_sheapSpearman</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Unit_sheapArcher</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Unit_sheapWizard</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>중거리</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>원거리</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>원거리</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>양 암살자</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>양 기사</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>양 투창병</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>양 궁수</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>양 마법사</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'유닛 무기&amp;투사체&amp;특징'!$L$2:$L$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9654-4B1E-A930-361748876282}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'유닛 무기&amp;투사체&amp;특징'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>무기 및 투사체 크기 예시</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'유닛 무기&amp;투사체&amp;특징'!$A$2:$F$19</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="18"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Unit_sheapAssassin_Dagger</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Unit_sheapKnight_Sword</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Unit_sheapSpearman_ Spear</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Unit_sheapArcher_Bow</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Unit_sheapWizard_Staff</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>대거</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>검</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>창</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>활</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>스태프</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Unit_sheapAssassin</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Unit_sheapKnight</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Unit_sheapSpearman</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Unit_sheapArcher</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Unit_sheapWizard</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>중거리</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>원거리</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>원거리</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>양 암살자</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>양 기사</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>양 투창병</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>양 궁수</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>양 마법사</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'유닛 무기&amp;투사체&amp;특징'!$M$2:$M$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-9654-4B1E-A930-361748876282}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'유닛 무기&amp;투사체&amp;특징'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>특징</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'유닛 무기&amp;투사체&amp;특징'!$A$2:$F$19</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="18"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Unit_sheapAssassin_Dagger</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Unit_sheapKnight_Sword</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Unit_sheapSpearman_ Spear</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Unit_sheapArcher_Bow</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Unit_sheapWizard_Staff</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>대거</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>검</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>창</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>활</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>스태프</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Unit_sheapAssassin</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Unit_sheapKnight</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Unit_sheapSpearman</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Unit_sheapArcher</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Unit_sheapWizard</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>중거리</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>원거리</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>원거리</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>양 암살자</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>양 기사</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>양 투창병</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>양 궁수</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>양 마법사</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'유닛 무기&amp;투사체&amp;특징'!$N$2:$N$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-9654-4B1E-A930-361748876282}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'유닛 무기&amp;투사체&amp;특징'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>설명</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'유닛 무기&amp;투사체&amp;특징'!$A$2:$F$19</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="18"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Unit_sheapAssassin_Dagger</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Unit_sheapKnight_Sword</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Unit_sheapSpearman_ Spear</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Unit_sheapArcher_Bow</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Unit_sheapWizard_Staff</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>대거</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>검</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>창</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>활</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>스태프</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Unit_sheapAssassin</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Unit_sheapKnight</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Unit_sheapSpearman</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Unit_sheapArcher</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Unit_sheapWizard</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Unit_sheap</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>중거리</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>원거리</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>원거리</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>근거리</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>양 암살자</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>양 기사</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>양 투창병</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>양 궁수</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>양 마법사</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'유닛 무기&amp;투사체&amp;특징'!$O$2:$O$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-9654-4B1E-A930-361748876282}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1553032352"/>
+        <c:axId val="1740223584"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1553032352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1740223584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1740223584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1553032352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{775D5390-32E0-4D1E-B5FD-D33E3698CE33}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="141" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>417755</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>205889</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>158264</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -451,7 +3862,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="243840" y="556260"/>
+          <a:off x="243840" y="2185035"/>
           <a:ext cx="7698665" cy="3211979"/>
           <a:chOff x="1990165" y="1353670"/>
           <a:chExt cx="7550075" cy="3383429"/>
@@ -937,14 +4348,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>184785</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -972,8 +4383,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5730240" y="2324100"/>
-          <a:ext cx="624840" cy="792480"/>
+          <a:off x="5852160" y="3838575"/>
+          <a:ext cx="640080" cy="746760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -986,14 +4397,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>127635</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1008,8 +4419,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2567940" y="2506980"/>
-          <a:ext cx="4076700" cy="320040"/>
+          <a:off x="2613660" y="4010025"/>
+          <a:ext cx="4168140" cy="308610"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1049,14 +4460,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>51435</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1071,8 +4482,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6720840" y="2080260"/>
-          <a:ext cx="541020" cy="1112520"/>
+          <a:off x="6873240" y="3606165"/>
+          <a:ext cx="541020" cy="1055370"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1208,15 +4619,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>403588</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>184428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
+      <xdr:colOff>413207</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1227,12 +4638,15 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="27" idx="0"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1783080" y="3108960"/>
-          <a:ext cx="0" cy="1074420"/>
+        <a:xfrm flipH="1">
+          <a:off x="1775188" y="4584978"/>
+          <a:ext cx="9619" cy="952857"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1263,15 +4677,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>283573</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>51435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1282,12 +4696,15 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+          <a:endCxn id="28" idx="0"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6987540" y="3169920"/>
-          <a:ext cx="0" cy="944880"/>
+        <a:xfrm flipH="1">
+          <a:off x="7141573" y="4661535"/>
+          <a:ext cx="2177" cy="853440"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1318,15 +4735,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>310515</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>544286</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
+      <xdr:colOff>496661</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>158115</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1341,8 +4758,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1699260" y="4114800"/>
-          <a:ext cx="186146" cy="289560"/>
+          <a:off x="1682115" y="5537835"/>
+          <a:ext cx="186146" cy="278130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1399,14 +4816,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>376646</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>135255</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1421,8 +4838,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6896100" y="4091940"/>
-          <a:ext cx="186146" cy="289560"/>
+          <a:off x="7048500" y="5514975"/>
+          <a:ext cx="186146" cy="278130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1479,14 +4896,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>184785</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>81915</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1501,8 +4918,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6903720" y="2232660"/>
-          <a:ext cx="160020" cy="327660"/>
+          <a:off x="7056120" y="3747135"/>
+          <a:ext cx="160020" cy="316230"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -1533,6 +4950,607 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9302074" cy="6079787"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B903651-3F97-46EF-A183-52467819B65C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>48185</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2495550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>467284</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6" descr="중세 전투 창 | 프리미엄 벡터">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A299085-4FDD-4A54-B4FF-B79AA62F5045}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="9843" b="98819" l="12121" r="79293">
+                      <a14:foregroundMark x1="81818" y1="5906" x2="74829" y2="14347"/>
+                      <a14:foregroundMark x1="74747" y1="12992" x2="74006" y2="14129"/>
+                      <a14:foregroundMark x1="57628" y1="39918" x2="38453" y2="64527"/>
+                      <a14:backgroundMark x1="63131" y1="21260" x2="33838" y2="55906"/>
+                      <a14:backgroundMark x1="33838" y1="55906" x2="11616" y2="96457"/>
+                      <a14:backgroundMark x1="11111" y1="97244" x2="17172" y2="85827"/>
+                      <a14:backgroundMark x1="65657" y1="20866" x2="65657" y2="20866"/>
+                      <a14:backgroundMark x1="67677" y1="20866" x2="67677" y2="20866"/>
+                      <a14:backgroundMark x1="69697" y1="19685" x2="69697" y2="19685"/>
+                      <a14:backgroundMark x1="67172" y1="22047" x2="67172" y2="22047"/>
+                      <a14:backgroundMark x1="67172" y1="23228" x2="67172" y2="23228"/>
+                      <a14:backgroundMark x1="67677" y1="22835" x2="67677" y2="22835"/>
+                      <a14:backgroundMark x1="68687" y1="23228" x2="68687" y2="23228"/>
+                      <a14:backgroundMark x1="68182" y1="21654" x2="68182" y2="21654"/>
+                      <a14:backgroundMark x1="11616" y1="98031" x2="13636" y2="98819"/>
+                      <a14:backgroundMark x1="70707" y1="14173" x2="72727" y2="13386"/>
+                      <a14:backgroundMark x1="71212" y1="13386" x2="65657" y2="25591"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="9507" r="12656"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="14418314">
+          <a:off x="12864354" y="1591234"/>
+          <a:ext cx="1467970" cy="2447365"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>620806</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>87406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2421032</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>30257</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1" descr="대거(dagger) - 무기사전 - 위키독">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E08DF39-FF3B-4CD3-85B4-E25D42C7B468}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId4">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="35052" b="64433" l="16988" r="79151">
+                      <a14:foregroundMark x1="60564" y1="47321" x2="60232" y2="53093"/>
+                      <a14:foregroundMark x1="58301" y1="49485" x2="29730" y2="51031"/>
+                      <a14:foregroundMark x1="39382" y1="51546" x2="25069" y2="50863"/>
+                      <a14:foregroundMark x1="30888" y1="50515" x2="25750" y2="49372"/>
+                      <a14:foregroundMark x1="25889" y1="49069" x2="42085" y2="49485"/>
+                      <a14:foregroundMark x1="42085" y1="49485" x2="50579" y2="48454"/>
+                      <a14:foregroundMark x1="21622" y1="50515" x2="21622" y2="50515"/>
+                      <a14:foregroundMark x1="78764" y1="51031" x2="78764" y2="53608"/>
+                      <a14:foregroundMark x1="79151" y1="49485" x2="79151" y2="49485"/>
+                      <a14:foregroundMark x1="60618" y1="58247" x2="60618" y2="58247"/>
+                      <a14:foregroundMark x1="64865" y1="51031" x2="69167" y2="52056"/>
+                      <a14:foregroundMark x1="60618" y1="48969" x2="67745" y2="48969"/>
+                      <a14:foregroundMark x1="59073" y1="42784" x2="59073" y2="42784"/>
+                      <a14:foregroundMark x1="61004" y1="41753" x2="61004" y2="41753"/>
+                      <a14:foregroundMark x1="59846" y1="49485" x2="17375" y2="51031"/>
+                      <a14:foregroundMark x1="21622" y1="50000" x2="41699" y2="50000"/>
+                      <a14:foregroundMark x1="41699" y1="50000" x2="61004" y2="48969"/>
+                      <a14:foregroundMark x1="61004" y1="48969" x2="62548" y2="48969"/>
+                      <a14:foregroundMark x1="77606" y1="49485" x2="70270" y2="49485"/>
+                      <a14:backgroundMark x1="15444" y1="48454" x2="16095" y2="48394"/>
+                      <a14:backgroundMark x1="16216" y1="21134" x2="16216" y2="21134"/>
+                      <a14:backgroundMark x1="69124" y1="47080" x2="66795" y2="46907"/>
+                      <a14:backgroundMark x1="59073" y1="43814" x2="58687" y2="46907"/>
+                      <a14:backgroundMark x1="58687" y1="42268" x2="58687" y2="42268"/>
+                      <a14:backgroundMark x1="59459" y1="42268" x2="59459" y2="42268"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="13514" t="31442" r="13513" b="30928"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7333130" y="87406"/>
+          <a:ext cx="1800226" cy="693645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>145674</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>265417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2775134</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2323</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2" descr="중세 검 화이트 절연 로열티 무료 사진, 그림, 이미지 그리고 스톡포토그래피. Image 40533547.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B334759D-AB80-45E7-AD5C-AC9B2D197B29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId6">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="9290" b="89071" l="4348" r="90580">
+                      <a14:foregroundMark x1="21014" y1="27322" x2="4348" y2="12022"/>
+                      <a14:foregroundMark x1="8333" y1="15301" x2="27536" y2="32240"/>
+                      <a14:foregroundMark x1="40217" y1="42077" x2="90580" y2="81967"/>
+                      <a14:foregroundMark x1="90580" y1="81967" x2="36232" y2="34426"/>
+                      <a14:foregroundMark x1="44928" y1="40437" x2="73188" y2="63934"/>
+                      <a14:foregroundMark x1="74275" y1="48087" x2="74275" y2="48087"/>
+                      <a14:foregroundMark x1="65217" y1="77049" x2="65217" y2="77049"/>
+                      <a14:foregroundMark x1="44928" y1="44262" x2="11957" y2="15301"/>
+                      <a14:foregroundMark x1="11957" y1="15301" x2="8333" y2="14208"/>
+                      <a14:foregroundMark x1="7971" y1="13661" x2="25000" y2="25683"/>
+                      <a14:foregroundMark x1="25000" y1="25683" x2="39493" y2="34973"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="20080707">
+          <a:off x="6857998" y="478329"/>
+          <a:ext cx="2629460" cy="1748118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>160243</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2607608</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>467284</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3" descr="중세 전투 창 | 프리미엄 벡터">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F09D5C31-63FB-4076-B996-772836D1FBBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="9843" b="98819" l="12121" r="79293">
+                      <a14:foregroundMark x1="81818" y1="5906" x2="74829" y2="14347"/>
+                      <a14:foregroundMark x1="74747" y1="12992" x2="74006" y2="14129"/>
+                      <a14:foregroundMark x1="57628" y1="39918" x2="38453" y2="64527"/>
+                      <a14:backgroundMark x1="63131" y1="21260" x2="33838" y2="55906"/>
+                      <a14:backgroundMark x1="33838" y1="55906" x2="11616" y2="96457"/>
+                      <a14:backgroundMark x1="11111" y1="97244" x2="17172" y2="85827"/>
+                      <a14:backgroundMark x1="65657" y1="20866" x2="65657" y2="20866"/>
+                      <a14:backgroundMark x1="67677" y1="20866" x2="67677" y2="20866"/>
+                      <a14:backgroundMark x1="69697" y1="19685" x2="69697" y2="19685"/>
+                      <a14:backgroundMark x1="67172" y1="22047" x2="67172" y2="22047"/>
+                      <a14:backgroundMark x1="67172" y1="23228" x2="67172" y2="23228"/>
+                      <a14:backgroundMark x1="67677" y1="22835" x2="67677" y2="22835"/>
+                      <a14:backgroundMark x1="68687" y1="23228" x2="68687" y2="23228"/>
+                      <a14:backgroundMark x1="68182" y1="21654" x2="68182" y2="21654"/>
+                      <a14:backgroundMark x1="11616" y1="98031" x2="13636" y2="98819"/>
+                      <a14:backgroundMark x1="70707" y1="14173" x2="72727" y2="13386"/>
+                      <a14:backgroundMark x1="71212" y1="13386" x2="65657" y2="25591"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="9507" r="12656"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="14418314">
+          <a:off x="7362265" y="1591234"/>
+          <a:ext cx="1467970" cy="2447365"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>336177</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>107845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2734234</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>770917</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4" descr="How to Draw a Bow and Arrow ❤ liked on Polyvore featuring weapon">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A120F56-1CCB-41A5-B813-8BA0646D5FEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId8">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="1596" b="96986" l="26596" r="51950">
+                      <a14:foregroundMark x1="50355" y1="96454" x2="27660" y2="64894"/>
+                      <a14:foregroundMark x1="27660" y1="64894" x2="26596" y2="44326"/>
+                      <a14:foregroundMark x1="26596" y1="44326" x2="29433" y2="64362"/>
+                      <a14:foregroundMark x1="29433" y1="64362" x2="32092" y2="70390"/>
+                      <a14:foregroundMark x1="50000" y1="94149" x2="49113" y2="73227"/>
+                      <a14:foregroundMark x1="49113" y1="73227" x2="50709" y2="13475"/>
+                      <a14:foregroundMark x1="50709" y1="13475" x2="35816" y2="20745"/>
+                      <a14:foregroundMark x1="46454" y1="7624" x2="49291" y2="1950"/>
+                      <a14:foregroundMark x1="50177" y1="96986" x2="43972" y2="87589"/>
+                      <a14:foregroundMark x1="50887" y1="90248" x2="50887" y2="70745"/>
+                      <a14:foregroundMark x1="50887" y1="70745" x2="49823" y2="61348"/>
+                      <a14:foregroundMark x1="49291" y1="85106" x2="49291" y2="68972"/>
+                      <a14:foregroundMark x1="51064" y1="95213" x2="50887" y2="87234"/>
+                      <a14:foregroundMark x1="49645" y1="91667" x2="43972" y2="90957"/>
+                      <a14:foregroundMark x1="49113" y1="91312" x2="49823" y2="64184"/>
+                      <a14:foregroundMark x1="49823" y1="64184" x2="49645" y2="52837"/>
+                      <a14:foregroundMark x1="49823" y1="62766" x2="49113" y2="47872"/>
+                      <a14:foregroundMark x1="50355" y1="62766" x2="50355" y2="45213"/>
+                      <a14:foregroundMark x1="51064" y1="56206" x2="50000" y2="38298"/>
+                      <a14:foregroundMark x1="49823" y1="44681" x2="49113" y2="26950"/>
+                      <a14:foregroundMark x1="51064" y1="34574" x2="50355" y2="19858"/>
+                      <a14:foregroundMark x1="51064" y1="25709" x2="50177" y2="11525"/>
+                      <a14:foregroundMark x1="50532" y1="24113" x2="48936" y2="11879"/>
+                      <a14:foregroundMark x1="50000" y1="28723" x2="49113" y2="13475"/>
+                      <a14:foregroundMark x1="50887" y1="12234" x2="50709" y2="1596"/>
+                      <a14:foregroundMark x1="51596" y1="18617" x2="51950" y2="6560"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="25759" t="1404" r="47710" b="2511"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="7915994" y="2321970"/>
+          <a:ext cx="663072" cy="2398057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>680016</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>341183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2092103</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>515946</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5" descr="How to Draw a Bow and Arrow ❤ liked on Polyvore featuring weapon">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68A23EEF-5480-470D-9B6B-C99ED2FAA8FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="62471" t="1092" r="26731" b="11714"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000">
+          <a:off x="13625149" y="2804139"/>
+          <a:ext cx="174763" cy="1412087"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>294183</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>195736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2724151</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1319014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7" descr="Pin on Magic Staffs, Wands &amp; Robes">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E5D3518-3643-4A10-B219-C633EE9D6AD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000">
+          <a:off x="7672178" y="4066766"/>
+          <a:ext cx="1123278" cy="2429968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1838,7 +5856,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1850,23 +5868,23 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="M3" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -1874,10 +5892,10 @@
         <v>1</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -1885,10 +5903,10 @@
         <v>2</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1901,14 +5919,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D3F61F-0347-41D5-91A8-0D2FBCD00291}">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
@@ -1931,10 +5950,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -1984,7 +6003,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -1997,29 +6016,29 @@
         <v>1</v>
       </c>
       <c r="E2" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2" t="str">
         <f>VLOOKUP(F2, 카테고리_피해타입,2,FALSE)</f>
-        <v>범위</v>
+        <v>단일</v>
       </c>
       <c r="H2" s="2">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="I2" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J2" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K2" s="2">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>27</v>
@@ -2048,42 +6067,42 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2" t="str">
         <f>VLOOKUP(B3, 카테고리_유닛타입, 2,FALSE)</f>
-        <v>중거리</v>
+        <v>근거리</v>
       </c>
       <c r="D3" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2" t="str">
         <f>VLOOKUP(F3, 카테고리_피해타입,2,FALSE)</f>
-        <v>범위</v>
+        <v>단일</v>
       </c>
       <c r="H3" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I3" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J3" s="2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K3" s="2">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>27</v>
@@ -2104,29 +6123,19 @@
         <v>29</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="2" t="str">
         <f>VLOOKUP(B4, 카테고리_유닛타입, 2,FALSE)</f>
-        <v>원거리</v>
-      </c>
-      <c r="D4" s="2">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2">
-        <v>25</v>
-      </c>
+        <v>근거리</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="2">
         <v>0</v>
       </c>
@@ -2134,60 +6143,50 @@
         <f>VLOOKUP(F4, 카테고리_피해타입,2,FALSE)</f>
         <v>단일</v>
       </c>
-      <c r="H4" s="2">
-        <v>50</v>
-      </c>
-      <c r="I4" s="2">
-        <v>20</v>
-      </c>
-      <c r="J4" s="2">
-        <v>2</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1.7</v>
-      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="str">
+        <f>VLOOKUP(B5, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>근거리</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f>VLOOKUP(F5, 카테고리_피해타입,2,FALSE)</f>
+        <v>단일</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -2199,17 +6198,29 @@
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="str">
+        <f>VLOOKUP(B6, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>근거리</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f>VLOOKUP(F6, 카테고리_피해타입,2,FALSE)</f>
+        <v>단일</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -2219,63 +6230,159 @@
       <c r="T6" s="2"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f>VLOOKUP(B7, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>중거리</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f>VLOOKUP(F7, 카테고리_피해타입,2,FALSE)</f>
+        <v>단일</v>
+      </c>
+      <c r="H7" s="2">
+        <v>175</v>
+      </c>
+      <c r="I7" s="2">
+        <v>10</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f>VLOOKUP(B8, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>원거리</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f>VLOOKUP(F8, 카테고리_피해타입,2,FALSE)</f>
+        <v>단일</v>
+      </c>
+      <c r="H8" s="2">
+        <v>125</v>
+      </c>
+      <c r="I8" s="2">
+        <v>20</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="str">
+        <f>VLOOKUP(B9, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>근거리</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f>VLOOKUP(F9, 카테고리_피해타입,2,FALSE)</f>
+        <v>단일</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -2287,17 +6394,29 @@
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="str">
+        <f>VLOOKUP(B10, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>근거리</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="str">
+        <f>VLOOKUP(F10, 카테고리_피해타입,2,FALSE)</f>
+        <v>단일</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="L10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -2309,17 +6428,29 @@
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="str">
+        <f>VLOOKUP(B11, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>근거리</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f>VLOOKUP(F11, 카테고리_피해타입,2,FALSE)</f>
+        <v>단일</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="L11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -2329,41 +6460,95 @@
       <c r="T11" s="2"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f>VLOOKUP(B12, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>원거리</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="str">
+        <f>VLOOKUP(F12, 카테고리_피해타입,2,FALSE)</f>
+        <v>단일</v>
+      </c>
+      <c r="H12" s="2">
+        <v>100</v>
+      </c>
+      <c r="I12" s="2">
+        <v>25</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="str">
+        <f>VLOOKUP(B13, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>근거리</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="str">
+        <f>VLOOKUP(F13, 카테고리_피해타입,2,FALSE)</f>
+        <v>단일</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="L13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -2375,17 +6560,29 @@
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="str">
+        <f>VLOOKUP(B14, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>근거리</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="str">
+        <f>VLOOKUP(F14, 카테고리_피해타입,2,FALSE)</f>
+        <v>단일</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
+      <c r="L14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -2397,10 +6594,701 @@
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="str">
+        <f>VLOOKUP(B15, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>근거리</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="str">
+        <f>VLOOKUP(F15, 카테고리_피해타입,2,FALSE)</f>
+        <v>단일</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="str">
+        <f>VLOOKUP(B16, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>근거리</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="str">
+        <f>VLOOKUP(F16, 카테고리_피해타입,2,FALSE)</f>
+        <v>단일</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="str">
+        <f>VLOOKUP(B17, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>근거리</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="str">
+        <f>VLOOKUP(F17, 카테고리_피해타입,2,FALSE)</f>
+        <v>단일</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="str">
+        <f>VLOOKUP(B18, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>근거리</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="str">
+        <f>VLOOKUP(F18, 카테고리_피해타입,2,FALSE)</f>
+        <v>단일</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="str">
+        <f>VLOOKUP(B19, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>근거리</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="str">
+        <f>VLOOKUP(F19, 카테고리_피해타입,2,FALSE)</f>
+        <v>단일</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D24" s="2">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9E97C7-0D4E-464E-B00F-2E8287F827CA}">
+  <dimension ref="A1:O23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5" customWidth="1"/>
+    <col min="9" max="9" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37" customWidth="1"/>
+    <col min="11" max="11" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>VLOOKUP(B2, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>근거리</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>VLOOKUP(B3, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>근거리</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="str">
+        <f>VLOOKUP(B4, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>근거리</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="str">
+        <f>VLOOKUP(B5, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>근거리</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="str">
+        <f>VLOOKUP(B6, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>근거리</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f>VLOOKUP(B7, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>중거리</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f>VLOOKUP(B8, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>원거리</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="str">
+        <f>VLOOKUP(B9, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>근거리</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="str">
+        <f>VLOOKUP(B10, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>근거리</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="str">
+        <f>VLOOKUP(B11, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>근거리</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" ht="114.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f>VLOOKUP(B12, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>원거리</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="str">
+        <f>VLOOKUP(B13, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>근거리</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="str">
+        <f>VLOOKUP(B14, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>근거리</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="str">
+        <f>VLOOKUP(B15, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>근거리</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -2410,20 +7298,189 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="str">
+        <f>VLOOKUP(B16, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>근거리</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="str">
+        <f>VLOOKUP(B17, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>근거리</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="str">
+        <f>VLOOKUP(B18, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>근거리</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="str">
+        <f>VLOOKUP(B19, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>근거리</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5EEE4B-252D-4CFB-AFF8-E94DF36C06BE}">
+  <dimension ref="A1:O1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD3FCF3-595E-4EB2-9B34-2131B7887420}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -2443,37 +7500,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -2488,21 +7545,21 @@
         <v>근거리</v>
       </c>
       <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
         <v>56</v>
       </c>
-      <c r="E2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>59</v>
-      </c>
-      <c r="G2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2512,16 +7569,16 @@
         <v>중거리</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
         <v>60</v>
-      </c>
-      <c r="G3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2536,16 +7593,16 @@
         <v>원거리</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
         <v>61</v>
-      </c>
-      <c r="G4" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2554,12 +7611,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325F995D-D464-4E08-87B8-359E9E3CF2CA}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/유닛 및 건물/양_유닛.xlsx
+++ b/유닛 및 건물/양_유닛.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home_pc\OneDrive\바탕 화면\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A3ADE6-88AD-40A5-956E-117C879AC5E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B78B223-453E-4C42-8132-397C79E36C7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="5" xr2:uid="{5DC44C0D-AFC0-4050-AC88-DAB7CE401A2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="647" activeTab="4" xr2:uid="{5DC44C0D-AFC0-4050-AC88-DAB7CE401A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="유닛 생산" sheetId="1" r:id="rId1"/>
     <sheet name="유닛 테이블" sheetId="2" r:id="rId2"/>
     <sheet name="2레벨 유닛 테이블" sheetId="8" r:id="rId3"/>
-    <sheet name="유닛 무기&amp;투사체&amp;특징" sheetId="7" r:id="rId4"/>
-    <sheet name="2레벨 유닛 무기&amp;투사체&amp;특징" sheetId="6" r:id="rId5"/>
-    <sheet name="Index" sheetId="3" r:id="rId6"/>
+    <sheet name="유닛 테이블DB" sheetId="10" r:id="rId4"/>
+    <sheet name="유닛 무기&amp;투사체&amp;특징" sheetId="7" r:id="rId5"/>
+    <sheet name="2레벨 유닛 무기&amp;투사체&amp;특징" sheetId="6" r:id="rId6"/>
+    <sheet name="Index" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2레벨 유닛 무기&amp;투사체&amp;특징'!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2레벨 유닛 무기&amp;투사체&amp;특징'!$A$1:$O$1</definedName>
     <definedName name="카테고리_유닛타입">Index!$C$2:$D$4</definedName>
     <definedName name="카테고리_피해타입">Index!$F$2:$G$3</definedName>
   </definedNames>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="115">
   <si>
     <t>이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -85,38 +86,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>애니메이션 필요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Idle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dead</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Move</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Projectile(투사체)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProjectileBomb(투사체 폭발)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;카테고리_유닛타입&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>애니메이션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,38 +130,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>양 투창병</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유닛 생성 위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>랠리 포인트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>훈련을 마친 유닛이 생성되는 위치입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유닛이 우선적으로 이동한 후 대기하는 위치입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사거리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>플레이어가 벽을 세워 유닛 포인트가 있다면 유닛은 렐리포인트로 이동합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>훈련된 양 유닛은 해당 건물 입구에서 생성됩니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -284,48 +217,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Unit_sheap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_sheapAssassin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_sheapKnight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_sheapSpearman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_sheapArcher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_sheapWizard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_sheapKnight_Sword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_sheapSpearman_ Spear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_sheapArcher_Arrow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스태프</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>후드망토를 입고 있음</t>
@@ -450,13 +343,161 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로브를 입고 있음
-얼어붙은 구름을 소환에 운석을 떨굼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>화살 2발을 쏨
 외형 변화X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로브를 입고 있음
+얼어붙은 구름을 소환에 운석을 떨굼
+피해를 입은 모든 적 유닛들은 공격 속도가 50% 느려짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 &gt; 중거리 &gt; 근거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaitingTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RangeDamage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackDelay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idle(애니메이션여부)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack(애니메이션여부)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hit(애니메이션여부)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dead(애니메이션여부)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move(애니메이션여부)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projectile(애니메이션여부)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectileBomb(애니메이션여부)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 무기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 무기 파일명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>행동 로직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 양 유닛은 왼쪽에서 오른쪽으로 움직입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 유닛은 이동 중 사거리안에 적 유닛이 들어오면 죽을 때까지 공격합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_SheepAssassin</t>
+  </si>
+  <si>
+    <t>Unit_SheepKnight</t>
+  </si>
+  <si>
+    <t>Unit_Sheep</t>
+  </si>
+  <si>
+    <t>Unit_SheepSpearman</t>
+  </si>
+  <si>
+    <t>Unit_SheepArcher</t>
+  </si>
+  <si>
+    <t>Unit_SheepWizard</t>
+  </si>
+  <si>
+    <t>Unit_SheepKnight_Sword</t>
+  </si>
+  <si>
+    <t>Unit_SheepSpearman_ Spear</t>
+  </si>
+  <si>
+    <t>Unit_SheepArcher_Arrow</t>
+  </si>
+  <si>
+    <t>2-1. 투사체가 날아가는 도중 유닛이 죽을 경우 투사체는 뒤에 있는 유닛이 맞습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1. 플레이어가 벽을 세워 집결지가 있다면 집결지까지 이동합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 사거리 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2. 유닛들은 집결지에서 공격 사거리 타입이 높을수록 낮은 유닛들보다 뒤에 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 모든 유닛들은 겹쳐질 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3. 벽과 타입들 사이의 거리는 0.5 타일입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,7 +538,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,14 +551,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -541,16 +576,81 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -561,7 +661,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -569,21 +669,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,578 +735,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>680870</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>89535</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>17039</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>171226</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>158264</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="그룹 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DD6888F-F3AC-42CD-A6AF-354450C30E19}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="680870" y="1602329"/>
-          <a:ext cx="7681856" cy="3262406"/>
-          <a:chOff x="1990165" y="1353670"/>
-          <a:chExt cx="7550075" cy="3383429"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="직사각형 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B495BB7B-F9C7-4E2A-AC1A-58A2514174E3}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1990165" y="1353670"/>
-            <a:ext cx="7550075" cy="3383429"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ko-KR"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="4" name="그림 3" descr="건물, 집, 거리, 작은이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9A74063-7873-4E5E-B1DB-CC79F8CE3A3E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1990165" y="2169604"/>
-            <a:ext cx="2124636" cy="1751560"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="직사각형 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A961725-2CA5-47DD-90ED-3544EAF715D8}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1990165" y="3881718"/>
-            <a:ext cx="7550075" cy="855381"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ko-KR"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="직사각형 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BED3DAF6-498F-4171-9345-0DF43492E0CE}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3246120" y="3177540"/>
-            <a:ext cx="510540" cy="704178"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="28575">
-            <a:solidFill>
-              <a:srgbClr val="00B050"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ko-KR"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>119231</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>73511</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>184784</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="그림 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{762D0F60-C604-435F-BD3F-9C38522F7857}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="19697" t="25000" r="18182" b="15909"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6271260" y="3282763"/>
-          <a:ext cx="637839" cy="756845"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>309732</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>179294</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>127635</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>459441</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>203088</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="화살표: 오른쪽 12">
+        <xdr:cNvPr id="5" name="직사각형 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DF0C28B-185D-4D9C-9BF2-FBBB9442E92D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A961725-2CA5-47DD-90ED-3544EAF715D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1187,80 +757,20 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3043967" y="3457575"/>
-          <a:ext cx="2603798" cy="311972"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>이동</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>250563</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>43815</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>108025</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>51435</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="직사각형 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53DED966-D7E9-4876-8F38-931B7D8F0249}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5719034" y="3046991"/>
-          <a:ext cx="541020" cy="1072179"/>
+          <a:off x="680870" y="5765657"/>
+          <a:ext cx="3879924" cy="824784"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1384,340 +894,582 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>157059</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>500231</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>185126</xdr:rowOff>
+      <xdr:rowOff>111498</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>167797</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>89535</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>454511</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>16696</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="직선 연결선 22">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D82DB5B-82D6-40D5-B259-3D443073DA57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{762D0F60-C604-435F-BD3F-9C38522F7857}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="2"/>
-          <a:endCxn id="27" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="19697" t="25000" r="18182" b="15909"/>
+        <a:stretch/>
+      </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2207735" y="4039950"/>
-          <a:ext cx="10738" cy="968967"/>
+        <a:xfrm>
+          <a:off x="3918025" y="5008469"/>
+          <a:ext cx="637839" cy="756845"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>518896</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>51435</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>481853</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>156881</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>521073</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>406153</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="직선 연결선 23">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="18" name="그룹 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8682FC0-5DA2-4365-BA53-0A5893D352E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5833587-34B9-4B92-8D8A-1B51C3D3A93B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="14" idx="2"/>
-          <a:endCxn id="28" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5987367" y="4119170"/>
-          <a:ext cx="2177" cy="866887"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3216088" y="3137646"/>
+          <a:ext cx="607859" cy="1568824"/>
+          <a:chOff x="3328147" y="4202205"/>
+          <a:chExt cx="607859" cy="1568824"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="화살표: 아래쪽 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F72492A2-FC82-478E-B97F-743D5C346C94}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3571090" y="4599903"/>
+            <a:ext cx="160020" cy="322953"/>
+          </a:xfrm>
+          <a:prstGeom prst="downArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="TextBox 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB6C1A8E-72AC-4875-9AA0-0B5CF91BC402}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3328147" y="4202205"/>
+            <a:ext cx="607859" cy="336246"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>근거리</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="직사각형 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1968CDB3-4122-47B0-AE32-1D7E5F78104B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3440206" y="4997824"/>
+            <a:ext cx="459441" cy="773205"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:solidFill>
-            <a:srgbClr val="00B050"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>63986</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>89535</xdr:rowOff>
+      <xdr:colOff>521074</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>156881</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>250132</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>158115</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>445374</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="직사각형 26">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="25" name="그룹 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5FF6609-37E7-4A7F-B69A-DFF4AED5696D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37395AEC-413E-4877-8AC6-B18F9BD68161}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2114662" y="5008917"/>
-          <a:ext cx="186146" cy="281492"/>
+          <a:off x="2571750" y="3137646"/>
+          <a:ext cx="607859" cy="1568824"/>
+          <a:chOff x="2683809" y="4202205"/>
+          <a:chExt cx="607859" cy="1568824"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="화살표: 아래쪽 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C3A63A7-2D64-41CF-B140-FCC7031FB131}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2926752" y="4599903"/>
+            <a:ext cx="160020" cy="322953"/>
+          </a:xfrm>
+          <a:prstGeom prst="downArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="TextBox 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6681712-6CDB-4A7A-A810-94F45C79D5A2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2683809" y="4202205"/>
+            <a:ext cx="607859" cy="336246"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>중거리</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="직사각형 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A74E549C-ECE2-4EE9-8B29-8B00F142E3F5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2779059" y="4997824"/>
+            <a:ext cx="459441" cy="773205"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>425823</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>156881</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>611969</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>135255</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>484595</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="직사각형 27">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="그룹 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29051B46-94BB-4C1E-983E-366301280135}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79AD4D3A-D03C-4FBD-89EA-0312BD50CC38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5894294" y="4986057"/>
-          <a:ext cx="186146" cy="281492"/>
+          <a:off x="1927412" y="3137646"/>
+          <a:ext cx="607859" cy="1568824"/>
+          <a:chOff x="2039471" y="4202205"/>
+          <a:chExt cx="607859" cy="1568824"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="19050">
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="화살표: 아래쪽 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADFEB370-3E6E-46FC-B252-D3B7865E3DDB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2282414" y="4599903"/>
+            <a:ext cx="160020" cy="322953"/>
+          </a:xfrm>
+          <a:prstGeom prst="downArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="TextBox 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26BF8BD1-E061-48BD-87FB-D468D1F52B25}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2039471" y="4202205"/>
+            <a:ext cx="607859" cy="336246"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>원거리</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="직사각형 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9118DD06-556F-4443-8DA6-D7461BD67861}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2129118" y="4997824"/>
+            <a:ext cx="459441" cy="773205"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:solidFill>
-            <a:srgbClr val="00B050"/>
+            <a:srgbClr val="FFFF00"/>
           </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="FFFF00"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>433443</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>184785</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>593463</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="화살표: 아래쪽 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F72492A2-FC82-478E-B97F-743D5C346C94}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5901914" y="3187961"/>
-          <a:ext cx="160020" cy="322954"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2714,7 +2466,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2773,11 +2525,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId18">
+                <a14:imgLayer r:embed="rId19">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="33522" b="74431" l="10000" r="90000"/>
                   </a14:imgEffect>
@@ -2841,7 +2593,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2902,7 +2654,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3078,7 +2830,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>146879</xdr:colOff>
+      <xdr:colOff>146880</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>2135722</xdr:rowOff>
     </xdr:to>
@@ -3096,11 +2848,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId18">
+                <a14:imgLayer r:embed="rId19">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="33522" b="74431" l="10000" r="90000"/>
                   </a14:imgEffect>
@@ -3164,7 +2916,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3585,13 +3337,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>311727</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>155864</xdr:rowOff>
+      <xdr:rowOff>69273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1586468</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1987705</xdr:rowOff>
+      <xdr:rowOff>1901114</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3621,7 +3373,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="23985682" y="363682"/>
+          <a:off x="25925318" y="277091"/>
           <a:ext cx="1274741" cy="1831841"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3646,13 +3398,13 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>2857500</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>121230</xdr:rowOff>
+      <xdr:rowOff>675412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>3829483</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1625182</xdr:rowOff>
+      <xdr:rowOff>2179364</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3680,7 +3432,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22634864" y="2355275"/>
+          <a:off x="23275636" y="2909457"/>
           <a:ext cx="971983" cy="1503952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3841,13 +3593,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>367247</xdr:colOff>
+      <xdr:colOff>211383</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>168851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1919080</xdr:colOff>
+      <xdr:colOff>1763216</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>1667243</xdr:rowOff>
     </xdr:to>
@@ -3878,7 +3630,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24041202" y="6541942"/>
+          <a:off x="25824974" y="7650306"/>
           <a:ext cx="1551833" cy="1498392"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3899,7 +3651,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>2801216</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>1667741</xdr:rowOff>
+      <xdr:rowOff>1667742</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4047,7 +3799,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>3095623</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>1373333</xdr:rowOff>
+      <xdr:rowOff>1373334</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4172,15 +3924,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>682932</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1746350</xdr:rowOff>
+      <xdr:colOff>527068</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>326259</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2648819</xdr:colOff>
+      <xdr:colOff>2492955</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1977548</xdr:rowOff>
+      <xdr:rowOff>2583684</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4223,7 +3975,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="2824163">
-          <a:off x="7516390" y="2099937"/>
+          <a:off x="7568344" y="2706073"/>
           <a:ext cx="2257425" cy="1965887"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4248,13 +4000,13 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>1219794</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>135761</xdr:rowOff>
+      <xdr:rowOff>689943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>3185681</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>141822</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2947368</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4297,7 +4049,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="2824163">
-          <a:off x="20851389" y="2515575"/>
+          <a:off x="21492161" y="3069757"/>
           <a:ext cx="2257425" cy="1965887"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4547,15 +4299,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>34637</xdr:colOff>
+      <xdr:colOff>363681</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>173183</xdr:rowOff>
+      <xdr:rowOff>225137</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1882487</xdr:colOff>
+      <xdr:colOff>1558637</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>2214131</xdr:rowOff>
+      <xdr:rowOff>3115043</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4578,13 +4330,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect t="16919"/>
+        <a:srcRect l="18744" t="2819" r="27835"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="25007455" y="2407228"/>
-          <a:ext cx="1847850" cy="2040948"/>
+          <a:off x="25977272" y="2459182"/>
+          <a:ext cx="1194956" cy="2889906"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4606,15 +4358,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>173182</xdr:colOff>
+      <xdr:colOff>121227</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>86591</xdr:rowOff>
+      <xdr:rowOff>74877</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1714500</xdr:colOff>
+      <xdr:colOff>1731818</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>2273877</xdr:rowOff>
+      <xdr:rowOff>2360468</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4642,8 +4394,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="25146000" y="5195455"/>
-          <a:ext cx="1541318" cy="2187286"/>
+          <a:off x="25734818" y="6101604"/>
+          <a:ext cx="1610591" cy="2285591"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4724,13 +4476,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>363682</xdr:colOff>
+      <xdr:colOff>277091</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>762000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1697182</xdr:colOff>
+      <xdr:colOff>1610591</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>3577755</xdr:rowOff>
     </xdr:to>
@@ -4760,7 +4512,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="25336500" y="10685318"/>
+          <a:off x="25890682" y="10685318"/>
           <a:ext cx="1333500" cy="2815755"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4785,13 +4537,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>1887682</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>1229591</xdr:rowOff>
+      <xdr:rowOff>1783773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>120966</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>2029591</xdr:rowOff>
+      <xdr:rowOff>2583773</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4856,7 +4608,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17803091" y="11152909"/>
+          <a:off x="18443864" y="12624955"/>
           <a:ext cx="2095238" cy="800000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4871,13 +4623,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>571501</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>731643</xdr:rowOff>
+      <xdr:rowOff>1181915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>2632364</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>2959678</xdr:rowOff>
+      <xdr:rowOff>3409950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4907,7 +4659,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="13646728" y="10654961"/>
+          <a:off x="13854546" y="12023097"/>
           <a:ext cx="2060863" cy="2228035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4930,74 +4682,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>450272</xdr:colOff>
+      <xdr:colOff>813951</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>762000</xdr:rowOff>
+      <xdr:rowOff>1125681</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>3260147</xdr:colOff>
+      <xdr:colOff>2494322</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>2164773</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="118" name="그림 117" descr="나루토 - 오타쿠 테스트">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FA2AC77-5C1C-43E6-ABFC-BEE8E4A6D2A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect b="13875"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="20227636" y="10685318"/>
-          <a:ext cx="2809875" cy="1402773"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1021770</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>194779</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>3082633</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>2214996</xdr:rowOff>
+      <xdr:rowOff>2942359</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5013,7 +4706,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5027,8 +4720,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="20799134" y="9910279"/>
-          <a:ext cx="2060863" cy="2228035"/>
+          <a:off x="21232087" y="11048999"/>
+          <a:ext cx="1680371" cy="1816678"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5176,6 +4869,50 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1212272</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>3411681</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1325977</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10FA2B40-BC6B-4F99-8A8F-87A2F901E4F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21630408" y="10096500"/>
+          <a:ext cx="2199409" cy="1152795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -5480,10 +5217,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6F94A7-7021-4009-9B15-493C51B47768}">
-  <dimension ref="B1:P9"/>
+  <dimension ref="B2:J14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11:P12"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5494,54 +5231,153 @@
     <col min="16" max="16" width="43.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="N7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="N8" s="3">
-        <v>1</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="N9" s="3">
-        <v>2</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>37</v>
-      </c>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+      <c r="H2" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="17"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="12"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="14"/>
+      <c r="H4" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="15"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="15"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="11"/>
+      <c r="C9" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="11"/>
+      <c r="C10" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="11"/>
+      <c r="C11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="11"/>
+      <c r="C13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5553,957 +5389,863 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D3F61F-0347-41D5-91A8-0D2FBCD00291}">
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="2">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="str">
-        <f t="shared" ref="C2:C19" si="0">VLOOKUP(B2, 카테고리_유닛타입, 2,FALSE)</f>
+      <c r="D2" s="2" t="str">
+        <f t="shared" ref="D2:D19" si="0">VLOOKUP(C2, 카테고리_유닛타입, 2,FALSE)</f>
         <v>근거리</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>40</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>5</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>0</v>
       </c>
-      <c r="H2" s="2" t="str">
-        <f t="shared" ref="H2:H19" si="1">VLOOKUP(G2, 카테고리_피해타입,2,FALSE)</f>
+      <c r="I2" s="2" t="str">
+        <f t="shared" ref="I2:I19" si="1">VLOOKUP(H2, 카테고리_피해타입,2,FALSE)</f>
         <v>단일</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>50</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>5</v>
       </c>
-      <c r="K2" s="2"/>
       <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
         <v>0.5</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>1</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="2">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="D3" s="2" t="str">
         <f t="shared" si="0"/>
         <v>근거리</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>50</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>7</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="str">
+      <c r="I3" s="2" t="str">
         <f t="shared" si="1"/>
         <v>범위</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>100</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>20</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>10</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1.5</v>
       </c>
       <c r="M3" s="2">
         <v>1.5</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>62</v>
+      <c r="N3" s="2">
+        <v>1.5</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="str">
+      <c r="B4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>근거리</v>
       </c>
-      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2">
         <v>0</v>
       </c>
-      <c r="H4" s="2" t="str">
+      <c r="I4" s="2" t="str">
         <f t="shared" si="1"/>
         <v>단일</v>
       </c>
-      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="str">
+      <c r="B5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>근거리</v>
       </c>
-      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="I5" s="2" t="str">
         <f t="shared" si="1"/>
         <v>단일</v>
       </c>
-      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="str">
+      <c r="B6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>근거리</v>
       </c>
-      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="H6" s="2" t="str">
+      <c r="I6" s="2" t="str">
         <f t="shared" si="1"/>
         <v>단일</v>
       </c>
-      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="2">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>중거리</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>4</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>60</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>8</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>0</v>
       </c>
-      <c r="H7" s="2" t="str">
+      <c r="I7" s="2" t="str">
         <f t="shared" si="1"/>
         <v>단일</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>75</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>25</v>
       </c>
-      <c r="K7" s="2"/>
       <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
         <v>2</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>1.4</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="O7" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2">
+        <v>49</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="2">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>원거리</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>5</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>70</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>9</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="H8" s="2" t="str">
+      <c r="I8" s="2" t="str">
         <f t="shared" si="1"/>
         <v>단일</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>50</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>10</v>
       </c>
-      <c r="K8" s="2"/>
       <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
         <v>1</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>1.2</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="O8" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="str">
+      <c r="B9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>근거리</v>
       </c>
-      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2">
         <v>0</v>
       </c>
-      <c r="H9" s="2" t="str">
+      <c r="I9" s="2" t="str">
         <f t="shared" si="1"/>
         <v>단일</v>
       </c>
-      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="str">
+      <c r="B10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>근거리</v>
       </c>
-      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2">
         <v>0</v>
       </c>
-      <c r="H10" s="2" t="str">
+      <c r="I10" s="2" t="str">
         <f t="shared" si="1"/>
         <v>단일</v>
       </c>
-      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="str">
+      <c r="B11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>근거리</v>
       </c>
-      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2">
         <v>0</v>
       </c>
-      <c r="H11" s="2" t="str">
+      <c r="I11" s="2" t="str">
         <f t="shared" si="1"/>
         <v>단일</v>
       </c>
-      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="2">
+        <v>48</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="2">
         <v>2</v>
       </c>
-      <c r="C12" s="2" t="str">
+      <c r="D12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>원거리</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>7</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>90</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <v>10</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>1</v>
       </c>
-      <c r="H12" s="2" t="str">
+      <c r="I12" s="2" t="str">
         <f t="shared" si="1"/>
         <v>범위</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <v>50</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>35</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <v>20</v>
-      </c>
-      <c r="L12" s="2">
-        <v>1.5</v>
       </c>
       <c r="M12" s="2">
         <v>1.5</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>65</v>
+      <c r="N12" s="2">
+        <v>1.5</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="str">
+      <c r="B13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>근거리</v>
       </c>
-      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2">
         <v>0</v>
       </c>
-      <c r="H13" s="2" t="str">
+      <c r="I13" s="2" t="str">
         <f t="shared" si="1"/>
         <v>단일</v>
       </c>
-      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="str">
+      <c r="B14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>근거리</v>
       </c>
-      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2">
         <v>0</v>
       </c>
-      <c r="H14" s="2" t="str">
+      <c r="I14" s="2" t="str">
         <f t="shared" si="1"/>
         <v>단일</v>
       </c>
-      <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="str">
+      <c r="B15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>근거리</v>
       </c>
-      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2">
         <v>0</v>
       </c>
-      <c r="H15" s="2" t="str">
+      <c r="I15" s="2" t="str">
         <f t="shared" si="1"/>
         <v>단일</v>
       </c>
-      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="str">
+      <c r="B16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>근거리</v>
       </c>
-      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2">
         <v>0</v>
       </c>
-      <c r="H16" s="2" t="str">
+      <c r="I16" s="2" t="str">
         <f t="shared" si="1"/>
         <v>단일</v>
       </c>
-      <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="str">
+      <c r="B17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>근거리</v>
       </c>
-      <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2">
         <v>0</v>
       </c>
-      <c r="H17" s="2" t="str">
+      <c r="I17" s="2" t="str">
         <f t="shared" si="1"/>
         <v>단일</v>
       </c>
-      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="str">
+      <c r="B18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>근거리</v>
       </c>
-      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2">
         <v>0</v>
       </c>
-      <c r="H18" s="2" t="str">
+      <c r="I18" s="2" t="str">
         <f t="shared" si="1"/>
         <v>단일</v>
       </c>
-      <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="str">
+      <c r="B19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>근거리</v>
       </c>
-      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2">
         <v>0</v>
       </c>
-      <c r="H19" s="2" t="str">
+      <c r="I19" s="2" t="str">
         <f t="shared" si="1"/>
         <v>단일</v>
       </c>
-      <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D24" s="2">
-        <v>2</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>21</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6514,955 +6256,863 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937CA577-D084-4477-A6FD-EDAD9D0A7061}">
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="U3" activeCellId="1" sqref="U2 U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="O1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f t="shared" ref="D2:D19" si="0">VLOOKUP(C2, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>근거리</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>40</v>
+      </c>
+      <c r="G2" s="2">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f>VLOOKUP(H2, 카테고리_피해타입,2,FALSE)</f>
+        <v>단일</v>
+      </c>
+      <c r="J2" s="2">
+        <v>75</v>
+      </c>
+      <c r="K2" s="2">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="L2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="str">
-        <f t="shared" ref="C2:C19" si="0">VLOOKUP(B2, 카테고리_유닛타입, 2,FALSE)</f>
-        <v>근거리</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="M2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
-        <v>40</v>
-      </c>
-      <c r="F2" s="2">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="O2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="H2" s="2" t="str">
-        <f>VLOOKUP(G2, 카테고리_피해타입,2,FALSE)</f>
-        <v>단일</v>
-      </c>
-      <c r="I2" s="2">
-        <v>75</v>
-      </c>
-      <c r="J2" s="2">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="str">
+      <c r="D3" s="2" t="str">
         <f t="shared" si="0"/>
         <v>근거리</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>50</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>10</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="H3" s="2" t="str">
-        <f>VLOOKUP(G3, 카테고리_피해타입,2,FALSE)</f>
+      <c r="I3" s="2" t="str">
+        <f>VLOOKUP(H3, 카테고리_피해타입,2,FALSE)</f>
         <v>단일</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>125</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>45</v>
       </c>
-      <c r="K3" s="2"/>
       <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
         <v>2</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <v>1.5</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="O3" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="str">
+      <c r="B4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>근거리</v>
       </c>
-      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2">
         <v>0</v>
       </c>
-      <c r="H4" s="2" t="str">
-        <f t="shared" ref="H4:H19" si="1">VLOOKUP(G4, 카테고리_피해타입,2,FALSE)</f>
+      <c r="I4" s="2" t="str">
+        <f t="shared" ref="I4:I19" si="1">VLOOKUP(H4, 카테고리_피해타입,2,FALSE)</f>
         <v>단일</v>
       </c>
-      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="str">
+      <c r="B5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>근거리</v>
       </c>
-      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="I5" s="2" t="str">
         <f t="shared" si="1"/>
         <v>단일</v>
       </c>
-      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="str">
+      <c r="B6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>근거리</v>
       </c>
-      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="H6" s="2" t="str">
+      <c r="I6" s="2" t="str">
         <f t="shared" si="1"/>
         <v>단일</v>
       </c>
-      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="2">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>중거리</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>4</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>60</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>11</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>0</v>
       </c>
-      <c r="H7" s="2" t="str">
+      <c r="I7" s="2" t="str">
         <f t="shared" si="1"/>
         <v>단일</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>35</v>
       </c>
-      <c r="K7" s="2"/>
       <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
         <v>2</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>1.4</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="O7" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="2">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>원거리</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>5</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>70</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>12</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="H8" s="2" t="str">
+      <c r="I8" s="2" t="str">
         <f t="shared" si="1"/>
         <v>단일</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>75</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>15</v>
       </c>
-      <c r="K8" s="2"/>
       <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
         <v>1</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>1.2</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="O8" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="str">
+      <c r="B9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>근거리</v>
       </c>
-      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2">
         <v>0</v>
       </c>
-      <c r="H9" s="2" t="str">
+      <c r="I9" s="2" t="str">
         <f t="shared" si="1"/>
         <v>단일</v>
       </c>
-      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="str">
+      <c r="B10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>근거리</v>
       </c>
-      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2">
         <v>0</v>
       </c>
-      <c r="H10" s="2" t="str">
+      <c r="I10" s="2" t="str">
         <f t="shared" si="1"/>
         <v>단일</v>
       </c>
-      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="str">
+      <c r="B11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>근거리</v>
       </c>
-      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2">
         <v>0</v>
       </c>
-      <c r="H11" s="2" t="str">
+      <c r="I11" s="2" t="str">
         <f t="shared" si="1"/>
         <v>단일</v>
       </c>
-      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="2">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="2">
         <v>2</v>
       </c>
-      <c r="C12" s="2" t="str">
+      <c r="D12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>원거리</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>7</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>90</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <v>13</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>1</v>
       </c>
-      <c r="H12" s="2" t="str">
+      <c r="I12" s="2" t="str">
         <f t="shared" si="1"/>
         <v>범위</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <v>75</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>50</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <v>35</v>
-      </c>
-      <c r="L12" s="2">
-        <v>1.5</v>
       </c>
       <c r="M12" s="2">
         <v>1.5</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>65</v>
+      <c r="N12" s="2">
+        <v>1.5</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="str">
+      <c r="B13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>근거리</v>
       </c>
-      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2">
         <v>0</v>
       </c>
-      <c r="H13" s="2" t="str">
+      <c r="I13" s="2" t="str">
         <f t="shared" si="1"/>
         <v>단일</v>
       </c>
-      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="str">
+      <c r="B14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>근거리</v>
       </c>
-      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2">
         <v>0</v>
       </c>
-      <c r="H14" s="2" t="str">
+      <c r="I14" s="2" t="str">
         <f t="shared" si="1"/>
         <v>단일</v>
       </c>
-      <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="str">
+      <c r="B15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>근거리</v>
       </c>
-      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2">
         <v>0</v>
       </c>
-      <c r="H15" s="2" t="str">
+      <c r="I15" s="2" t="str">
         <f t="shared" si="1"/>
         <v>단일</v>
       </c>
-      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="str">
+      <c r="B16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>근거리</v>
       </c>
-      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2">
         <v>0</v>
       </c>
-      <c r="H16" s="2" t="str">
+      <c r="I16" s="2" t="str">
         <f t="shared" si="1"/>
         <v>단일</v>
       </c>
-      <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="str">
+      <c r="B17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>근거리</v>
       </c>
-      <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2">
         <v>0</v>
       </c>
-      <c r="H17" s="2" t="str">
+      <c r="I17" s="2" t="str">
         <f t="shared" si="1"/>
         <v>단일</v>
       </c>
-      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="str">
+      <c r="B18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>근거리</v>
       </c>
-      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2">
         <v>0</v>
       </c>
-      <c r="H18" s="2" t="str">
+      <c r="I18" s="2" t="str">
         <f t="shared" si="1"/>
         <v>단일</v>
       </c>
-      <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="str">
+      <c r="B19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>근거리</v>
       </c>
-      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2">
         <v>0</v>
       </c>
-      <c r="H19" s="2" t="str">
+      <c r="I19" s="2" t="str">
         <f t="shared" si="1"/>
         <v>단일</v>
       </c>
-      <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D24" s="2">
-        <v>2</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>21</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7471,20 +7121,396 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9E97C7-0D4E-464E-B00F-2E8287F827CA}">
-  <dimension ref="A1:O23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8C7ABA-8253-488C-B6E7-31B6C735BE66}">
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
+    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>50</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>100</v>
+      </c>
+      <c r="G3" s="2">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>75</v>
+      </c>
+      <c r="G4" s="2">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>70</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>50</v>
+      </c>
+      <c r="G5" s="2">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="2">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>90</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>50</v>
+      </c>
+      <c r="G6" s="2">
+        <v>35</v>
+      </c>
+      <c r="H6" s="2">
+        <v>20</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9E97C7-0D4E-464E-B00F-2E8287F827CA}">
+  <dimension ref="A1:O19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.875" customWidth="1"/>
     <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
@@ -7497,7 +7523,7 @@
     <col min="15" max="15" width="44.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7511,42 +7537,42 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="194.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -7556,38 +7582,38 @@
         <v>근거리</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="M2" s="2"/>
       <c r="O2" s="2" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -7597,34 +7623,34 @@
         <v>근거리</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -7635,11 +7661,11 @@
         <v>근거리</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -7659,11 +7685,11 @@
         <v>근거리</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -7683,11 +7709,11 @@
         <v>근거리</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -7701,7 +7727,7 @@
     </row>
     <row r="7" spans="1:15" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -7711,27 +7737,27 @@
         <v>중거리</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -7739,7 +7765,7 @@
     </row>
     <row r="8" spans="1:15" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
@@ -7749,32 +7775,32 @@
         <v>원거리</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="7" t="s">
-        <v>98</v>
+      <c r="O8" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -7785,11 +7811,11 @@
         <v>근거리</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -7809,11 +7835,11 @@
         <v>근거리</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -7833,11 +7859,11 @@
         <v>근거리</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -7851,7 +7877,7 @@
     </row>
     <row r="12" spans="1:15" ht="220.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -7861,26 +7887,26 @@
         <v>원거리</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="M12" s="2"/>
-      <c r="O12" s="7" t="s">
-        <v>97</v>
+      <c r="O12" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -7891,11 +7917,11 @@
         <v>근거리</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -7915,11 +7941,11 @@
         <v>근거리</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -7939,11 +7965,11 @@
         <v>근거리</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -7963,11 +7989,11 @@
         <v>근거리</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -7987,11 +8013,11 @@
         <v>근거리</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -8011,11 +8037,11 @@
         <v>근거리</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -8035,11 +8061,11 @@
         <v>근거리</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -8051,21 +8077,6 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8074,12 +8085,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5EEE4B-252D-4CFB-AFF8-E94DF36C06BE}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8088,7 +8099,7 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.875" customWidth="1"/>
     <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
@@ -8098,10 +8109,10 @@
     <col min="12" max="12" width="23.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="68.125" customWidth="1"/>
     <col min="14" max="14" width="25.25" customWidth="1"/>
-    <col min="15" max="15" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="46.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8115,42 +8126,42 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="159" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -8160,38 +8171,38 @@
         <v>근거리</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="M2" s="2"/>
       <c r="O2" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="177.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="249" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -8201,33 +8212,33 @@
         <v>근거리</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="M3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -8238,11 +8249,11 @@
         <v>근거리</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -8262,11 +8273,11 @@
         <v>근거리</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -8286,11 +8297,11 @@
         <v>근거리</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -8304,7 +8315,7 @@
     </row>
     <row r="7" spans="1:16" ht="186.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -8314,37 +8325,37 @@
         <v>중거리</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="M7" s="2"/>
       <c r="O7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="P7" s="8"/>
+        <v>69</v>
+      </c>
+      <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:16" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
@@ -8354,31 +8365,31 @@
         <v>원거리</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="7" t="s">
-        <v>102</v>
+      <c r="O8" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -8389,11 +8400,11 @@
         <v>근거리</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -8413,11 +8424,11 @@
         <v>근거리</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -8437,11 +8448,11 @@
         <v>근거리</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -8455,7 +8466,7 @@
     </row>
     <row r="12" spans="1:16" ht="355.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -8465,26 +8476,26 @@
         <v>원거리</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="M12" s="2"/>
-      <c r="O12" s="7" t="s">
-        <v>101</v>
+      <c r="O12" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -8495,11 +8506,11 @@
         <v>근거리</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -8519,11 +8530,11 @@
         <v>근거리</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -8543,11 +8554,11 @@
         <v>근거리</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -8567,11 +8578,11 @@
         <v>근거리</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -8591,11 +8602,11 @@
         <v>근거리</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -8615,11 +8626,11 @@
         <v>근거리</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -8639,11 +8650,11 @@
         <v>근거리</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -8657,31 +8668,32 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325F995D-D464-4E08-87B8-359E9E3CF2CA}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
@@ -8689,47 +8701,47 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -8737,7 +8749,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/유닛 및 건물/양_유닛.xlsx
+++ b/유닛 및 건물/양_유닛.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home_pc\OneDrive\바탕 화면\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B78B223-453E-4C42-8132-397C79E36C7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59FAD3F-BC07-4DBC-9283-AF056E77C702}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="647" activeTab="4" xr2:uid="{5DC44C0D-AFC0-4050-AC88-DAB7CE401A2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="647" xr2:uid="{5DC44C0D-AFC0-4050-AC88-DAB7CE401A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="유닛 생산" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="111">
   <si>
     <t>이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -354,10 +354,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>원거리 &gt; 중거리 &gt; 근거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -442,62 +438,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 양 유닛은 왼쪽에서 오른쪽으로 움직입니다.</t>
+    <t>Unit_SheepAssassin</t>
+  </si>
+  <si>
+    <t>Unit_SheepKnight</t>
+  </si>
+  <si>
+    <t>Unit_Sheep</t>
+  </si>
+  <si>
+    <t>Unit_SheepSpearman</t>
+  </si>
+  <si>
+    <t>Unit_SheepArcher</t>
+  </si>
+  <si>
+    <t>Unit_SheepWizard</t>
+  </si>
+  <si>
+    <t>Unit_SheepKnight_Sword</t>
+  </si>
+  <si>
+    <t>Unit_SheepSpearman_ Spear</t>
+  </si>
+  <si>
+    <t>Unit_SheepArcher_Arrow</t>
+  </si>
+  <si>
+    <t>투사체가 날아가는 도중 유닛이 죽을 경우 투사체는 뒤에 있는 유닛이 맞습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2. 유닛은 이동 중 사거리안에 적 유닛이 들어오면 죽을 때까지 공격합니다.</t>
+    <t>유닛은 이동 중 사거리안에 적 유닛이 들어오면 죽을 때까지 공격합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Unit_SheepAssassin</t>
-  </si>
-  <si>
-    <t>Unit_SheepKnight</t>
-  </si>
-  <si>
-    <t>Unit_Sheep</t>
-  </si>
-  <si>
-    <t>Unit_SheepSpearman</t>
-  </si>
-  <si>
-    <t>Unit_SheepArcher</t>
-  </si>
-  <si>
-    <t>Unit_SheepWizard</t>
-  </si>
-  <si>
-    <t>Unit_SheepKnight_Sword</t>
-  </si>
-  <si>
-    <t>Unit_SheepSpearman_ Spear</t>
-  </si>
-  <si>
-    <t>Unit_SheepArcher_Arrow</t>
-  </si>
-  <si>
-    <t>2-1. 투사체가 날아가는 도중 유닛이 죽을 경우 투사체는 뒤에 있는 유닛이 맞습니다.</t>
+    <t>양 유닛은 왼쪽에서 오른쪽으로 움직입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-1. 플레이어가 벽을 세워 집결지가 있다면 집결지까지 이동합니다.</t>
+    <t>적 유닛 소환 장소에 도달하면 소멸됩니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격 사거리 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2. 유닛들은 집결지에서 공격 사거리 타입이 높을수록 낮은 유닛들보다 뒤에 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 모든 유닛들은 겹쳐질 수 있음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-3. 벽과 타입들 사이의 거리는 0.5 타일입니다.</t>
+    <t>모든 유닛들은 겹쳐질 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,9 +666,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -712,6 +693,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -730,752 +714,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>680870</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>17039</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>459441</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>203088</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="직사각형 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A961725-2CA5-47DD-90ED-3544EAF715D8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="680870" y="5765657"/>
-          <a:ext cx="3879924" cy="824784"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ko-KR"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>500231</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>111498</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>454511</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>16696</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="그림 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{762D0F60-C604-435F-BD3F-9C38522F7857}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="19697" t="25000" r="18182" b="15909"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3918025" y="5008469"/>
-          <a:ext cx="637839" cy="756845"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>481853</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>156881</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>406153</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="18" name="그룹 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5833587-34B9-4B92-8D8A-1B51C3D3A93B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3216088" y="3137646"/>
-          <a:ext cx="607859" cy="1568824"/>
-          <a:chOff x="3328147" y="4202205"/>
-          <a:chExt cx="607859" cy="1568824"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="29" name="화살표: 아래쪽 28">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F72492A2-FC82-478E-B97F-743D5C346C94}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3571090" y="4599903"/>
-            <a:ext cx="160020" cy="322953"/>
-          </a:xfrm>
-          <a:prstGeom prst="downArrow">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="TextBox 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB6C1A8E-72AC-4875-9AA0-0B5CF91BC402}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3328147" y="4202205"/>
-            <a:ext cx="607859" cy="336246"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-              <a:t>근거리</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="직사각형 14">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1968CDB3-4122-47B0-AE32-1D7E5F78104B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3440206" y="4997824"/>
-            <a:ext cx="459441" cy="773205"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>521074</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>156881</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>445374</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="25" name="그룹 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37395AEC-413E-4877-8AC6-B18F9BD68161}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2571750" y="3137646"/>
-          <a:ext cx="607859" cy="1568824"/>
-          <a:chOff x="2683809" y="4202205"/>
-          <a:chExt cx="607859" cy="1568824"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="화살표: 아래쪽 18">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C3A63A7-2D64-41CF-B140-FCC7031FB131}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2926752" y="4599903"/>
-            <a:ext cx="160020" cy="322953"/>
-          </a:xfrm>
-          <a:prstGeom prst="downArrow">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="TextBox 19">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6681712-6CDB-4A7A-A810-94F45C79D5A2}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2683809" y="4202205"/>
-            <a:ext cx="607859" cy="336246"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-              <a:t>중거리</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="30" name="직사각형 29">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A74E549C-ECE2-4EE9-8B29-8B00F142E3F5}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2779059" y="4997824"/>
-            <a:ext cx="459441" cy="773205"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>560294</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>156881</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>484595</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="26" name="그룹 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79AD4D3A-D03C-4FBD-89EA-0312BD50CC38}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1927412" y="3137646"/>
-          <a:ext cx="607859" cy="1568824"/>
-          <a:chOff x="2039471" y="4202205"/>
-          <a:chExt cx="607859" cy="1568824"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="화살표: 아래쪽 20">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADFEB370-3E6E-46FC-B252-D3B7865E3DDB}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2282414" y="4599903"/>
-            <a:ext cx="160020" cy="322953"/>
-          </a:xfrm>
-          <a:prstGeom prst="downArrow">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="TextBox 21">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26BF8BD1-E061-48BD-87FB-D468D1F52B25}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2039471" y="4202205"/>
-            <a:ext cx="607859" cy="336246"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-              <a:t>원거리</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="직사각형 30">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9118DD06-556F-4443-8DA6-D7461BD67861}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2129118" y="4997824"/>
-            <a:ext cx="459441" cy="773205"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FFFF00"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3098,7 +2336,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5217,10 +4455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6F94A7-7021-4009-9B15-493C51B47768}">
-  <dimension ref="B2:J14"/>
+  <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5232,66 +4470,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-      <c r="H2" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="17"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="12"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="12"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="14"/>
-      <c r="H4" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="14"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="15"/>
+      <c r="B5" s="14"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="15"/>
+      <c r="B6" s="14"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
+      <c r="B7" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
-        <v>98</v>
-      </c>
+      <c r="B8" s="10"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -5299,25 +4522,25 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="12"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
-      <c r="C9" s="7" t="s">
-        <v>110</v>
-      </c>
+      <c r="B9" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="12"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -5325,24 +4548,22 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="12"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
-      <c r="C11" s="7" t="s">
-        <v>114</v>
-      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="12"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="11" t="s">
-        <v>99</v>
+      <c r="B12" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -5351,10 +4572,10 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="12"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="11"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="7" t="s">
         <v>109</v>
       </c>
@@ -5364,26 +4585,69 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="12"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="14"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="10"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="10"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="10"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5462,25 +4726,25 @@
         <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -5488,7 +4752,7 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -5555,7 +4819,7 @@
         <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -5620,7 +4884,7 @@
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="str">
@@ -5653,7 +4917,7 @@
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="str">
@@ -5686,7 +4950,7 @@
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="str">
@@ -5721,7 +4985,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -5788,7 +5052,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -5853,7 +5117,7 @@
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="str">
@@ -5886,7 +5150,7 @@
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="str">
@@ -5919,7 +5183,7 @@
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="str">
@@ -5954,7 +5218,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
@@ -6019,7 +5283,7 @@
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="str">
@@ -6052,7 +5316,7 @@
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="str">
@@ -6085,7 +5349,7 @@
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="str">
@@ -6118,7 +5382,7 @@
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="str">
@@ -6151,7 +5415,7 @@
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="str">
@@ -6184,7 +5448,7 @@
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="str">
@@ -6217,7 +5481,7 @@
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="str">
@@ -6329,25 +5593,25 @@
         <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -6355,7 +5619,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -6422,7 +5686,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -6487,7 +5751,7 @@
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="str">
@@ -6520,7 +5784,7 @@
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="str">
@@ -6553,7 +5817,7 @@
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="str">
@@ -6588,7 +5852,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -6655,7 +5919,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -6720,7 +5984,7 @@
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="str">
@@ -6753,7 +6017,7 @@
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="str">
@@ -6786,7 +6050,7 @@
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="str">
@@ -6821,7 +6085,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
@@ -6886,7 +6150,7 @@
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="str">
@@ -6919,7 +6183,7 @@
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="str">
@@ -6952,7 +6216,7 @@
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="str">
@@ -6985,7 +6249,7 @@
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="str">
@@ -7018,7 +6282,7 @@
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="str">
@@ -7051,7 +6315,7 @@
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="str">
@@ -7084,7 +6348,7 @@
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="str">
@@ -7144,39 +6408,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -7208,7 +6472,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -7240,7 +6504,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B4" s="2">
         <v>4</v>
@@ -7272,7 +6536,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2">
         <v>5</v>
@@ -7304,7 +6568,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2">
         <v>7</v>
@@ -7500,7 +6764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9E97C7-0D4E-464E-B00F-2E8287F827CA}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
@@ -7537,10 +6801,10 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>30</v>
@@ -7629,7 +6893,7 @@
         <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
@@ -7661,11 +6925,11 @@
         <v>근거리</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -7685,11 +6949,11 @@
         <v>근거리</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -7709,11 +6973,11 @@
         <v>근거리</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -7750,7 +7014,7 @@
         <v>40</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
@@ -7788,7 +7052,7 @@
         <v>42</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
@@ -7811,11 +7075,11 @@
         <v>근거리</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -7835,11 +7099,11 @@
         <v>근거리</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -7859,11 +7123,11 @@
         <v>근거리</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -7890,7 +7154,7 @@
         <v>57</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>65</v>
@@ -7917,11 +7181,11 @@
         <v>근거리</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -7941,11 +7205,11 @@
         <v>근거리</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -7965,11 +7229,11 @@
         <v>근거리</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -7989,11 +7253,11 @@
         <v>근거리</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -8013,11 +7277,11 @@
         <v>근거리</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -8037,11 +7301,11 @@
         <v>근거리</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -8061,11 +7325,11 @@
         <v>근거리</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -8126,10 +7390,10 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>30</v>
@@ -8218,7 +7482,7 @@
         <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
@@ -8249,11 +7513,11 @@
         <v>근거리</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -8273,11 +7537,11 @@
         <v>근거리</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -8297,11 +7561,11 @@
         <v>근거리</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -8338,7 +7602,7 @@
         <v>40</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
@@ -8377,7 +7641,7 @@
         <v>42</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
@@ -8400,11 +7664,11 @@
         <v>근거리</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -8424,11 +7688,11 @@
         <v>근거리</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -8448,11 +7712,11 @@
         <v>근거리</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -8506,11 +7770,11 @@
         <v>근거리</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -8530,11 +7794,11 @@
         <v>근거리</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -8554,11 +7818,11 @@
         <v>근거리</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -8578,11 +7842,11 @@
         <v>근거리</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -8602,11 +7866,11 @@
         <v>근거리</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -8626,11 +7890,11 @@
         <v>근거리</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -8650,11 +7914,11 @@
         <v>근거리</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>

--- a/유닛 및 건물/양_유닛.xlsx
+++ b/유닛 및 건물/양_유닛.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home_pc\OneDrive\바탕 화면\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59FAD3F-BC07-4DBC-9283-AF056E77C702}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4382CB93-FB7A-4EBC-93E2-F19E6A7950CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="647" xr2:uid="{5DC44C0D-AFC0-4050-AC88-DAB7CE401A2D}"/>
+    <workbookView xWindow="5190" yWindow="645" windowWidth="19065" windowHeight="14460" tabRatio="647" xr2:uid="{5DC44C0D-AFC0-4050-AC88-DAB7CE401A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="유닛 생산" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="112">
   <si>
     <t>이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -482,6 +482,10 @@
   </si>
   <si>
     <t>모든 유닛들은 겹쳐질 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 중 벽을 만난 경우 벽문이 열려있으면 통과 닫혀 있으면 0.5 타일의 거리를 두고 정지합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -645,7 +649,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -691,9 +695,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4455,10 +4456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6F94A7-7021-4009-9B15-493C51B47768}">
-  <dimension ref="B2:J18"/>
+  <dimension ref="B2:K16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4469,7 +4470,7 @@
     <col min="16" max="16" width="43.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
         <v>64</v>
       </c>
@@ -4478,14 +4479,14 @@
       <c r="E2" s="8"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="16"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>25</v>
       </c>
@@ -4494,13 +4495,13 @@
       <c r="E4" s="6"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="14"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
         <v>96</v>
       </c>
@@ -4511,9 +4512,10 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J7" s="8"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="10"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -4522,9 +4524,10 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J8" s="7"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>107</v>
       </c>
@@ -4535,9 +4538,10 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J9" s="7"/>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="7" t="s">
         <v>106</v>
@@ -4548,9 +4552,10 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J10" s="7"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="10"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -4559,9 +4564,10 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J11" s="7"/>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>108</v>
       </c>
@@ -4572,12 +4578,13 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J12" s="7"/>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="10"/>
       <c r="C13" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -4585,20 +4592,24 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J13" s="7"/>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
-      <c r="C14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J14" s="7"/>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="10"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4607,42 +4618,22 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="11"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="12" t="s">
+      <c r="J15" s="7"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="13"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/유닛 및 건물/양_유닛.xlsx
+++ b/유닛 및 건물/양_유닛.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home_pc\OneDrive\바탕 화면\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4382CB93-FB7A-4EBC-93E2-F19E6A7950CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F434DCA2-2E5D-4A88-A96E-DEC11C617E75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="645" windowWidth="19065" windowHeight="14460" tabRatio="647" xr2:uid="{5DC44C0D-AFC0-4050-AC88-DAB7CE401A2D}"/>
+    <workbookView xWindow="2880" yWindow="345" windowWidth="19065" windowHeight="14460" tabRatio="647" xr2:uid="{5DC44C0D-AFC0-4050-AC88-DAB7CE401A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="유닛 생산" sheetId="1" r:id="rId1"/>
     <sheet name="유닛 테이블" sheetId="2" r:id="rId2"/>
     <sheet name="2레벨 유닛 테이블" sheetId="8" r:id="rId3"/>
     <sheet name="유닛 테이블DB" sheetId="10" r:id="rId4"/>
-    <sheet name="유닛 무기&amp;투사체&amp;특징" sheetId="7" r:id="rId5"/>
-    <sheet name="2레벨 유닛 무기&amp;투사체&amp;특징" sheetId="6" r:id="rId6"/>
-    <sheet name="Index" sheetId="3" r:id="rId7"/>
+    <sheet name="2레벨 유닛 테이블DB" sheetId="11" r:id="rId5"/>
+    <sheet name="유닛 무기&amp;투사체&amp;특징" sheetId="7" r:id="rId6"/>
+    <sheet name="2레벨 유닛 무기&amp;투사체&amp;특징" sheetId="6" r:id="rId7"/>
+    <sheet name="Index" sheetId="3" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2레벨 유닛 무기&amp;투사체&amp;특징'!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2레벨 유닛 무기&amp;투사체&amp;특징'!$A$1:$O$1</definedName>
     <definedName name="카테고리_유닛타입">Index!$C$2:$D$4</definedName>
     <definedName name="카테고리_피해타입">Index!$F$2:$G$3</definedName>
   </definedNames>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="108">
   <si>
     <t>이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -311,10 +312,6 @@
   <si>
     <t>허름한 후드망토를 입고 있음</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>범위 공격력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>철갑옷을 입고 있음</t>
@@ -382,10 +379,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>RangeDamage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AttackDelay</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -444,9 +437,6 @@
     <t>Unit_SheepKnight</t>
   </si>
   <si>
-    <t>Unit_Sheep</t>
-  </si>
-  <si>
     <t>Unit_SheepSpearman</t>
   </si>
   <si>
@@ -477,15 +467,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적 유닛 소환 장소에 도달하면 소멸됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>모든 유닛들은 겹쳐질 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이동 중 벽을 만난 경우 벽문이 열려있으면 통과 닫혀 있으면 0.5 타일의 거리를 두고 정지합니다.</t>
+    <t>공격 범위(타일 반경)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -720,14 +706,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>120388</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>167413</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>2320448</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1064083</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1312306</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -982,13 +968,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>160244</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>185099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2607609</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>1644919</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1068,13 +1054,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>284223</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>610075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2682280</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>1273147</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1163,13 +1149,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>256996</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>916772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1315293</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>1047749</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1272,13 +1258,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>2637457</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>125558</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>4223417</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>1511012</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1322,13 +1308,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1809751</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>155864</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>3361584</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>1654256</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1515,13 +1501,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>2296824</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>714376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>3163213</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>2099830</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1564,13 +1550,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>639536</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>598715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>2163536</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>2266774</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1623,13 +1609,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>133597</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>542968</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1647391</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>2234046</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1682,13 +1668,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>589746</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1356281</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1117022</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1933399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1741,13 +1727,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1635756</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1495702</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>2921436</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1977498</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1809,13 +1795,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>259772</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>415636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>2021065</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>2250498</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1870,13 +1856,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>2251364</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>346363</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>4365650</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>2508268</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1914,13 +1900,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1532660</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>155864</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>3084493</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>1654256</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1964,13 +1950,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1269321</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>125558</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>2855281</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>1511012</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2064,13 +2050,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1775357</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>799033</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>146880</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>2135722</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2193,13 +2179,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>160246</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>185099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>2607611</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>1644919</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2279,13 +2265,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>49178</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>832128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>2770909</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>1168975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2343,14 +2329,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1231858</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1010188</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>3038659</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>2428</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2404,13 +2390,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>3191662</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>2447461</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>4972401</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>3022192</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2465,13 +2451,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>4114795</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1820559</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>4981184</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>3206013</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2514,13 +2500,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>114153</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1629792</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2878397</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>2521948</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2734,13 +2720,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>3775363</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>173183</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>4651277</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>1558637</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2783,13 +2769,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1873930</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>168851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>3425763</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>1667243</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2833,13 +2819,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>211383</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>168851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1763216</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>1667243</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2883,14 +2869,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>277091</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>69274</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2801216</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1667742</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1806286</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2957,13 +2943,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>2615046</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>277092</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>5139171</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>2083378</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3032,13 +3018,13 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>571498</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>190502</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>3095623</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1373334</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1806286</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3385,13 +3371,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>311727</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>731303</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2709784</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>1394375</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3480,13 +3466,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>405728</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>916771</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1464025</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>1047748</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3598,13 +3584,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>121227</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>74877</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1731818</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>2360468</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3657,13 +3643,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>405728</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>743589</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1464025</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>874566</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3716,13 +3702,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>277091</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>762000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1610591</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>3577755</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3775,13 +3761,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1887682</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1783773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>120966</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>2583773</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3861,13 +3847,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1181915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>2632364</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>3409950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3922,13 +3908,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>813951</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1125681</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>2494322</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>2942359</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3983,13 +3969,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>311725</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>207821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>2835850</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>2014107</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4057,13 +4043,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>94001</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>778225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>2815732</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>1115072</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4116,13 +4102,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1212272</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>173182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>3411681</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1325977</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4459,7 +4445,7 @@
   <dimension ref="B2:K16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4503,7 +4489,7 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -4529,7 +4515,7 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -4544,7 +4530,7 @@
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -4569,7 +4555,7 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -4583,9 +4569,7 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="10"/>
-      <c r="C13" s="7" t="s">
-        <v>111</v>
-      </c>
+      <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -4597,9 +4581,7 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
-      <c r="C14" s="7" t="s">
-        <v>109</v>
-      </c>
+      <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -4623,7 +4605,7 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -4644,10 +4626,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D3F61F-0347-41D5-91A8-0D2FBCD00291}">
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:U1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4661,7 +4643,7 @@
     <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
@@ -4708,7 +4690,7 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>7</v>
@@ -4717,25 +4699,25 @@
         <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -4743,13 +4725,13 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="str">
-        <f t="shared" ref="D2:D19" si="0">VLOOKUP(C2, 카테고리_유닛타입, 2,FALSE)</f>
+        <f t="shared" ref="D2:D6" si="0">VLOOKUP(C2, 카테고리_유닛타입, 2,FALSE)</f>
         <v>근거리</v>
       </c>
       <c r="E2" s="2">
@@ -4765,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="str">
-        <f t="shared" ref="I2:I19" si="1">VLOOKUP(H2, 카테고리_피해타입,2,FALSE)</f>
+        <f t="shared" ref="I2:I6" si="1">VLOOKUP(H2, 카테고리_피해타입,2,FALSE)</f>
         <v>단일</v>
       </c>
       <c r="J2" s="2">
@@ -4810,7 +4792,7 @@
         <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -4826,7 +4808,7 @@
         <v>50</v>
       </c>
       <c r="G3" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -4839,10 +4821,10 @@
         <v>100</v>
       </c>
       <c r="K3" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L3" s="2">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="M3" s="2">
         <v>1.5</v>
@@ -4873,18 +4855,28 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
       <c r="D4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+        <v>중거리</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2">
+        <v>60</v>
+      </c>
+      <c r="G4" s="2">
+        <v>7</v>
+      </c>
       <c r="H4" s="2">
         <v>0</v>
       </c>
@@ -4892,32 +4884,66 @@
         <f t="shared" si="1"/>
         <v>단일</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
+      <c r="J4" s="2">
+        <v>75</v>
+      </c>
+      <c r="K4" s="2">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>2</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+        <v>원거리</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>70</v>
+      </c>
+      <c r="G5" s="2">
+        <v>8</v>
+      </c>
       <c r="H5" s="2">
         <v>0</v>
       </c>
@@ -4925,582 +4951,127 @@
         <f t="shared" si="1"/>
         <v>단일</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
+      <c r="J5" s="2">
+        <v>50</v>
+      </c>
+      <c r="K5" s="2">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
       <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+        <v>원거리</v>
+      </c>
+      <c r="E6" s="2">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2">
+        <v>90</v>
+      </c>
+      <c r="G6" s="2">
+        <v>9</v>
+      </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>단일</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
+        <v>범위</v>
+      </c>
+      <c r="J6" s="2">
+        <v>50</v>
+      </c>
+      <c r="K6" s="2">
+        <v>35</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>중거리</v>
-      </c>
-      <c r="E7" s="2">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2">
-        <v>60</v>
-      </c>
-      <c r="G7" s="2">
-        <v>8</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>단일</v>
-      </c>
-      <c r="J7" s="2">
-        <v>75</v>
-      </c>
-      <c r="K7" s="2">
-        <v>25</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>2</v>
-      </c>
-      <c r="N7" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>원거리</v>
-      </c>
-      <c r="E8" s="2">
-        <v>5</v>
-      </c>
-      <c r="F8" s="2">
-        <v>70</v>
-      </c>
-      <c r="G8" s="2">
-        <v>9</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>단일</v>
-      </c>
-      <c r="J8" s="2">
-        <v>50</v>
-      </c>
-      <c r="K8" s="2">
-        <v>10</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>1</v>
-      </c>
-      <c r="N8" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>단일</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>단일</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>단일</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>원거리</v>
-      </c>
-      <c r="E12" s="2">
-        <v>7</v>
-      </c>
-      <c r="F12" s="2">
-        <v>90</v>
-      </c>
-      <c r="G12" s="2">
-        <v>10</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>범위</v>
-      </c>
-      <c r="J12" s="2">
-        <v>50</v>
-      </c>
-      <c r="K12" s="2">
-        <v>35</v>
-      </c>
-      <c r="L12" s="2">
-        <v>20</v>
-      </c>
-      <c r="M12" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="N12" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>단일</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>단일</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>단일</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>단일</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>단일</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>단일</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>단일</v>
-      </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5511,10 +5082,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937CA577-D084-4477-A6FD-EDAD9D0A7061}">
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U3" activeCellId="1" sqref="U2 U3"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5528,19 +5099,18 @@
     <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5575,55 +5145,52 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="str">
-        <f t="shared" ref="D2:D19" si="0">VLOOKUP(C2, 카테고리_유닛타입, 2,FALSE)</f>
+        <f t="shared" ref="D2:D6" si="0">VLOOKUP(C2, 카테고리_유닛타입, 2,FALSE)</f>
         <v>근거리</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
       <c r="F2" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2">
         <v>8</v>
@@ -5642,13 +5209,13 @@
         <v>10</v>
       </c>
       <c r="L2" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N2" s="2">
         <v>1</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>19</v>
@@ -5663,21 +5230,18 @@
         <v>19</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -5690,10 +5254,10 @@
         <v>2</v>
       </c>
       <c r="F3" s="2">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G3" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -5709,13 +5273,13 @@
         <v>45</v>
       </c>
       <c r="L3" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M3" s="2">
-        <v>2</v>
-      </c>
-      <c r="N3" s="2">
         <v>1.5</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>19</v>
@@ -5730,61 +5294,99 @@
         <v>19</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
       <c r="D4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+        <v>중거리</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2">
+        <v>80</v>
+      </c>
+      <c r="G4" s="2">
+        <v>10</v>
+      </c>
       <c r="H4" s="2">
         <v>0</v>
       </c>
       <c r="I4" s="2" t="str">
-        <f t="shared" ref="I4:I19" si="1">VLOOKUP(H4, 카테고리_피해타입,2,FALSE)</f>
+        <f t="shared" ref="I4:I6" si="1">VLOOKUP(H4, 카테고리_피해타입,2,FALSE)</f>
         <v>단일</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="J4" s="2">
+        <v>100</v>
+      </c>
+      <c r="K4" s="2">
+        <v>35</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+        <v>원거리</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>90</v>
+      </c>
+      <c r="G5" s="2">
+        <v>11</v>
+      </c>
       <c r="H5" s="2">
         <v>0</v>
       </c>
@@ -5792,582 +5394,103 @@
         <f t="shared" si="1"/>
         <v>단일</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
+      <c r="J5" s="2">
+        <v>75</v>
+      </c>
+      <c r="K5" s="2">
+        <v>15</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
       <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+        <v>원거리</v>
+      </c>
+      <c r="E6" s="2">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2">
+        <v>100</v>
+      </c>
+      <c r="G6" s="2">
+        <v>12</v>
+      </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>단일</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>중거리</v>
-      </c>
-      <c r="E7" s="2">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2">
-        <v>60</v>
-      </c>
-      <c r="G7" s="2">
-        <v>11</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>단일</v>
-      </c>
-      <c r="J7" s="2">
-        <v>100</v>
-      </c>
-      <c r="K7" s="2">
-        <v>35</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>2</v>
-      </c>
-      <c r="N7" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="O7" s="2" t="s">
+        <v>범위</v>
+      </c>
+      <c r="J6" s="2">
+        <v>75</v>
+      </c>
+      <c r="K6" s="2">
+        <v>40</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>원거리</v>
-      </c>
-      <c r="E8" s="2">
-        <v>5</v>
-      </c>
-      <c r="F8" s="2">
-        <v>70</v>
-      </c>
-      <c r="G8" s="2">
-        <v>12</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>단일</v>
-      </c>
-      <c r="J8" s="2">
-        <v>75</v>
-      </c>
-      <c r="K8" s="2">
-        <v>15</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>1</v>
-      </c>
-      <c r="N8" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="O8" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>단일</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>단일</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>단일</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>원거리</v>
-      </c>
-      <c r="E12" s="2">
-        <v>7</v>
-      </c>
-      <c r="F12" s="2">
-        <v>90</v>
-      </c>
-      <c r="G12" s="2">
-        <v>13</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>범위</v>
-      </c>
-      <c r="J12" s="2">
-        <v>75</v>
-      </c>
-      <c r="K12" s="2">
-        <v>50</v>
-      </c>
-      <c r="L12" s="2">
-        <v>35</v>
-      </c>
-      <c r="M12" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="N12" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>단일</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>단일</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>단일</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>단일</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>단일</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>단일</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>단일</v>
-      </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6377,10 +5500,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8C7ABA-8253-488C-B6E7-31B6C735BE66}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD25"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6392,46 +5515,42 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.125" customWidth="1"/>
-    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -6452,18 +5571,15 @@
         <v>5</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -6472,7 +5588,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -6481,21 +5597,18 @@
         <v>100</v>
       </c>
       <c r="G3" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H3" s="2">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="I3" s="2">
         <v>1.5</v>
       </c>
-      <c r="J3" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B4" s="2">
         <v>4</v>
@@ -6504,7 +5617,7 @@
         <v>60</v>
       </c>
       <c r="D4" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -6516,18 +5629,15 @@
         <v>25</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="2">
-        <v>2</v>
-      </c>
-      <c r="J4" s="2">
         <v>1.4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2">
         <v>5</v>
@@ -6536,7 +5646,7 @@
         <v>70</v>
       </c>
       <c r="D5" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -6548,18 +5658,15 @@
         <v>10</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2">
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B6" s="2">
         <v>7</v>
@@ -6568,7 +5675,7 @@
         <v>90</v>
       </c>
       <c r="D6" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -6580,16 +5687,13 @@
         <v>35</v>
       </c>
       <c r="H6" s="2">
-        <v>20</v>
+        <v>1.5</v>
       </c>
       <c r="I6" s="2">
         <v>1.5</v>
       </c>
-      <c r="J6" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -6599,9 +5703,8 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -6611,9 +5714,8 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -6623,9 +5725,8 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -6635,9 +5736,8 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -6647,9 +5747,8 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -6659,9 +5758,8 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -6671,9 +5769,8 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -6683,9 +5780,8 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -6695,9 +5791,8 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -6707,9 +5802,8 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -6719,9 +5813,8 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6731,9 +5824,8 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -6743,7 +5835,6 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6752,11 +5843,355 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8CF9CA-9C63-4BA8-9530-F3FA06453166}">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>60</v>
+      </c>
+      <c r="D2" s="2">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>75</v>
+      </c>
+      <c r="G2" s="2">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>70</v>
+      </c>
+      <c r="D3" s="2">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>125</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>80</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>100</v>
+      </c>
+      <c r="G4" s="2">
+        <v>35</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>90</v>
+      </c>
+      <c r="D5" s="2">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>75</v>
+      </c>
+      <c r="G5" s="2">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="2">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>100</v>
+      </c>
+      <c r="D6" s="2">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>75</v>
+      </c>
+      <c r="G6" s="2">
+        <v>40</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9E97C7-0D4E-464E-B00F-2E8287F827CA}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="F7" sqref="A7:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6792,10 +6227,10 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>30</v>
@@ -6833,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f t="shared" ref="C2:C19" si="0">VLOOKUP(B2, 카테고리_유닛타입, 2,FALSE)</f>
+        <f t="shared" ref="C2:C6" si="0">VLOOKUP(B2, 카테고리_유닛타입, 2,FALSE)</f>
         <v>근거리</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -6884,7 +6319,7 @@
         <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
@@ -6908,429 +6343,117 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+    <row r="4" spans="1:15" ht="138" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
       <c r="C4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>근거리</v>
+        <v>중거리</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+    <row r="5" spans="1:15" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
       <c r="C5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>근거리</v>
+        <v>원거리</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="O5" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="220.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
       <c r="C6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>근거리</v>
+        <v>원거리</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" ht="138" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>중거리</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>원거리</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" ht="220.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>원거리</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="O12" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="O6" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7340,12 +6463,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5EEE4B-252D-4CFB-AFF8-E94DF36C06BE}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="C7" sqref="A7:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7381,10 +6504,10 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>30</v>
@@ -7422,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f t="shared" ref="C2:C19" si="0">VLOOKUP(B2, 카테고리_유닛타입, 2,FALSE)</f>
+        <f t="shared" ref="C2:C6" si="0">VLOOKUP(B2, 카테고리_유닛타입, 2,FALSE)</f>
         <v>근거리</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -7473,7 +6596,7 @@
         <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
@@ -7493,446 +6616,134 @@
       </c>
       <c r="M3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="186.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
       <c r="C4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>근거리</v>
+        <v>중거리</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="O4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
       <c r="C5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>근거리</v>
+        <v>원거리</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="O5" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="355.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
       <c r="C6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>근거리</v>
+        <v>원거리</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" ht="186.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>중거리</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="O7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="1:16" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>원거리</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>74</v>
       </c>
     </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" ht="355.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>원거리</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="O12" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -7944,7 +6755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325F995D-D464-4E08-87B8-359E9E3CF2CA}">
   <dimension ref="A1:G4"/>
   <sheetViews>

--- a/유닛 및 건물/양_유닛.xlsx
+++ b/유닛 및 건물/양_유닛.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home_pc\OneDrive\바탕 화면\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F434DCA2-2E5D-4A88-A96E-DEC11C617E75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845ED7BF-DB77-4BC4-B415-7C63336AB89E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2880" yWindow="345" windowWidth="19065" windowHeight="14460" tabRatio="647" xr2:uid="{5DC44C0D-AFC0-4050-AC88-DAB7CE401A2D}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="114">
   <si>
     <t>이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -144,10 +144,6 @@
   </si>
   <si>
     <t>활</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>훈련된 양 유닛은 해당 건물 입구에서 생성됩니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -455,23 +451,51 @@
     <t>Unit_SheepArcher_Arrow</t>
   </si>
   <si>
-    <t>투사체가 날아가는 도중 유닛이 죽을 경우 투사체는 뒤에 있는 유닛이 맞습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유닛은 이동 중 사거리안에 적 유닛이 들어오면 죽을 때까지 공격합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양 유닛은 왼쪽에서 오른쪽으로 움직입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 유닛들은 겹쳐질 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격 범위(타일 반경)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사거리가 n인 유닛이 정지해있는데 n보다 짧은 유닛이 도착한 경우 더 긴 유닛이 뒤로 이동해 줄 서있음(정렬?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양 유닛은 왼쪽에서 오른쪽으로 움직임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체가 날아가는 도중 유닛이 죽을 경우 투사체는 뒤에 있는 유닛이 맞음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛은 이동 중 사거리안에 적 유닛이 들어오면 죽을 때까지 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈련된 양 유닛은 해당 건물 입구에서 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 유닛들은 벽에 정지 해있는 상태가 아닐 경우 겹쳐질 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽이 있는 경우 벽과 1 타일의 거리를 두고 벽 앞에 정지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양 유닛 또는 벽이 공격 받았을 경우 양 유닛이 벽 뒤로 적 유닛을 공격하러감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽 뒤로 5타일 이상 벗어난 경우 2의 이동속도로 벽 뒤로 이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,7 +659,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -683,6 +707,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -701,6 +728,176 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>201705</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>116720</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25369</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1872550-D9D1-437A-AC01-5DA42A4668C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9558617" y="2017058"/>
+          <a:ext cx="923544" cy="1627811"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US"/>
+            <a:t>벽</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2323,7 +2520,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4442,10 +4639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6F94A7-7021-4009-9B15-493C51B47768}">
-  <dimension ref="B2:K16"/>
+  <dimension ref="B2:Q20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4453,43 +4650,43 @@
     <col min="11" max="11" width="8.75" customWidth="1"/>
     <col min="14" max="14" width="6.25" customWidth="1"/>
     <col min="15" max="15" width="13.25" customWidth="1"/>
-    <col min="16" max="16" width="43.25" customWidth="1"/>
+    <col min="16" max="16" width="5.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="16"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="14"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -4499,9 +4696,10 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K7" s="8"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="10"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -4511,11 +4709,12 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K8" s="7"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -4525,12 +4724,13 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K9" s="7"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -4539,9 +4739,10 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="11"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K10" s="7"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="10"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -4551,11 +4752,12 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="11"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K11" s="7"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -4565,9 +4767,10 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="11"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="7"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="10"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -4577,10 +4780,13 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="10"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B14" s="10" t="s">
+        <v>104</v>
+      </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -4589,11 +4795,20 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K14" s="7"/>
+      <c r="L14" s="11"/>
+      <c r="N14" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="10"/>
-      <c r="C15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -4601,26 +4816,83 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="13"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B16" s="10"/>
+      <c r="C16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="10"/>
+      <c r="C17" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="12"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4629,7 +4901,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4643,7 +4915,7 @@
     <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
@@ -4672,10 +4944,10 @@
         <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -4690,7 +4962,7 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>7</v>
@@ -4699,33 +4971,33 @@
         <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -4789,10 +5061,10 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -4856,10 +5128,10 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -4923,10 +5195,10 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -4990,10 +5262,10 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
@@ -5127,10 +5399,10 @@
         <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -5151,33 +5423,33 @@
         <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -5238,10 +5510,10 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -5305,7 +5577,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -5369,7 +5641,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -5430,10 +5702,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
@@ -5521,36 +5793,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -5579,7 +5851,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -5608,7 +5880,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" s="2">
         <v>4</v>
@@ -5637,7 +5909,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2">
         <v>5</v>
@@ -5666,7 +5938,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="2">
         <v>7</v>
@@ -5865,36 +6137,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -5923,7 +6195,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -5952,7 +6224,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" s="2">
         <v>4</v>
@@ -5981,7 +6253,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2">
         <v>5</v>
@@ -6010,7 +6282,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="2">
         <v>7</v>
@@ -6227,42 +6499,42 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="194.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -6272,38 +6544,38 @@
         <v>근거리</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M2" s="2"/>
       <c r="O2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -6313,39 +6585,39 @@
         <v>근거리</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -6355,27 +6627,27 @@
         <v>중거리</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -6383,7 +6655,7 @@
     </row>
     <row r="5" spans="1:15" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -6393,37 +6665,37 @@
         <v>원거리</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="220.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -6433,26 +6705,26 @@
         <v>원거리</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="M6" s="2"/>
       <c r="O6" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -6504,42 +6776,42 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="159" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -6549,38 +6821,38 @@
         <v>근거리</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M2" s="2"/>
       <c r="O2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="249" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -6590,38 +6862,38 @@
         <v>근거리</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="186.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -6631,37 +6903,37 @@
         <v>중거리</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M4" s="2"/>
       <c r="O4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:16" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -6671,36 +6943,36 @@
         <v>원거리</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="355.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -6710,31 +6982,31 @@
         <v>원거리</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="M6" s="2"/>
       <c r="O6" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">

--- a/유닛 및 건물/양_유닛.xlsx
+++ b/유닛 및 건물/양_유닛.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home_pc\OneDrive\바탕 화면\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845ED7BF-DB77-4BC4-B415-7C63336AB89E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA063F6A-BF4F-4189-98CA-E3BE00776D0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2880" yWindow="345" windowWidth="19065" windowHeight="14460" tabRatio="647" xr2:uid="{5DC44C0D-AFC0-4050-AC88-DAB7CE401A2D}"/>
   </bookViews>
@@ -455,10 +455,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사거리가 n인 유닛이 정지해있는데 n보다 짧은 유닛이 도착한 경우 더 긴 유닛이 뒤로 이동해 줄 서있음(정렬?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>양 유닛은 왼쪽에서 오른쪽으로 움직임</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -496,6 +492,10 @@
   </si>
   <si>
     <t>벽 뒤로 5타일 이상 벗어난 경우 2의 이동속도로 벽 뒤로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사거리가 n인 유닛이 정지해있는데 n보다 짧은 유닛이 도착한 경우 더 긴 유닛이 뒤로 이동해 정렬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -892,6 +892,1371 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>37912</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>37912</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1681</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="직선 화살표 연결선 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FFC0DAC-63C5-451A-B0D2-473A795D4443}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4838512" y="4643717"/>
+          <a:ext cx="0" cy="387164"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>37911</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>113739</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>37912</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>81803</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="직선 화살표 연결선 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3975D5D6-831B-4B6A-89AB-F2B54AFD1431}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4838511" y="5562039"/>
+          <a:ext cx="1" cy="387164"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>37910</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>149038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>37911</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>117102</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="연결선: 꺾임 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07F81DD6-D21B-43CE-A2BF-4642B262BB70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="22" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4644929" y="7467319"/>
+          <a:ext cx="387164" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>176303</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>115421</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>37910</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>19611</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="연결선: 꺾임 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7C39942-3E49-4E5E-9243-E103EFEAA560}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="1"/>
+          <a:endCxn id="35" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="3605303" y="6611471"/>
+          <a:ext cx="1233207" cy="3676090"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -18537"/>
+            <a:gd name="adj2" fmla="val 95024"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>37911</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>16248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>37912</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>193862</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="직선 화살표 연결선 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46AFE575-4F51-41C6-9082-B49F5821042C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="22" idx="2"/>
+          <a:endCxn id="197" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4838511" y="8188698"/>
+          <a:ext cx="1" cy="387164"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>37911</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>165285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>37912</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>138952</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="연결선: 꺾임 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7690D580-E11A-4411-9A7B-2A9BFC8B0E91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="2"/>
+          <a:endCxn id="62" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4642128" y="12096468"/>
+          <a:ext cx="392767" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>197223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>597834</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>161364</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="연결선: 꺾임 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2215FB0C-A376-4973-9E51-A5A62E419D88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="1"/>
+          <a:endCxn id="116" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2076451" y="11093823"/>
+          <a:ext cx="1264583" cy="802341"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>224489</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57710</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>585318</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="연결선: 꺾임 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D90682BD-0ED5-4882-A4D3-09275DE2C9C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="197" idx="3"/>
+          <a:endCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5710889" y="5296460"/>
+          <a:ext cx="360829" cy="3941670"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -63354"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>154641</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>569258</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="순서도: 판단 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{938FD2B7-E0D4-4BD1-975B-264CDCFA4CFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="840441" y="11896165"/>
+          <a:ext cx="2472017" cy="1324535"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>가 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>이 됐는가</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>?</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>154640</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57711</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>537133</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>194984</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="135" name="연결선: 꺾임 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC76399E-0EDB-4CD0-97F5-5C2A8FC549BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="116" idx="1"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="840440" y="5296461"/>
+          <a:ext cx="3125693" cy="7261973"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -7314"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>569258</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>194983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>537134</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>194983</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="144" name="직선 화살표 연결선 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E19BF6F2-B243-42E5-A678-D15C531F25F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="62" idx="1"/>
+          <a:endCxn id="116" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3312458" y="12558433"/>
+          <a:ext cx="653676" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>605676</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>39222</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="147" name="연결선: 꺾임 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67C1A18-2ECC-453A-960C-7EBA61744705}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="116" idx="2"/>
+          <a:endCxn id="154" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2045352" y="13251797"/>
+          <a:ext cx="648822" cy="586627"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>415177</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>39222</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>110376</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>147919</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="154" name="직사각형 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3194A21-459F-41E3-8D73-CAED51ABD224}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1786777" y="13869522"/>
+          <a:ext cx="1752599" cy="527797"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 사망</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>31561</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>57897</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>44261</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>25961</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="184" name="연결선: 꺾임 183">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1308D87F-12B8-40F0-BF52-281E76786659}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="197" idx="2"/>
+          <a:endCxn id="35" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4644929" y="10093979"/>
+          <a:ext cx="387164" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>597833</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>163789</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>41462</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="300" name="그룹 299">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E46594F-FC04-4264-847D-24A1ACF70F12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3341033" y="4115920"/>
+          <a:ext cx="2994956" cy="8708092"/>
+          <a:chOff x="6474758" y="4115920"/>
+          <a:chExt cx="2994956" cy="8708092"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="직사각형 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58CA3642-7855-4A80-A136-0EDD1A5FE223}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7099859" y="4115920"/>
+            <a:ext cx="1744755" cy="527797"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>유닛 생성</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="직사각형 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{545F40E5-2828-4B08-A62F-92B413F1691F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7099859" y="5030881"/>
+            <a:ext cx="1744755" cy="531158"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>오늘쪽으로 이동</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="순서도: 판단 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{899D0E85-538C-4D50-858E-4B82232F7D18}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6739029" y="5949203"/>
+            <a:ext cx="2466414" cy="1324535"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartDecision">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>벽을 맞났는가</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>?</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="직사각형 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7694188D-076E-4FE2-B316-043EB33A6CEB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7099859" y="7660902"/>
+            <a:ext cx="1744755" cy="527796"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>이동 정지</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="순서도: 판단 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14511E86-F35C-4A20-9290-523BFDE77C5A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6474758" y="10287561"/>
+            <a:ext cx="2994956" cy="1612525"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartDecision">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>사거리 안에 적 유닛이 들어왔는가</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>?</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="62" name="직사각형 61">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{134B7946-B0E9-4ED3-8D31-15DD0A20469D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7099859" y="12292853"/>
+            <a:ext cx="1744755" cy="531159"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> 공격</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="197" name="순서도: 판단 196">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BC7079F-F968-47D4-8FEF-A5CC43564A6D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6739029" y="8575862"/>
+            <a:ext cx="2466414" cy="1324535"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartDecision">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>적 유닛이 벽을 공격했는가</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>?</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4641,8 +6006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6F94A7-7021-4009-9B15-493C51B47768}">
   <dimension ref="B2:Q20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4671,7 +6036,7 @@
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -4714,7 +6079,7 @@
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -4730,7 +6095,7 @@
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -4757,7 +6122,7 @@
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -4785,7 +6150,7 @@
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4798,16 +6163,16 @@
       <c r="K14" s="7"/>
       <c r="L14" s="11"/>
       <c r="N14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q14" t="s">
         <v>109</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="10"/>
       <c r="C15" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -4822,7 +6187,7 @@
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
       <c r="C16" s="7" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -4837,7 +6202,7 @@
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="10"/>
       <c r="C17" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -4853,7 +6218,7 @@
       <c r="B18" s="12"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>

--- a/유닛 및 건물/양_유닛.xlsx
+++ b/유닛 및 건물/양_유닛.xlsx
@@ -8,25 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home_pc\OneDrive\바탕 화면\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF118E2-56ED-4D6F-8045-F7D713BD5033}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4F176E-F021-4191-B911-C8F1DA1996CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="647" firstSheet="2" activeTab="4" xr2:uid="{5DC44C0D-AFC0-4050-AC88-DAB7CE401A2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="647" activeTab="1" xr2:uid="{5DC44C0D-AFC0-4050-AC88-DAB7CE401A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="유닛 생산" sheetId="1" r:id="rId1"/>
     <sheet name="유닛 테이블" sheetId="2" r:id="rId2"/>
     <sheet name="2레벨 유닛 테이블" sheetId="8" r:id="rId3"/>
     <sheet name="3레벨 유닛 테이블" sheetId="13" r:id="rId4"/>
-    <sheet name="유닛 테이블DB" sheetId="10" r:id="rId5"/>
-    <sheet name="2레벨 유닛 테이블DB" sheetId="11" r:id="rId6"/>
-    <sheet name="3레벨 유닛 테이블DB" sheetId="14" r:id="rId7"/>
-    <sheet name="유닛 무기&amp;투사체&amp;특징" sheetId="7" r:id="rId8"/>
-    <sheet name="2레벨 유닛 무기&amp;투사체&amp;특징" sheetId="6" r:id="rId9"/>
-    <sheet name="3레벨 유닛 무기&amp;투사체&amp;특징" sheetId="12" r:id="rId10"/>
+    <sheet name="외형&amp;무기&amp;투사체&amp;특징" sheetId="7" r:id="rId5"/>
+    <sheet name="2레벨 외형&amp;무기&amp;투사체&amp;특징" sheetId="6" r:id="rId6"/>
+    <sheet name="3레벨 외형&amp;무기&amp;투사체&amp;특징" sheetId="12" r:id="rId7"/>
+    <sheet name="유닛 테이블DB" sheetId="10" r:id="rId8"/>
+    <sheet name="2레벨 유닛 테이블DB" sheetId="11" r:id="rId9"/>
+    <sheet name="3레벨 유닛 테이블DB" sheetId="14" r:id="rId10"/>
     <sheet name="Index" sheetId="3" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'2레벨 유닛 무기&amp;투사체&amp;특징'!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2레벨 외형&amp;무기&amp;투사체&amp;특징'!$A$1:$M$1</definedName>
     <definedName name="카테고리_유닛타입">Index!$C$2:$D$4</definedName>
     <definedName name="카테고리_피해타입">Index!$F$2:$G$3</definedName>
   </definedNames>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="114">
   <si>
     <t>이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -309,30 +309,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Attack(애니메이션여부)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hit(애니메이션여부)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dead(애니메이션여부)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Move(애니메이션여부)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Projectile(애니메이션여부)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProjectileBomb(애니메이션여부)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>사용 무기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -495,6 +471,34 @@
   <si>
     <t>AttackWide</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectileBomb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projectile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dead</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3007,7 +3011,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20340021" y="571499"/>
+          <a:off x="25119839" y="571499"/>
           <a:ext cx="1379144" cy="1503952"/>
           <a:chOff x="20097566" y="571499"/>
           <a:chExt cx="1379144" cy="1503952"/>
@@ -3332,7 +3336,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="21482393" y="8715376"/>
+          <a:off x="26262211" y="8715376"/>
           <a:ext cx="1527457" cy="1385454"/>
           <a:chOff x="21482393" y="8715376"/>
           <a:chExt cx="1527457" cy="1385454"/>
@@ -3430,199 +3434,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>2199410</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>346363</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>3082637</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2508268</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="그림 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5373E87-7E21-4A28-92DE-7841FF6127C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
-        <a:srcRect r="58226"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="25561637" y="8347363"/>
-          <a:ext cx="883227" cy="2161905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>839932</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>155864</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>2391765</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1654256</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="그림 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{142DA1CD-5DD1-42B5-BF6A-083FC3E9E00F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="24202159" y="6338455"/>
-          <a:ext cx="1551833" cy="1498392"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>663183</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>125558</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>2249143</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1511012</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="그림 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0891C0EB-E5D6-42D0-8292-E5E8E4CACEA2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="24025410" y="4559013"/>
-          <a:ext cx="1585960" cy="1385454"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>727363</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>138545</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>2322800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1642497</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="그림 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F3BD49-5A82-4291-BB40-55E75BDC609D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="24089590" y="2805545"/>
-          <a:ext cx="1595437" cy="1503952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1775357</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -3836,23 +3647,234 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2768681</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1091047</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>3100552</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2318410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="그림 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D995054-4119-4352-9991-EC85D1E7F5BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:srcRect t="29232" b="18455"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="21163117" y="9539793"/>
+          <a:ext cx="1227363" cy="331871"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2199410</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>346363</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="883227" cy="2161905"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="그림 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57D78BDE-86BA-4E5C-B137-D251D122C2ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:srcRect r="58226"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25353819" y="8347363"/>
+          <a:ext cx="883227" cy="2161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>839932</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1551833" cy="1498392"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="그림 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C93D0151-1BF5-4B64-8811-696C512ECF74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23994341" y="6338455"/>
+          <a:ext cx="1551833" cy="1498392"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>663183</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>125558</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1585960" cy="1385454"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="그림 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCF9F69A-F1BE-4701-B3F9-71FA38B7AD6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23817592" y="4559013"/>
+          <a:ext cx="1585960" cy="1385454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>727363</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1595437" cy="1503952"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="그림 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CA54903-3A90-464C-A2C8-FEC0607E35BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23881772" y="2805545"/>
+          <a:ext cx="1595437" cy="1503952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>761999</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>381000</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>2753590</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>2066925</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="1991591" cy="1685925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="그림 27" descr="영화 다음은 드라마다! 어쌔신 크리드 TV 시리즈로 - 중앙일보">
+        <xdr:cNvPr id="43" name="그림 42" descr="영화 다음은 드라마다! 어쌔신 크리드 TV 시리즈로 - 중앙일보">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BDD8AD1-028F-4D02-9D35-F72A7AEB47B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BC819BD-F3B5-433E-A1A2-866AE21348AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3861,7 +3883,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3873,7 +3895,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="24124226" y="588818"/>
+          <a:off x="23916408" y="588818"/>
           <a:ext cx="1991591" cy="1685925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3892,26 +3914,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>207818</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>467590</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1969111</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2147454</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="1761293" cy="1679864"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="그림 31" descr="마녀 모자, 바람 빠진 타이어, 아이콘, halloween, 와..., 무서운, 마법사, 모자, 표시, 벡터, 도표, a, 다채로운,  고체, 패턴, 통하고 있는, a, 백색 배경, eps, 10. 클립아트 | k51190835 | Fotosearch">
+        <xdr:cNvPr id="44" name="그림 43" descr="마녀 모자, 바람 빠진 타이어, 아이콘, halloween, 와..., 무서운, 마법사, 모자, 표시, 벡터, 도표, a, 다채로운,  고체, 패턴, 통하고 있는, a, 백색 배경, eps, 10. 클립아트 | k51190835 | Fotosearch">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56D7365F-85D9-4C32-96BB-D3AB83463A81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB0AE17F-CCF4-4984-AC8A-344E32543FDF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3920,7 +3937,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3932,7 +3949,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="23705993" y="8478115"/>
+          <a:off x="23362227" y="8468590"/>
           <a:ext cx="1761293" cy="1679864"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3951,50 +3968,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>2768681</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1091047</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>3100552</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2318410</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="그림 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D995054-4119-4352-9991-EC85D1E7F5BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
-        <a:srcRect t="29232" b="18455"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="21163117" y="9539793"/>
-          <a:ext cx="1227363" cy="331871"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4680,258 +4654,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>207818</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>467590</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1969111</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2147454</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="208" name="그림 207" descr="마녀 모자, 바람 빠진 타이어, 아이콘, halloween, 와..., 무서운, 마법사, 모자, 표시, 벡터, 도표, a, 다채로운,  고체, 패턴, 통하고 있는, a, 백색 배경, eps, 10. 클립아트 | k51190835 | Fotosearch">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDBC1F29-31DA-4921-BCEA-631652F8EFD2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect b="8447"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="23725909" y="8468590"/>
-          <a:ext cx="1761293" cy="1679864"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>2199410</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>346363</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>3082637</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2508268</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="209" name="그림 208">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58BEEF36-0DC8-4014-AE90-D98D17944762}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:srcRect r="58226"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="25526135" y="8356888"/>
-          <a:ext cx="883227" cy="2161905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>839932</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>155864</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>2391765</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1654256</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="210" name="그림 209">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54DE594F-A00D-4DC6-8A5F-2026C0A34498}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="24166657" y="6356639"/>
-          <a:ext cx="1551833" cy="1498392"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>663183</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>125558</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>2249143</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1511012</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="211" name="그림 210">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68C18EDD-E864-4871-8D46-C058D5998CE0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="23989908" y="4573733"/>
-          <a:ext cx="1585960" cy="1385454"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>727363</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>138545</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>2322800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1642497</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="212" name="그림 211">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E24FF12-E729-4235-9EA3-1FC8FBAD0705}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="24054088" y="2815070"/>
-          <a:ext cx="1595437" cy="1503952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>160246</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -5043,7 +4765,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5057,65 +4779,6 @@
         <a:xfrm rot="16200000">
           <a:off x="13357420" y="5840461"/>
           <a:ext cx="336847" cy="2721731"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>761999</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>2753590</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>2316307</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="216" name="그림 215" descr="영화 다음은 드라마다! 어쌔신 크리드 TV 시리즈로 - 중앙일보">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C568746B-D3A4-4E0F-BA4F-B01771771DD6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="14724" r="11651"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="24280090" y="398318"/>
-          <a:ext cx="1991591" cy="2125807"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5161,7 +4824,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5204,7 +4867,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>13803</xdr:colOff>
+      <xdr:colOff>13804</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>1796538</xdr:rowOff>
     </xdr:to>
@@ -5222,11 +4885,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId19">
+                <a14:imgLayer r:embed="rId16">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="9524" b="90476" l="10000" r="90000">
                       <a14:foregroundMark x1="26364" y1="71429" x2="77727" y2="84524"/>
@@ -5308,7 +4971,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5369,7 +5032,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5430,7 +5093,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:srcRect t="29232" b="18455"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -5472,7 +5135,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="21034710" y="8853922"/>
+          <a:off x="25443424" y="8853922"/>
           <a:ext cx="2395814" cy="1385454"/>
           <a:chOff x="21023576" y="8853922"/>
           <a:chExt cx="2395814" cy="1385454"/>
@@ -5492,7 +5155,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5538,7 +5201,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5587,7 +5250,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19629857" y="6934840"/>
+          <a:off x="24038571" y="6934840"/>
           <a:ext cx="1058297" cy="275584"/>
           <a:chOff x="19604003" y="6944365"/>
           <a:chExt cx="1058297" cy="275584"/>
@@ -5607,7 +5270,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5651,7 +5314,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5710,7 +5373,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20507018" y="567788"/>
+          <a:off x="24915732" y="567788"/>
           <a:ext cx="1379144" cy="1503952"/>
           <a:chOff x="20097566" y="571499"/>
           <a:chExt cx="1379144" cy="1503952"/>
@@ -5730,7 +5393,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5764,7 +5427,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
             <a:extLst>
               <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
                 <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -5832,6 +5495,287 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>207818</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>467590</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1761293" cy="1679864"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="그림 32" descr="마녀 모자, 바람 빠진 타이어, 아이콘, halloween, 와..., 무서운, 마법사, 모자, 표시, 벡터, 도표, a, 다채로운,  고체, 패턴, 통하고 있는, a, 백색 배경, eps, 10. 클립아트 | k51190835 | Fotosearch">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3A00BC8-7DEA-4883-94C1-39B27D1D7EF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="8447"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="26129425" y="8468590"/>
+          <a:ext cx="1761293" cy="1679864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2199410</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>346363</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="883227" cy="2161905"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="그림 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF673C8B-CCFB-4571-9A06-29A9FB206743}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:srcRect r="58226"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28121017" y="8347363"/>
+          <a:ext cx="883227" cy="2161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>839932</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1551833" cy="1498392"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="그림 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BE20E62-D1E7-46B6-B6DD-7CB903303C94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26761539" y="6347114"/>
+          <a:ext cx="1551833" cy="1498392"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>663183</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>125558</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1585960" cy="1385454"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="그림 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8672502F-3D74-4E3D-93FC-F36B74143B30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26584790" y="4561487"/>
+          <a:ext cx="1585960" cy="1385454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>727363</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1595437" cy="1503952"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="그림 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D1CD1D8-C7B8-4065-BE4E-CB5EAD14BA26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26648970" y="2805545"/>
+          <a:ext cx="1595437" cy="1503952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1991591" cy="2125807"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="그림 37" descr="영화 다음은 드라마다! 어쌔신 크리드 TV 시리즈로 - 중앙일보">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9FA90EB-A9C5-4697-B7D7-0B4EFE70A922}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="14724" r="11651"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="26683606" y="394607"/>
+          <a:ext cx="1991591" cy="2125807"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5898,25 +5842,909 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1231858</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>3038659</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="그림 45" descr="Pin on Magic Staffs, Wands &amp; Robes">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F22DD822-171D-45D2-A03A-49C7A7E941DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="15467212">
+          <a:off x="21118505" y="7107203"/>
+          <a:ext cx="158" cy="1806801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>258932</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2458992</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1312306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="그림 46" descr="중세 전투 창 | 프리미엄 벡터">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60A0384E-87AE-4A3A-BE5B-D7C3CE4BE1E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId3">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="9843" b="98819" l="12121" r="79293">
+                      <a14:foregroundMark x1="81818" y1="5906" x2="74829" y2="14347"/>
+                      <a14:foregroundMark x1="74747" y1="12992" x2="74006" y2="14129"/>
+                      <a14:foregroundMark x1="57628" y1="39918" x2="38453" y2="64527"/>
+                      <a14:backgroundMark x1="63131" y1="21260" x2="33838" y2="55906"/>
+                      <a14:backgroundMark x1="33838" y1="55906" x2="11616" y2="96457"/>
+                      <a14:backgroundMark x1="11111" y1="97244" x2="17172" y2="85827"/>
+                      <a14:backgroundMark x1="65657" y1="20866" x2="65657" y2="20866"/>
+                      <a14:backgroundMark x1="67677" y1="20866" x2="67677" y2="20866"/>
+                      <a14:backgroundMark x1="69697" y1="19685" x2="69697" y2="19685"/>
+                      <a14:backgroundMark x1="67172" y1="22047" x2="67172" y2="22047"/>
+                      <a14:backgroundMark x1="67172" y1="23228" x2="67172" y2="23228"/>
+                      <a14:backgroundMark x1="67677" y1="22835" x2="67677" y2="22835"/>
+                      <a14:backgroundMark x1="68687" y1="23228" x2="68687" y2="23228"/>
+                      <a14:backgroundMark x1="68182" y1="21654" x2="68182" y2="21654"/>
+                      <a14:backgroundMark x1="11616" y1="98031" x2="13636" y2="98819"/>
+                      <a14:backgroundMark x1="70707" y1="14173" x2="72727" y2="13386"/>
+                      <a14:backgroundMark x1="71212" y1="13386" x2="65657" y2="25591"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="9507" r="12656"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="14418314">
+          <a:off x="19686134" y="4004298"/>
+          <a:ext cx="1312306" cy="2200060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>49304</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>462221</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3114477</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1632856</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="그림 47" descr="대거(dagger) - 무기사전 - 위키독">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D8BFCAE-37D6-4E02-BA6E-D9DD78DBA0EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId5">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="35052" b="64433" l="16216" r="81081">
+                      <a14:foregroundMark x1="60529" y1="47938" x2="60232" y2="53093"/>
+                      <a14:foregroundMark x1="60564" y1="47321" x2="60529" y2="47938"/>
+                      <a14:foregroundMark x1="58301" y1="49485" x2="29730" y2="51031"/>
+                      <a14:foregroundMark x1="39382" y1="51546" x2="25069" y2="50863"/>
+                      <a14:foregroundMark x1="30888" y1="50515" x2="25750" y2="49372"/>
+                      <a14:foregroundMark x1="25889" y1="49069" x2="42085" y2="49485"/>
+                      <a14:foregroundMark x1="42085" y1="49485" x2="50579" y2="48454"/>
+                      <a14:foregroundMark x1="21622" y1="50515" x2="21622" y2="50515"/>
+                      <a14:foregroundMark x1="60618" y1="48969" x2="64866" y2="48969"/>
+                      <a14:foregroundMark x1="59073" y1="42784" x2="59073" y2="42784"/>
+                      <a14:foregroundMark x1="61004" y1="41753" x2="61004" y2="41753"/>
+                      <a14:foregroundMark x1="59846" y1="49485" x2="17375" y2="51031"/>
+                      <a14:foregroundMark x1="21622" y1="50000" x2="41699" y2="50000"/>
+                      <a14:foregroundMark x1="41699" y1="50000" x2="61004" y2="48969"/>
+                      <a14:foregroundMark x1="61004" y1="48969" x2="62548" y2="48969"/>
+                      <a14:foregroundMark x1="80309" y1="52062" x2="80309" y2="52577"/>
+                      <a14:foregroundMark x1="79151" y1="51546" x2="79151" y2="51546"/>
+                      <a14:foregroundMark x1="78378" y1="48454" x2="78378" y2="48454"/>
+                      <a14:foregroundMark x1="77606" y1="50000" x2="77606" y2="50000"/>
+                      <a14:foregroundMark x1="80309" y1="50000" x2="80309" y2="50000"/>
+                      <a14:foregroundMark x1="77606" y1="47938" x2="77606" y2="47938"/>
+                      <a14:foregroundMark x1="79537" y1="47423" x2="79537" y2="47423"/>
+                      <a14:foregroundMark x1="81081" y1="49485" x2="81081" y2="49485"/>
+                      <a14:foregroundMark x1="78764" y1="54124" x2="78764" y2="54124"/>
+                      <a14:foregroundMark x1="77992" y1="51546" x2="77992" y2="51546"/>
+                      <a14:foregroundMark x1="80695" y1="48454" x2="80695" y2="48454"/>
+                      <a14:foregroundMark x1="78378" y1="47938" x2="78378" y2="47938"/>
+                      <a14:foregroundMark x1="77220" y1="48454" x2="77220" y2="48454"/>
+                      <a14:foregroundMark x1="77606" y1="47423" x2="77606" y2="47423"/>
+                      <a14:foregroundMark x1="77606" y1="47938" x2="77606" y2="47938"/>
+                      <a14:foregroundMark x1="77992" y1="48454" x2="77992" y2="48454"/>
+                      <a14:foregroundMark x1="78378" y1="47938" x2="77220" y2="48969"/>
+                      <a14:backgroundMark x1="15444" y1="48454" x2="16095" y2="48394"/>
+                      <a14:backgroundMark x1="16216" y1="21134" x2="16216" y2="21134"/>
+                      <a14:backgroundMark x1="69124" y1="47080" x2="66795" y2="46907"/>
+                      <a14:backgroundMark x1="59073" y1="43814" x2="58687" y2="46907"/>
+                      <a14:backgroundMark x1="58687" y1="42268" x2="58687" y2="42268"/>
+                      <a14:backgroundMark x1="59459" y1="42268" x2="59459" y2="42268"/>
+                      <a14:backgroundMark x1="64479" y1="55155" x2="75676" y2="54639"/>
+                      <a14:backgroundMark x1="75676" y1="54639" x2="80695" y2="56701"/>
+                      <a14:backgroundMark x1="62162" y1="54639" x2="66023" y2="54639"/>
+                      <a14:backgroundMark x1="64479" y1="47938" x2="64479" y2="47938"/>
+                      <a14:backgroundMark x1="77606" y1="46392" x2="77606" y2="46392"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="13514" t="31442" r="13513" b="30928"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6078629" y="671771"/>
+          <a:ext cx="3065173" cy="1170635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>282983</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>92233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2912443</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="그림 48" descr="중세 검 화이트 절연 로열티 무료 사진, 그림, 이미지 그리고 스톡포토그래피. Image 40533547.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A43273EB-9131-4C48-B012-B765D91B3049}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId7">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="9290" b="88525" l="3986" r="94928">
+                      <a14:foregroundMark x1="21014" y1="27322" x2="4348" y2="12022"/>
+                      <a14:foregroundMark x1="8333" y1="15301" x2="27536" y2="32240"/>
+                      <a14:foregroundMark x1="40217" y1="42077" x2="90580" y2="81967"/>
+                      <a14:foregroundMark x1="90580" y1="81967" x2="36232" y2="34426"/>
+                      <a14:foregroundMark x1="44928" y1="40437" x2="73188" y2="63934"/>
+                      <a14:foregroundMark x1="74275" y1="48087" x2="74275" y2="48087"/>
+                      <a14:foregroundMark x1="65217" y1="77049" x2="65217" y2="77049"/>
+                      <a14:foregroundMark x1="44928" y1="44262" x2="11957" y2="15301"/>
+                      <a14:foregroundMark x1="11957" y1="15301" x2="8333" y2="14208"/>
+                      <a14:foregroundMark x1="7971" y1="13661" x2="25000" y2="25683"/>
+                      <a14:foregroundMark x1="25000" y1="25683" x2="39493" y2="34973"/>
+                      <a14:foregroundMark x1="93841" y1="79235" x2="92391" y2="83607"/>
+                      <a14:foregroundMark x1="94928" y1="75956" x2="90942" y2="72678"/>
+                      <a14:foregroundMark x1="7609" y1="13115" x2="25725" y2="26776"/>
+                      <a14:foregroundMark x1="25725" y1="26776" x2="61594" y2="52459"/>
+                      <a14:foregroundMark x1="61594" y1="52459" x2="9058" y2="15301"/>
+                      <a14:foregroundMark x1="69203" y1="71585" x2="3986" y2="10383"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="19975295">
+          <a:off x="6312308" y="2768758"/>
+          <a:ext cx="2629460" cy="1691467"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>316109</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>185099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2763474</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1644919</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="그림 49" descr="중세 전투 창 | 프리미엄 벡터">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E1DBD55-6740-46B2-B5B1-D5214B4A00EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId3">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="9843" b="98819" l="12121" r="79293">
+                      <a14:foregroundMark x1="81818" y1="5906" x2="74829" y2="14347"/>
+                      <a14:foregroundMark x1="74747" y1="12992" x2="74006" y2="14129"/>
+                      <a14:foregroundMark x1="57628" y1="39918" x2="38453" y2="64527"/>
+                      <a14:backgroundMark x1="63131" y1="21260" x2="33838" y2="55906"/>
+                      <a14:backgroundMark x1="33838" y1="55906" x2="11616" y2="96457"/>
+                      <a14:backgroundMark x1="11111" y1="97244" x2="17172" y2="85827"/>
+                      <a14:backgroundMark x1="65657" y1="20866" x2="65657" y2="20866"/>
+                      <a14:backgroundMark x1="67677" y1="20866" x2="67677" y2="20866"/>
+                      <a14:backgroundMark x1="69697" y1="19685" x2="69697" y2="19685"/>
+                      <a14:backgroundMark x1="67172" y1="22047" x2="67172" y2="22047"/>
+                      <a14:backgroundMark x1="67172" y1="23228" x2="67172" y2="23228"/>
+                      <a14:backgroundMark x1="67677" y1="22835" x2="67677" y2="22835"/>
+                      <a14:backgroundMark x1="68687" y1="23228" x2="68687" y2="23228"/>
+                      <a14:backgroundMark x1="68182" y1="21654" x2="68182" y2="21654"/>
+                      <a14:backgroundMark x1="11616" y1="98031" x2="13636" y2="98819"/>
+                      <a14:backgroundMark x1="70707" y1="14173" x2="72727" y2="13386"/>
+                      <a14:backgroundMark x1="71212" y1="13386" x2="65657" y2="25591"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="9507" r="12656"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="14418314">
+          <a:off x="6839207" y="4139501"/>
+          <a:ext cx="1459820" cy="2447365"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>388133</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>610076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2786190</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1273148</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="그림 50" descr="How to Draw a Bow and Arrow ❤ liked on Polyvore featuring weapon">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{668D19E7-3056-441E-9429-8F819D908CA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId9">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="1596" b="96986" l="26596" r="51950">
+                      <a14:foregroundMark x1="50355" y1="96454" x2="27660" y2="64894"/>
+                      <a14:foregroundMark x1="27660" y1="64894" x2="26596" y2="44326"/>
+                      <a14:foregroundMark x1="26596" y1="44326" x2="29433" y2="64362"/>
+                      <a14:foregroundMark x1="29433" y1="64362" x2="32092" y2="70390"/>
+                      <a14:foregroundMark x1="50000" y1="94149" x2="49113" y2="73227"/>
+                      <a14:foregroundMark x1="49113" y1="73227" x2="50709" y2="13475"/>
+                      <a14:foregroundMark x1="50709" y1="13475" x2="35816" y2="20745"/>
+                      <a14:foregroundMark x1="46454" y1="7624" x2="49291" y2="1950"/>
+                      <a14:foregroundMark x1="50177" y1="96986" x2="43972" y2="87589"/>
+                      <a14:foregroundMark x1="50887" y1="90248" x2="50887" y2="70745"/>
+                      <a14:foregroundMark x1="50887" y1="70745" x2="49823" y2="61348"/>
+                      <a14:foregroundMark x1="49291" y1="85106" x2="49291" y2="68972"/>
+                      <a14:foregroundMark x1="51064" y1="95213" x2="50887" y2="87234"/>
+                      <a14:foregroundMark x1="49645" y1="91667" x2="43972" y2="90957"/>
+                      <a14:foregroundMark x1="49113" y1="91312" x2="49823" y2="64184"/>
+                      <a14:foregroundMark x1="49823" y1="64184" x2="49645" y2="52837"/>
+                      <a14:foregroundMark x1="49823" y1="62766" x2="49113" y2="47872"/>
+                      <a14:foregroundMark x1="50355" y1="62766" x2="50355" y2="45213"/>
+                      <a14:foregroundMark x1="51064" y1="56206" x2="50000" y2="38298"/>
+                      <a14:foregroundMark x1="49823" y1="44681" x2="49113" y2="26950"/>
+                      <a14:foregroundMark x1="51064" y1="34574" x2="50355" y2="19858"/>
+                      <a14:foregroundMark x1="51064" y1="25709" x2="50177" y2="11525"/>
+                      <a14:foregroundMark x1="50532" y1="24113" x2="48936" y2="11879"/>
+                      <a14:foregroundMark x1="50000" y1="28723" x2="49113" y2="13475"/>
+                      <a14:foregroundMark x1="50887" y1="12234" x2="50709" y2="1596"/>
+                      <a14:foregroundMark x1="51596" y1="18617" x2="51950" y2="6560"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="25759" t="1404" r="47710" b="2511"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="7284951" y="5943358"/>
+          <a:ext cx="663072" cy="2398057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1679865</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>3275302</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1642497</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="그림 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F0C048-2A31-4BB0-8A04-23BD0A52D7C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24849428" y="2829358"/>
+          <a:ext cx="1595437" cy="1503952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>3208957</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>125558</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>4794917</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1511012</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="그림 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4492570B-65E3-41E9-989D-4BD62B7C0AEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26378520" y="4578496"/>
+          <a:ext cx="1585960" cy="1385454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>3385706</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>4937539</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1654256</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="그림 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A81BA1E0-6CD2-46FD-95F0-A57E01BDD823}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26555269" y="6370927"/>
+          <a:ext cx="1551833" cy="1498392"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>160246</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>185099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2607611</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1644919</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="그림 60" descr="중세 전투 창 | 프리미엄 벡터">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9663691D-0743-4136-BB08-F46285B62CDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId3">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="9843" b="98819" l="12121" r="79293">
+                      <a14:foregroundMark x1="81818" y1="5906" x2="74829" y2="14347"/>
+                      <a14:foregroundMark x1="74747" y1="12992" x2="74006" y2="14129"/>
+                      <a14:foregroundMark x1="57628" y1="39918" x2="38453" y2="64527"/>
+                      <a14:backgroundMark x1="63131" y1="21260" x2="33838" y2="55906"/>
+                      <a14:backgroundMark x1="33838" y1="55906" x2="11616" y2="96457"/>
+                      <a14:backgroundMark x1="11111" y1="97244" x2="17172" y2="85827"/>
+                      <a14:backgroundMark x1="65657" y1="20866" x2="65657" y2="20866"/>
+                      <a14:backgroundMark x1="67677" y1="20866" x2="67677" y2="20866"/>
+                      <a14:backgroundMark x1="69697" y1="19685" x2="69697" y2="19685"/>
+                      <a14:backgroundMark x1="67172" y1="22047" x2="67172" y2="22047"/>
+                      <a14:backgroundMark x1="67172" y1="23228" x2="67172" y2="23228"/>
+                      <a14:backgroundMark x1="67677" y1="22835" x2="67677" y2="22835"/>
+                      <a14:backgroundMark x1="68687" y1="23228" x2="68687" y2="23228"/>
+                      <a14:backgroundMark x1="68182" y1="21654" x2="68182" y2="21654"/>
+                      <a14:backgroundMark x1="11616" y1="98031" x2="13636" y2="98819"/>
+                      <a14:backgroundMark x1="70707" y1="14173" x2="72727" y2="13386"/>
+                      <a14:backgroundMark x1="71212" y1="13386" x2="65657" y2="25591"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="9507" r="12656"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="14418314">
+          <a:off x="12769819" y="4139501"/>
+          <a:ext cx="1459820" cy="2447365"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>49178</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>832128</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2770909</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1168975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="그림 61" descr="How to Draw a Bow and Arrow ❤ liked on Polyvore featuring weapon">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B645A721-2075-4EC1-8E33-F8C2D1BBC4CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="62471" t="1092" r="26731" b="11714"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000">
+          <a:off x="13357420" y="5840461"/>
+          <a:ext cx="336847" cy="2721731"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>887089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2742473</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1752031</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="그림 63" descr="Pin on Magic Staffs, Wands &amp; Robes">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9783C84D-818B-4D0C-B1BB-79B76FF04AFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="15467212">
+          <a:off x="6968091" y="7958848"/>
+          <a:ext cx="864942" cy="2742473"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>2414</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1731</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2787532</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>852922</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>2414</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1731</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>5183346</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2238376</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="28" name="그룹 27">
+        <xdr:cNvPr id="69" name="그룹 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8227220E-FEDC-43D3-8B2B-F94292116A7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A373932E-9297-4BD0-8573-85D22259860A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5924,18 +6752,64 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="23481539" y="2692544"/>
-          <a:ext cx="0" cy="0"/>
-          <a:chOff x="20097566" y="571499"/>
-          <a:chExt cx="1379144" cy="1503952"/>
+          <a:off x="25957095" y="8877735"/>
+          <a:ext cx="2395814" cy="1385454"/>
+          <a:chOff x="21023576" y="8853922"/>
+          <a:chExt cx="2395814" cy="1385454"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="29" name="그림 28">
+          <xdr:cNvPr id="70" name="그림 69" descr="Pin on Magic Staffs, Wands &amp; Robes">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1C498F9-E0F5-4ED3-B0CF-B8F933FD5BAC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3205A2EF-0616-4C7A-A8FF-CF400F6E7621}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm rot="15700966">
+            <a:off x="21895573" y="8548881"/>
+            <a:ext cx="651819" cy="2395814"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="71" name="그림 70">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3947E84C-CAF4-4161-8901-7D740537EECC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5944,7 +6818,76 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="44449"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="22132636" y="8853922"/>
+            <a:ext cx="881007" cy="1385454"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1878839</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>363681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>3257983</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1867633</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="73" name="그룹 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61945569-BC7B-4C05-8295-ACD989A23402}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="25048402" y="577994"/>
+          <a:ext cx="1379144" cy="1503952"/>
+          <a:chOff x="20097566" y="571499"/>
+          <a:chExt cx="1379144" cy="1503952"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="74" name="그림 73">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{956D5929-5ABC-4474-91AE-F6323593E752}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5966,10 +6909,10 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="30" name="그림 29" descr="대거(dagger) - 무기사전 - 위키독">
+          <xdr:cNvPr id="75" name="그림 74" descr="대거(dagger) - 무기사전 - 위키독">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC9972A0-C0E9-4978-8863-B73053AC9FC1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C118DF58-4277-4D5A-98F5-A0A652BEFCA3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5978,11 +6921,11 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
             <a:extLst>
               <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
                 <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId4">
+                  <a14:imgLayer r:embed="rId5">
                     <a14:imgEffect>
                       <a14:backgroundRemoval t="35052" b="64433" l="16988" r="79151">
                         <a14:foregroundMark x1="60564" y1="47321" x2="60232" y2="53093"/>
@@ -6046,25 +6989,192 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1231858</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>620678</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>657865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>3038659</xdr:colOff>
+      <xdr:colOff>1678975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1152524</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="77" name="그룹 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{893AFC31-3A50-4E16-B26C-7169C0808291}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="23790241" y="6872928"/>
+          <a:ext cx="1058297" cy="494659"/>
+          <a:chOff x="19604003" y="7068190"/>
+          <a:chExt cx="1058297" cy="494659"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="52" name="그림 51" descr="How to Draw a Bow and Arrow ❤ liked on Polyvore featuring weapon">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C89392F-53D8-451B-AC61-9C1FA673C76C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="62471" t="1092" r="26731" b="11714"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm rot="16200000">
+            <a:off x="20067663" y="6968212"/>
+            <a:ext cx="130977" cy="1058297"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="72" name="그림 71" descr="How to Draw a Bow and Arrow ❤ liked on Polyvore featuring weapon">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B061D6F9-964F-4A2B-89D9-079E7758CB03}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="62471" t="1092" r="26731" b="11714"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm rot="16200000">
+            <a:off x="20067663" y="6786371"/>
+            <a:ext cx="130977" cy="1058297"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="76" name="그림 75" descr="How to Draw a Bow and Arrow ❤ liked on Polyvore featuring weapon">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58153561-6102-4E46-9C25-14160D40BAA5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="62471" t="1092" r="26731" b="11714"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm rot="16200000">
+            <a:off x="20067663" y="6604530"/>
+            <a:ext cx="130977" cy="1058297"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1463173</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>158</xdr:rowOff>
+      <xdr:rowOff>243923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>3843426</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>112959</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="그림 45" descr="Pin on Magic Staffs, Wands &amp; Robes">
+        <xdr:cNvPr id="79" name="그림 78" descr="파이어볼 움켜쥔 신의 주먹? 환상입니다, 거대한 불꽃 구름입니다">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F22DD822-171D-45D2-A03A-49C7A7E941DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89B98E24-D077-4D49-8E2B-221340D079CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6073,8 +7183,53 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId19">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="5114" b="89773" l="9790" r="89860">
+                      <a14:backgroundMark x1="62937" y1="85795" x2="75524" y2="50568"/>
+                      <a14:backgroundMark x1="75524" y1="50568" x2="60490" y2="73864"/>
+                      <a14:backgroundMark x1="60490" y1="73864" x2="74476" y2="49432"/>
+                      <a14:backgroundMark x1="74476" y1="49432" x2="56294" y2="74432"/>
+                      <a14:backgroundMark x1="56294" y1="74432" x2="74476" y2="41477"/>
+                      <a14:backgroundMark x1="74476" y1="41477" x2="61538" y2="78977"/>
+                      <a14:backgroundMark x1="61538" y1="78977" x2="75175" y2="54545"/>
+                      <a14:backgroundMark x1="75175" y1="54545" x2="65385" y2="81818"/>
+                      <a14:backgroundMark x1="65385" y1="81818" x2="77972" y2="54545"/>
+                      <a14:backgroundMark x1="77972" y1="54545" x2="68531" y2="81250"/>
+                      <a14:backgroundMark x1="68531" y1="81250" x2="81469" y2="47727"/>
+                      <a14:backgroundMark x1="57343" y1="12500" x2="75524" y2="3409"/>
+                      <a14:backgroundMark x1="75524" y1="3409" x2="73776" y2="0"/>
+                      <a14:backgroundMark x1="79371" y1="25000" x2="92308" y2="3977"/>
+                      <a14:backgroundMark x1="92308" y1="3977" x2="92308" y2="7386"/>
+                      <a14:backgroundMark x1="85315" y1="20455" x2="87762" y2="14205"/>
+                      <a14:backgroundMark x1="88462" y1="14205" x2="88462" y2="10227"/>
+                      <a14:backgroundMark x1="61888" y1="10795" x2="90210" y2="20455"/>
+                      <a14:backgroundMark x1="90210" y1="20455" x2="76573" y2="6250"/>
+                      <a14:backgroundMark x1="76573" y1="6250" x2="90210" y2="9091"/>
+                      <a14:backgroundMark x1="90210" y1="9091" x2="76923" y2="10227"/>
+                      <a14:backgroundMark x1="76923" y1="10227" x2="92308" y2="10795"/>
+                      <a14:backgroundMark x1="92308" y1="10795" x2="77972" y2="1136"/>
+                      <a14:backgroundMark x1="77972" y1="1136" x2="83566" y2="2841"/>
+                      <a14:backgroundMark x1="52797" y1="19318" x2="76923" y2="10795"/>
+                      <a14:backgroundMark x1="76923" y1="10795" x2="87413" y2="17045"/>
+                      <a14:backgroundMark x1="87413" y1="17045" x2="84965" y2="36364"/>
+                      <a14:backgroundMark x1="84965" y1="36364" x2="83566" y2="13636"/>
+                      <a14:backgroundMark x1="83566" y1="13636" x2="78322" y2="36364"/>
+                      <a14:backgroundMark x1="78322" y1="36364" x2="80420" y2="6250"/>
+                      <a14:backgroundMark x1="80420" y1="6250" x2="79021" y2="34659"/>
+                      <a14:backgroundMark x1="79021" y1="34659" x2="79720" y2="11932"/>
+                      <a14:backgroundMark x1="79720" y1="11932" x2="78671" y2="34091"/>
+                      <a14:backgroundMark x1="78671" y1="34091" x2="72378" y2="18750"/>
+                      <a14:backgroundMark x1="72378" y1="18750" x2="72378" y2="18750"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
@@ -6086,9 +7241,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="15467212">
-          <a:off x="21118505" y="7107203"/>
-          <a:ext cx="158" cy="1806801"/>
+        <a:xfrm rot="2359774">
+          <a:off x="22656298" y="8268736"/>
+          <a:ext cx="4356691" cy="2678911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6109,490 +7264,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>258932</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>103908</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>280218</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>2458992</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1312306</xdr:rowOff>
+      <xdr:colOff>173181</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2373007</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="그림 46" descr="중세 전투 창 | 프리미엄 벡터">
+        <xdr:cNvPr id="80" name="그림 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60A0384E-87AE-4A3A-BE5B-D7C3CE4BE1E1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId6">
-                  <a14:imgEffect>
-                    <a14:backgroundRemoval t="9843" b="98819" l="12121" r="79293">
-                      <a14:foregroundMark x1="81818" y1="5906" x2="74829" y2="14347"/>
-                      <a14:foregroundMark x1="74747" y1="12992" x2="74006" y2="14129"/>
-                      <a14:foregroundMark x1="57628" y1="39918" x2="38453" y2="64527"/>
-                      <a14:backgroundMark x1="63131" y1="21260" x2="33838" y2="55906"/>
-                      <a14:backgroundMark x1="33838" y1="55906" x2="11616" y2="96457"/>
-                      <a14:backgroundMark x1="11111" y1="97244" x2="17172" y2="85827"/>
-                      <a14:backgroundMark x1="65657" y1="20866" x2="65657" y2="20866"/>
-                      <a14:backgroundMark x1="67677" y1="20866" x2="67677" y2="20866"/>
-                      <a14:backgroundMark x1="69697" y1="19685" x2="69697" y2="19685"/>
-                      <a14:backgroundMark x1="67172" y1="22047" x2="67172" y2="22047"/>
-                      <a14:backgroundMark x1="67172" y1="23228" x2="67172" y2="23228"/>
-                      <a14:backgroundMark x1="67677" y1="22835" x2="67677" y2="22835"/>
-                      <a14:backgroundMark x1="68687" y1="23228" x2="68687" y2="23228"/>
-                      <a14:backgroundMark x1="68182" y1="21654" x2="68182" y2="21654"/>
-                      <a14:backgroundMark x1="11616" y1="98031" x2="13636" y2="98819"/>
-                      <a14:backgroundMark x1="70707" y1="14173" x2="72727" y2="13386"/>
-                      <a14:backgroundMark x1="71212" y1="13386" x2="65657" y2="25591"/>
-                    </a14:backgroundRemoval>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="9507" r="12656"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="14418314">
-          <a:off x="19686134" y="4004298"/>
-          <a:ext cx="1312306" cy="2200060"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>49304</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>462221</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>3114477</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1632856</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="그림 47" descr="대거(dagger) - 무기사전 - 위키독">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D8BFCAE-37D6-4E02-BA6E-D9DD78DBA0EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId4">
-                  <a14:imgEffect>
-                    <a14:backgroundRemoval t="35052" b="64433" l="16216" r="81081">
-                      <a14:foregroundMark x1="60529" y1="47938" x2="60232" y2="53093"/>
-                      <a14:foregroundMark x1="60564" y1="47321" x2="60529" y2="47938"/>
-                      <a14:foregroundMark x1="58301" y1="49485" x2="29730" y2="51031"/>
-                      <a14:foregroundMark x1="39382" y1="51546" x2="25069" y2="50863"/>
-                      <a14:foregroundMark x1="30888" y1="50515" x2="25750" y2="49372"/>
-                      <a14:foregroundMark x1="25889" y1="49069" x2="42085" y2="49485"/>
-                      <a14:foregroundMark x1="42085" y1="49485" x2="50579" y2="48454"/>
-                      <a14:foregroundMark x1="21622" y1="50515" x2="21622" y2="50515"/>
-                      <a14:foregroundMark x1="60618" y1="48969" x2="64866" y2="48969"/>
-                      <a14:foregroundMark x1="59073" y1="42784" x2="59073" y2="42784"/>
-                      <a14:foregroundMark x1="61004" y1="41753" x2="61004" y2="41753"/>
-                      <a14:foregroundMark x1="59846" y1="49485" x2="17375" y2="51031"/>
-                      <a14:foregroundMark x1="21622" y1="50000" x2="41699" y2="50000"/>
-                      <a14:foregroundMark x1="41699" y1="50000" x2="61004" y2="48969"/>
-                      <a14:foregroundMark x1="61004" y1="48969" x2="62548" y2="48969"/>
-                      <a14:foregroundMark x1="80309" y1="52062" x2="80309" y2="52577"/>
-                      <a14:foregroundMark x1="79151" y1="51546" x2="79151" y2="51546"/>
-                      <a14:foregroundMark x1="78378" y1="48454" x2="78378" y2="48454"/>
-                      <a14:foregroundMark x1="77606" y1="50000" x2="77606" y2="50000"/>
-                      <a14:foregroundMark x1="80309" y1="50000" x2="80309" y2="50000"/>
-                      <a14:foregroundMark x1="77606" y1="47938" x2="77606" y2="47938"/>
-                      <a14:foregroundMark x1="79537" y1="47423" x2="79537" y2="47423"/>
-                      <a14:foregroundMark x1="81081" y1="49485" x2="81081" y2="49485"/>
-                      <a14:foregroundMark x1="78764" y1="54124" x2="78764" y2="54124"/>
-                      <a14:foregroundMark x1="77992" y1="51546" x2="77992" y2="51546"/>
-                      <a14:foregroundMark x1="80695" y1="48454" x2="80695" y2="48454"/>
-                      <a14:foregroundMark x1="78378" y1="47938" x2="78378" y2="47938"/>
-                      <a14:foregroundMark x1="77220" y1="48454" x2="77220" y2="48454"/>
-                      <a14:foregroundMark x1="77606" y1="47423" x2="77606" y2="47423"/>
-                      <a14:foregroundMark x1="77606" y1="47938" x2="77606" y2="47938"/>
-                      <a14:foregroundMark x1="77992" y1="48454" x2="77992" y2="48454"/>
-                      <a14:foregroundMark x1="78378" y1="47938" x2="77220" y2="48969"/>
-                      <a14:backgroundMark x1="15444" y1="48454" x2="16095" y2="48394"/>
-                      <a14:backgroundMark x1="16216" y1="21134" x2="16216" y2="21134"/>
-                      <a14:backgroundMark x1="69124" y1="47080" x2="66795" y2="46907"/>
-                      <a14:backgroundMark x1="59073" y1="43814" x2="58687" y2="46907"/>
-                      <a14:backgroundMark x1="58687" y1="42268" x2="58687" y2="42268"/>
-                      <a14:backgroundMark x1="59459" y1="42268" x2="59459" y2="42268"/>
-                      <a14:backgroundMark x1="64479" y1="55155" x2="75676" y2="54639"/>
-                      <a14:backgroundMark x1="75676" y1="54639" x2="80695" y2="56701"/>
-                      <a14:backgroundMark x1="62162" y1="54639" x2="66023" y2="54639"/>
-                      <a14:backgroundMark x1="64479" y1="47938" x2="64479" y2="47938"/>
-                      <a14:backgroundMark x1="77606" y1="46392" x2="77606" y2="46392"/>
-                    </a14:backgroundRemoval>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="13514" t="31442" r="13513" b="30928"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6078629" y="671771"/>
-          <a:ext cx="3065173" cy="1170635"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>282983</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>92233</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2912443</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>12050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="그림 48" descr="중세 검 화이트 절연 로열티 무료 사진, 그림, 이미지 그리고 스톡포토그래피. Image 40533547.">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A43273EB-9131-4C48-B012-B765D91B3049}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId9">
-                  <a14:imgEffect>
-                    <a14:backgroundRemoval t="9290" b="88525" l="3986" r="94928">
-                      <a14:foregroundMark x1="21014" y1="27322" x2="4348" y2="12022"/>
-                      <a14:foregroundMark x1="8333" y1="15301" x2="27536" y2="32240"/>
-                      <a14:foregroundMark x1="40217" y1="42077" x2="90580" y2="81967"/>
-                      <a14:foregroundMark x1="90580" y1="81967" x2="36232" y2="34426"/>
-                      <a14:foregroundMark x1="44928" y1="40437" x2="73188" y2="63934"/>
-                      <a14:foregroundMark x1="74275" y1="48087" x2="74275" y2="48087"/>
-                      <a14:foregroundMark x1="65217" y1="77049" x2="65217" y2="77049"/>
-                      <a14:foregroundMark x1="44928" y1="44262" x2="11957" y2="15301"/>
-                      <a14:foregroundMark x1="11957" y1="15301" x2="8333" y2="14208"/>
-                      <a14:foregroundMark x1="7971" y1="13661" x2="25000" y2="25683"/>
-                      <a14:foregroundMark x1="25000" y1="25683" x2="39493" y2="34973"/>
-                      <a14:foregroundMark x1="93841" y1="79235" x2="92391" y2="83607"/>
-                      <a14:foregroundMark x1="94928" y1="75956" x2="90942" y2="72678"/>
-                      <a14:foregroundMark x1="7609" y1="13115" x2="25725" y2="26776"/>
-                      <a14:foregroundMark x1="25725" y1="26776" x2="61594" y2="52459"/>
-                      <a14:foregroundMark x1="61594" y1="52459" x2="9058" y2="15301"/>
-                      <a14:foregroundMark x1="69203" y1="71585" x2="3986" y2="10383"/>
-                    </a14:backgroundRemoval>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="19975295">
-          <a:off x="6312308" y="2768758"/>
-          <a:ext cx="2629460" cy="1691467"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>316109</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>185099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2763474</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1644919</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="그림 49" descr="중세 전투 창 | 프리미엄 벡터">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E1DBD55-6740-46B2-B5B1-D5214B4A00EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId6">
-                  <a14:imgEffect>
-                    <a14:backgroundRemoval t="9843" b="98819" l="12121" r="79293">
-                      <a14:foregroundMark x1="81818" y1="5906" x2="74829" y2="14347"/>
-                      <a14:foregroundMark x1="74747" y1="12992" x2="74006" y2="14129"/>
-                      <a14:foregroundMark x1="57628" y1="39918" x2="38453" y2="64527"/>
-                      <a14:backgroundMark x1="63131" y1="21260" x2="33838" y2="55906"/>
-                      <a14:backgroundMark x1="33838" y1="55906" x2="11616" y2="96457"/>
-                      <a14:backgroundMark x1="11111" y1="97244" x2="17172" y2="85827"/>
-                      <a14:backgroundMark x1="65657" y1="20866" x2="65657" y2="20866"/>
-                      <a14:backgroundMark x1="67677" y1="20866" x2="67677" y2="20866"/>
-                      <a14:backgroundMark x1="69697" y1="19685" x2="69697" y2="19685"/>
-                      <a14:backgroundMark x1="67172" y1="22047" x2="67172" y2="22047"/>
-                      <a14:backgroundMark x1="67172" y1="23228" x2="67172" y2="23228"/>
-                      <a14:backgroundMark x1="67677" y1="22835" x2="67677" y2="22835"/>
-                      <a14:backgroundMark x1="68687" y1="23228" x2="68687" y2="23228"/>
-                      <a14:backgroundMark x1="68182" y1="21654" x2="68182" y2="21654"/>
-                      <a14:backgroundMark x1="11616" y1="98031" x2="13636" y2="98819"/>
-                      <a14:backgroundMark x1="70707" y1="14173" x2="72727" y2="13386"/>
-                      <a14:backgroundMark x1="71212" y1="13386" x2="65657" y2="25591"/>
-                    </a14:backgroundRemoval>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="9507" r="12656"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="14418314">
-          <a:off x="6839207" y="4139501"/>
-          <a:ext cx="1459820" cy="2447365"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>388133</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>610076</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2786190</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1273148</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="그림 50" descr="How to Draw a Bow and Arrow ❤ liked on Polyvore featuring weapon">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{668D19E7-3056-441E-9429-8F819D908CA6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId11">
-                  <a14:imgEffect>
-                    <a14:backgroundRemoval t="1596" b="96986" l="26596" r="51950">
-                      <a14:foregroundMark x1="50355" y1="96454" x2="27660" y2="64894"/>
-                      <a14:foregroundMark x1="27660" y1="64894" x2="26596" y2="44326"/>
-                      <a14:foregroundMark x1="26596" y1="44326" x2="29433" y2="64362"/>
-                      <a14:foregroundMark x1="29433" y1="64362" x2="32092" y2="70390"/>
-                      <a14:foregroundMark x1="50000" y1="94149" x2="49113" y2="73227"/>
-                      <a14:foregroundMark x1="49113" y1="73227" x2="50709" y2="13475"/>
-                      <a14:foregroundMark x1="50709" y1="13475" x2="35816" y2="20745"/>
-                      <a14:foregroundMark x1="46454" y1="7624" x2="49291" y2="1950"/>
-                      <a14:foregroundMark x1="50177" y1="96986" x2="43972" y2="87589"/>
-                      <a14:foregroundMark x1="50887" y1="90248" x2="50887" y2="70745"/>
-                      <a14:foregroundMark x1="50887" y1="70745" x2="49823" y2="61348"/>
-                      <a14:foregroundMark x1="49291" y1="85106" x2="49291" y2="68972"/>
-                      <a14:foregroundMark x1="51064" y1="95213" x2="50887" y2="87234"/>
-                      <a14:foregroundMark x1="49645" y1="91667" x2="43972" y2="90957"/>
-                      <a14:foregroundMark x1="49113" y1="91312" x2="49823" y2="64184"/>
-                      <a14:foregroundMark x1="49823" y1="64184" x2="49645" y2="52837"/>
-                      <a14:foregroundMark x1="49823" y1="62766" x2="49113" y2="47872"/>
-                      <a14:foregroundMark x1="50355" y1="62766" x2="50355" y2="45213"/>
-                      <a14:foregroundMark x1="51064" y1="56206" x2="50000" y2="38298"/>
-                      <a14:foregroundMark x1="49823" y1="44681" x2="49113" y2="26950"/>
-                      <a14:foregroundMark x1="51064" y1="34574" x2="50355" y2="19858"/>
-                      <a14:foregroundMark x1="51064" y1="25709" x2="50177" y2="11525"/>
-                      <a14:foregroundMark x1="50532" y1="24113" x2="48936" y2="11879"/>
-                      <a14:foregroundMark x1="50000" y1="28723" x2="49113" y2="13475"/>
-                      <a14:foregroundMark x1="50887" y1="12234" x2="50709" y2="1596"/>
-                      <a14:foregroundMark x1="51596" y1="18617" x2="51950" y2="6560"/>
-                    </a14:backgroundRemoval>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="25759" t="1404" r="47710" b="2511"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="5400000">
-          <a:off x="7284951" y="5943358"/>
-          <a:ext cx="663072" cy="2398057"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1298865</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>138545</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>2894302</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1642497</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="그림 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F0C048-2A31-4BB0-8A04-23BD0A52D7C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6B136D-F5F5-4064-A334-CF17B08622C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6601,10 +7289,16 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId21">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6614,8 +7308,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20282190" y="2815070"/>
-          <a:ext cx="1595437" cy="1503952"/>
+          <a:off x="17127681" y="8281218"/>
+          <a:ext cx="2043546" cy="2092789"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6627,122 +7321,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>2637457</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>125558</xdr:rowOff>
+      <xdr:colOff>3429002</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>658091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>4223417</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1511012</xdr:rowOff>
+      <xdr:colOff>3740728</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2505941</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="그림 53">
+        <xdr:cNvPr id="81" name="그림 80" descr="마법진 레드 | 무료 클립 아트 | illustAC">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4492570B-65E3-41E9-989D-4BD62B7C0AEA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21620782" y="4573733"/>
-          <a:ext cx="1585960" cy="1385454"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>2814206</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>155864</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>4366039</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1654256</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="그림 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A81BA1E0-6CD2-46FD-95F0-A57E01BDD823}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21797531" y="6356639"/>
-          <a:ext cx="1551833" cy="1498392"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>207818</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>467590</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1969111</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2147454</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="그림 55" descr="마녀 모자, 바람 빠진 타이어, 아이콘, halloween, 와..., 무서운, 마법사, 모자, 표시, 벡터, 도표, a, 다채로운,  고체, 패턴, 통하고 있는, a, 백색 배경, eps, 10. 클립아트 | k51190835 | Fotosearch">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FA7B7A8-A2AF-44D4-96F9-233774A8C978}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23CF7E4C-E179-4239-9F42-2918D5A17035}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6751,478 +7345,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect b="8447"/>
+        <a:srcRect l="14041" r="10845"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="23705993" y="8478115"/>
-          <a:ext cx="1761293" cy="1679864"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>2199410</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>346363</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>3082637</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2508268</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="그림 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0AB4B30-B01F-4E39-9CB5-38DA375C9F2C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-        <a:srcRect r="58226"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="25697585" y="8356888"/>
-          <a:ext cx="883227" cy="2161905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>839932</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>155864</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>2391765</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1654256</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="그림 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE5ABB8E-3557-452D-920D-571427B7BE8C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="24338107" y="6356639"/>
-          <a:ext cx="1551833" cy="1498392"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>663183</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>125558</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>2249143</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1511012</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="그림 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E289FC-3AB1-42FC-A1F5-9CC7C583C00C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="24161358" y="4573733"/>
-          <a:ext cx="1585960" cy="1385454"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>727363</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>138545</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>2322800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1642497</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="그림 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4540BCF3-AC4A-4EB1-8C43-CB1C9AFA2D40}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="24225538" y="2815070"/>
-          <a:ext cx="1595437" cy="1503952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>160246</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>185099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2607611</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1644919</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="그림 60" descr="중세 전투 창 | 프리미엄 벡터">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9663691D-0743-4136-BB08-F46285B62CDB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId6">
-                  <a14:imgEffect>
-                    <a14:backgroundRemoval t="9843" b="98819" l="12121" r="79293">
-                      <a14:foregroundMark x1="81818" y1="5906" x2="74829" y2="14347"/>
-                      <a14:foregroundMark x1="74747" y1="12992" x2="74006" y2="14129"/>
-                      <a14:foregroundMark x1="57628" y1="39918" x2="38453" y2="64527"/>
-                      <a14:backgroundMark x1="63131" y1="21260" x2="33838" y2="55906"/>
-                      <a14:backgroundMark x1="33838" y1="55906" x2="11616" y2="96457"/>
-                      <a14:backgroundMark x1="11111" y1="97244" x2="17172" y2="85827"/>
-                      <a14:backgroundMark x1="65657" y1="20866" x2="65657" y2="20866"/>
-                      <a14:backgroundMark x1="67677" y1="20866" x2="67677" y2="20866"/>
-                      <a14:backgroundMark x1="69697" y1="19685" x2="69697" y2="19685"/>
-                      <a14:backgroundMark x1="67172" y1="22047" x2="67172" y2="22047"/>
-                      <a14:backgroundMark x1="67172" y1="23228" x2="67172" y2="23228"/>
-                      <a14:backgroundMark x1="67677" y1="22835" x2="67677" y2="22835"/>
-                      <a14:backgroundMark x1="68687" y1="23228" x2="68687" y2="23228"/>
-                      <a14:backgroundMark x1="68182" y1="21654" x2="68182" y2="21654"/>
-                      <a14:backgroundMark x1="11616" y1="98031" x2="13636" y2="98819"/>
-                      <a14:backgroundMark x1="70707" y1="14173" x2="72727" y2="13386"/>
-                      <a14:backgroundMark x1="71212" y1="13386" x2="65657" y2="25591"/>
-                    </a14:backgroundRemoval>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="9507" r="12656"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="14418314">
-          <a:off x="12769819" y="4139501"/>
-          <a:ext cx="1459820" cy="2447365"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>49178</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>832128</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2770909</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1168975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="그림 61" descr="How to Draw a Bow and Arrow ❤ liked on Polyvore featuring weapon">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B645A721-2075-4EC1-8E33-F8C2D1BBC4CD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="62471" t="1092" r="26731" b="11714"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="16200000">
-          <a:off x="13357420" y="5840461"/>
-          <a:ext cx="336847" cy="2721731"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>761999</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>2753590</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>2316307</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="그림 62" descr="영화 다음은 드라마다! 어쌔신 크리드 TV 시리즈로 - 중앙일보">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F63A2E7C-7AB2-4C6D-8B10-F76FF129672C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="14724" r="11651"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="24260174" y="400050"/>
-          <a:ext cx="1991591" cy="2125807"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>887089</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2742473</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1752031</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="그림 63" descr="Pin on Magic Staffs, Wands &amp; Robes">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9783C84D-818B-4D0C-B1BB-79B76FF04AFA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="15467212">
-          <a:off x="6968091" y="7958848"/>
-          <a:ext cx="864942" cy="2742473"/>
+          <a:off x="26598565" y="8682904"/>
+          <a:ext cx="311726" cy="1847850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7243,23 +7379,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>2025531</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>852922</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2414</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1731</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>4421345</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2238376</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2414</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1731</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="69" name="그룹 68">
+        <xdr:cNvPr id="38" name="그룹 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A373932E-9297-4BD0-8573-85D22259860A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC55ED44-F7A5-4A63-9C43-E9C57BB44E06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7267,64 +7403,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20980281" y="8877735"/>
-          <a:ext cx="2395814" cy="1385454"/>
-          <a:chOff x="21023576" y="8853922"/>
-          <a:chExt cx="2395814" cy="1385454"/>
+          <a:off x="1764539" y="2692544"/>
+          <a:ext cx="0" cy="0"/>
+          <a:chOff x="20097566" y="571499"/>
+          <a:chExt cx="1379144" cy="1503952"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="70" name="그림 69" descr="Pin on Magic Staffs, Wands &amp; Robes">
+          <xdr:cNvPr id="39" name="그림 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3205A2EF-0616-4C7A-A8FF-CF400F6E7621}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm rot="15700966">
-            <a:off x="21895573" y="8548881"/>
-            <a:ext cx="651819" cy="2395814"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="71" name="그림 70">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3947E84C-CAF4-4161-8901-7D740537EECC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF822C2A-E8EA-4907-92BC-87E1CFBBC03C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7333,76 +7423,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect l="44449"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="22132636" y="8853922"/>
-            <a:ext cx="881007" cy="1385454"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1497839</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>363681</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>2876983</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1867633</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="73" name="그룹 72">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61945569-BC7B-4C05-8295-ACD989A23402}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="20452589" y="577994"/>
-          <a:ext cx="1379144" cy="1503952"/>
-          <a:chOff x="20097566" y="571499"/>
-          <a:chExt cx="1379144" cy="1503952"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="74" name="그림 73">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{956D5929-5ABC-4474-91AE-F6323593E752}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7424,10 +7445,10 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="75" name="그림 74" descr="대거(dagger) - 무기사전 - 위키독">
+          <xdr:cNvPr id="40" name="그림 39" descr="대거(dagger) - 무기사전 - 위키독">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C118DF58-4277-4D5A-98F5-A0A652BEFCA3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D449A59-5CF9-4060-ACE7-E683824285D9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7436,11 +7457,11 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
             <a:extLst>
               <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
                 <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId4">
+                  <a14:imgLayer r:embed="rId5">
                     <a14:imgEffect>
                       <a14:backgroundRemoval t="35052" b="64433" l="16988" r="79151">
                         <a14:foregroundMark x1="60564" y1="47321" x2="60232" y2="53093"/>
@@ -7504,192 +7525,306 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>620678</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>207818</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>467590</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1761293" cy="1679864"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="그림 40" descr="마녀 모자, 바람 빠진 타이어, 아이콘, halloween, 와..., 무서운, 마법사, 모자, 표시, 벡터, 도표, a, 다채로운,  고체, 패턴, 통하고 있는, a, 백색 배경, eps, 10. 클립아트 | k51190835 | Fotosearch">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5AF5B97-EA61-42F7-A8D6-694C265C3F7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="8447"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="26068193" y="8492403"/>
+          <a:ext cx="1761293" cy="1679864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2199410</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>346363</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="883227" cy="2161905"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="그림 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8CA560A-86A9-43F2-B5CD-C07895372EE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:srcRect r="58226"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28059785" y="8371176"/>
+          <a:ext cx="883227" cy="2161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>839932</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>657865</xdr:rowOff>
+      <xdr:rowOff>155864</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1678975</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1152524</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="77" name="그룹 76">
+    <xdr:ext cx="1551833" cy="1498392"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="그림 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{893AFC31-3A50-4E16-B26C-7169C0808291}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{159EEF65-7F60-4B1B-8F3C-D71F1BD81DA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="19575428" y="6872928"/>
-          <a:ext cx="1058297" cy="494659"/>
-          <a:chOff x="19604003" y="7068190"/>
-          <a:chExt cx="1058297" cy="494659"/>
+          <a:off x="26700307" y="6370927"/>
+          <a:ext cx="1551833" cy="1498392"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="52" name="그림 51" descr="How to Draw a Bow and Arrow ❤ liked on Polyvore featuring weapon">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C89392F-53D8-451B-AC61-9C1FA673C76C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect l="62471" t="1092" r="26731" b="11714"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm rot="16200000">
-            <a:off x="20067663" y="6968212"/>
-            <a:ext cx="130977" cy="1058297"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="72" name="그림 71" descr="How to Draw a Bow and Arrow ❤ liked on Polyvore featuring weapon">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B061D6F9-964F-4A2B-89D9-079E7758CB03}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect l="62471" t="1092" r="26731" b="11714"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm rot="16200000">
-            <a:off x="20067663" y="6786371"/>
-            <a:ext cx="130977" cy="1058297"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="76" name="그림 75" descr="How to Draw a Bow and Arrow ❤ liked on Polyvore featuring weapon">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58153561-6102-4E46-9C25-14160D40BAA5}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect l="62471" t="1092" r="26731" b="11714"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm rot="16200000">
-            <a:off x="20067663" y="6604530"/>
-            <a:ext cx="130977" cy="1058297"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>663183</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>125558</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1585960" cy="1385454"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="그림 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7669E49C-DF5C-4A53-AFF3-B8100BA4CADD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26523558" y="4578496"/>
+          <a:ext cx="1585960" cy="1385454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>727363</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1595437" cy="1503952"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="그림 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8282C3A-E1F2-4A69-9FA1-BE67C70B0D38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26587738" y="2829358"/>
+          <a:ext cx="1595437" cy="1503952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1991591" cy="2125807"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="그림 64" descr="영화 다음은 드라마다! 어쌔신 크리드 TV 시리즈로 - 중앙일보">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{811ECCEE-A093-48FD-BA31-10C572983BC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="14724" r="11651"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="26622374" y="404813"/>
+          <a:ext cx="1991591" cy="2125807"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1922319</xdr:colOff>
+      <xdr:colOff>1679879</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>519546</xdr:rowOff>
+      <xdr:rowOff>268845</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2568288</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>415603</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2195946</xdr:rowOff>
+      <xdr:rowOff>2522384</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="그림 77" descr="파이어볼 움켜쥔 신의 주먹? 환상입니다, 거대한 불꽃 구름입니다">
+        <xdr:cNvPr id="66" name="그림 65" descr="파이어볼 움켜쥔 신의 주먹? 환상입니다, 거대한 불꽃 구름입니다">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97B4B190-0FA1-4249-9805-EACDD0ACE751}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53F52094-77A1-463C-9B20-5AC6EBC28F24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7698,20 +7833,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId22">
+                <a14:imgLayer r:embed="rId19">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="5114" b="89773" l="9790" r="89860">
-                      <a14:foregroundMark x1="87063" y1="3977" x2="89510" y2="2273"/>
-                      <a14:foregroundMark x1="77366" y1="10731" x2="86361" y2="4466"/>
-                      <a14:foregroundMark x1="67483" y1="17614" x2="77053" y2="10949"/>
-                      <a14:foregroundMark x1="86361" y1="6438" x2="74476" y2="22159"/>
-                      <a14:foregroundMark x1="89510" y1="2273" x2="88222" y2="3977"/>
-                      <a14:foregroundMark x1="74476" y1="22159" x2="86027" y2="9062"/>
-                      <a14:foregroundMark x1="86526" y1="7386" x2="78322" y2="13636"/>
                       <a14:backgroundMark x1="62937" y1="85795" x2="75524" y2="50568"/>
                       <a14:backgroundMark x1="75524" y1="50568" x2="60490" y2="73864"/>
                       <a14:backgroundMark x1="60490" y1="73864" x2="74476" y2="49432"/>
@@ -7729,6 +7857,24 @@
                       <a14:backgroundMark x1="92308" y1="3977" x2="92308" y2="7386"/>
                       <a14:backgroundMark x1="85315" y1="20455" x2="87762" y2="14205"/>
                       <a14:backgroundMark x1="88462" y1="14205" x2="88462" y2="10227"/>
+                      <a14:backgroundMark x1="61888" y1="10795" x2="90210" y2="20455"/>
+                      <a14:backgroundMark x1="90210" y1="20455" x2="76573" y2="6250"/>
+                      <a14:backgroundMark x1="76573" y1="6250" x2="90210" y2="9091"/>
+                      <a14:backgroundMark x1="90210" y1="9091" x2="76923" y2="10227"/>
+                      <a14:backgroundMark x1="76923" y1="10227" x2="92308" y2="10795"/>
+                      <a14:backgroundMark x1="92308" y1="10795" x2="77972" y2="1136"/>
+                      <a14:backgroundMark x1="77972" y1="1136" x2="83566" y2="2841"/>
+                      <a14:backgroundMark x1="52797" y1="19318" x2="76923" y2="10795"/>
+                      <a14:backgroundMark x1="76923" y1="10795" x2="87413" y2="17045"/>
+                      <a14:backgroundMark x1="87413" y1="17045" x2="84965" y2="36364"/>
+                      <a14:backgroundMark x1="84965" y1="36364" x2="83566" y2="13636"/>
+                      <a14:backgroundMark x1="83566" y1="13636" x2="78322" y2="36364"/>
+                      <a14:backgroundMark x1="78322" y1="36364" x2="80420" y2="6250"/>
+                      <a14:backgroundMark x1="80420" y1="6250" x2="79021" y2="34659"/>
+                      <a14:backgroundMark x1="79021" y1="34659" x2="79720" y2="11932"/>
+                      <a14:backgroundMark x1="79720" y1="11932" x2="78671" y2="34091"/>
+                      <a14:backgroundMark x1="78671" y1="34091" x2="72378" y2="18750"/>
+                      <a14:backgroundMark x1="72378" y1="18750" x2="72378" y2="18750"/>
                     </a14:backgroundRemoval>
                   </a14:imgEffect>
                 </a14:imgLayer>
@@ -7746,218 +7892,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="2359774">
-          <a:off x="11984183" y="8520546"/>
-          <a:ext cx="2724150" cy="1676400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1662547</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>554181</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>2412425</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2230581</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="그림 78" descr="파이어볼 움켜쥔 신의 주먹? 환상입니다, 거대한 불꽃 구름입니다">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89B98E24-D077-4D49-8E2B-221340D079CE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId22">
-                  <a14:imgEffect>
-                    <a14:backgroundRemoval t="5114" b="89773" l="9790" r="89860">
-                      <a14:foregroundMark x1="87063" y1="3977" x2="89510" y2="2273"/>
-                      <a14:foregroundMark x1="77366" y1="10731" x2="86361" y2="4466"/>
-                      <a14:foregroundMark x1="67483" y1="17614" x2="77053" y2="10949"/>
-                      <a14:foregroundMark x1="86361" y1="6438" x2="74476" y2="22159"/>
-                      <a14:foregroundMark x1="89510" y1="2273" x2="88222" y2="3977"/>
-                      <a14:foregroundMark x1="74476" y1="22159" x2="86027" y2="9062"/>
-                      <a14:foregroundMark x1="86526" y1="7386" x2="78322" y2="13636"/>
-                      <a14:backgroundMark x1="62937" y1="85795" x2="75524" y2="50568"/>
-                      <a14:backgroundMark x1="75524" y1="50568" x2="60490" y2="73864"/>
-                      <a14:backgroundMark x1="60490" y1="73864" x2="74476" y2="49432"/>
-                      <a14:backgroundMark x1="74476" y1="49432" x2="56294" y2="74432"/>
-                      <a14:backgroundMark x1="56294" y1="74432" x2="74476" y2="41477"/>
-                      <a14:backgroundMark x1="74476" y1="41477" x2="61538" y2="78977"/>
-                      <a14:backgroundMark x1="61538" y1="78977" x2="75175" y2="54545"/>
-                      <a14:backgroundMark x1="75175" y1="54545" x2="65385" y2="81818"/>
-                      <a14:backgroundMark x1="65385" y1="81818" x2="77972" y2="54545"/>
-                      <a14:backgroundMark x1="77972" y1="54545" x2="68531" y2="81250"/>
-                      <a14:backgroundMark x1="68531" y1="81250" x2="81469" y2="47727"/>
-                      <a14:backgroundMark x1="57343" y1="12500" x2="75524" y2="3409"/>
-                      <a14:backgroundMark x1="75524" y1="3409" x2="73776" y2="0"/>
-                      <a14:backgroundMark x1="79371" y1="25000" x2="92308" y2="3977"/>
-                      <a14:backgroundMark x1="92308" y1="3977" x2="92308" y2="7386"/>
-                      <a14:backgroundMark x1="85315" y1="20455" x2="87762" y2="14205"/>
-                      <a14:backgroundMark x1="88462" y1="14205" x2="88462" y2="10227"/>
-                    </a14:backgroundRemoval>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="2359774">
-          <a:off x="18686320" y="8555181"/>
-          <a:ext cx="2724150" cy="1676400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>103908</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>280218</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>173182</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2373007</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="그림 79">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6B136D-F5F5-4064-A334-CF17B08622C8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId24">
-                  <a14:imgEffect>
-                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17127681" y="8281218"/>
-          <a:ext cx="2043546" cy="2092789"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>2667001</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>658091</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>2978727</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2505941</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="그림 80" descr="마법진 레드 | 무료 클립 아트 | illustAC">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23CF7E4C-E179-4239-9F42-2918D5A17035}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="14041" r="10845"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21665046" y="8659091"/>
-          <a:ext cx="311726" cy="1847850"/>
+          <a:off x="15895942" y="8293658"/>
+          <a:ext cx="3664911" cy="2253539"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8308,7 +8244,7 @@
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -8323,7 +8259,7 @@
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -8351,7 +8287,7 @@
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -8367,7 +8303,7 @@
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
       <c r="C10" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -8394,7 +8330,7 @@
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -8422,7 +8358,7 @@
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -8435,16 +8371,16 @@
       <c r="K14" s="6"/>
       <c r="L14" s="10"/>
       <c r="N14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="Q14" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="9"/>
       <c r="C15" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -8459,7 +8395,7 @@
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
       <c r="C16" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -8474,7 +8410,7 @@
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
       <c r="C17" s="16" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -8490,7 +8426,7 @@
       <c r="B18" s="11"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -8534,301 +8470,423 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42B52B5-8BD3-4209-B587-ED8D0CB3DE5A}">
-  <dimension ref="A1:P6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD2B524-FBA0-41D2-80D1-8A3ADF03F13A}">
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.875" customWidth="1"/>
-    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.375" customWidth="1"/>
-    <col min="11" max="11" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26" customWidth="1"/>
-    <col min="13" max="13" width="59.25" customWidth="1"/>
-    <col min="14" max="14" width="43.25" customWidth="1"/>
-    <col min="15" max="15" width="30.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
+    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2">
+        <f>'3레벨 유닛 테이블'!E2</f>
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="2">
+        <f>'3레벨 유닛 테이블'!F2</f>
+        <v>40</v>
+      </c>
+      <c r="D2" s="2">
+        <f>'3레벨 유닛 테이블'!G2</f>
+        <v>5</v>
+      </c>
+      <c r="E2" s="2">
+        <f>'3레벨 유닛 테이블'!H2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <f>'3레벨 유닛 테이블'!J2</f>
+        <v>75</v>
+      </c>
+      <c r="G2" s="2">
+        <f>'3레벨 유닛 테이블'!K2</f>
+        <v>15</v>
+      </c>
+      <c r="H2" s="2">
+        <f>'3레벨 유닛 테이블'!L2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <f>'3레벨 유닛 테이블'!M2</f>
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="2">
+        <f>'3레벨 유닛 테이블'!N2</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2">
+        <f>'3레벨 유닛 테이블'!E3</f>
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="2">
+        <f>'3레벨 유닛 테이블'!F3</f>
+        <v>50</v>
+      </c>
+      <c r="D3" s="2">
+        <f>'3레벨 유닛 테이블'!G3</f>
+        <v>6</v>
+      </c>
+      <c r="E3" s="2">
+        <f>'3레벨 유닛 테이블'!H3</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <f>'3레벨 유닛 테이블'!J3</f>
+        <v>125</v>
+      </c>
+      <c r="G3" s="2">
+        <f>'3레벨 유닛 테이블'!K3</f>
+        <v>30</v>
+      </c>
+      <c r="H3" s="2">
+        <f>'3레벨 유닛 테이블'!L3</f>
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="2">
+        <f>'3레벨 유닛 테이블'!M3</f>
+        <v>1.5</v>
+      </c>
+      <c r="J3" s="2">
+        <f>'3레벨 유닛 테이블'!N3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="2">
+        <f>'3레벨 유닛 테이블'!E4</f>
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <f>'3레벨 유닛 테이블'!F4</f>
+        <v>60</v>
+      </c>
+      <c r="D4" s="2">
+        <f>'3레벨 유닛 테이블'!G4</f>
+        <v>7</v>
+      </c>
+      <c r="E4" s="2">
+        <f>'3레벨 유닛 테이블'!H4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <f>'3레벨 유닛 테이블'!J4</f>
+        <v>90</v>
+      </c>
+      <c r="G4" s="2">
+        <f>'3레벨 유닛 테이블'!K4</f>
+        <v>50</v>
+      </c>
+      <c r="H4" s="2">
+        <f>'3레벨 유닛 테이블'!L4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <f>'3레벨 유닛 테이블'!M4</f>
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J4" s="2">
+        <f>'3레벨 유닛 테이블'!N4</f>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="2">
+        <f>'3레벨 유닛 테이블'!E5</f>
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <f>'3레벨 유닛 테이블'!F5</f>
+        <v>70</v>
+      </c>
+      <c r="D5" s="2">
+        <f>'3레벨 유닛 테이블'!G5</f>
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <f>'3레벨 유닛 테이블'!H5</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <f>'3레벨 유닛 테이블'!J5</f>
+        <v>75</v>
+      </c>
+      <c r="G5" s="2">
+        <f>'3레벨 유닛 테이블'!K5</f>
+        <v>15</v>
+      </c>
+      <c r="H5" s="2">
+        <f>'3레벨 유닛 테이블'!L5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <f>'3레벨 유닛 테이블'!M5</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <f>'3레벨 유닛 테이블'!N5</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2">
+        <f>'3레벨 유닛 테이블'!E6</f>
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <f>'3레벨 유닛 테이블'!F6</f>
+        <v>80</v>
+      </c>
+      <c r="D6" s="2">
+        <f>'3레벨 유닛 테이블'!G6</f>
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="194.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <f t="shared" ref="C2:C6" si="0">VLOOKUP(B2, 카테고리_유닛타입, 2,FALSE)</f>
-        <v>근거리</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="O2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E6" s="2">
+        <f>'3레벨 유닛 테이블'!H6</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <f>'3레벨 유닛 테이블'!J6</f>
         <v>75</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="138" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="G6" s="2">
+        <f>'3레벨 유닛 테이블'!K6</f>
+        <v>45</v>
+      </c>
+      <c r="H6" s="2">
+        <f>'3레벨 유닛 테이블'!L6</f>
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>중거리</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="I6" s="2">
+        <f>'3레벨 유닛 테이블'!M6</f>
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>원거리</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="220.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>원거리</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="J6" s="2">
+        <f>'3레벨 유닛 테이블'!N6</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8906,8 +8964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D3F61F-0347-41D5-91A8-0D2FBCD00291}">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8925,12 +8983,12 @@
     <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -8968,7 +9026,7 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>7</v>
@@ -8980,22 +9038,22 @@
         <v>64</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -9204,7 +9262,7 @@
         <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -9362,8 +9420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937CA577-D084-4477-A6FD-EDAD9D0A7061}">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9380,13 +9438,13 @@
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -9424,7 +9482,7 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>7</v>
@@ -9433,25 +9491,25 @@
         <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -9660,7 +9718,7 @@
         <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -9807,8 +9865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD66771-CF09-47A9-9913-EE7E810D654C}">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9824,13 +9882,13 @@
     <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -9868,7 +9926,7 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>7</v>
@@ -9877,25 +9935,25 @@
         <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -10104,7 +10162,7 @@
         <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -10248,10 +10306,784 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9E97C7-0D4E-464E-B00F-2E8287F827CA}">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.25" customWidth="1"/>
+    <col min="4" max="4" width="37.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.875" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.375" customWidth="1"/>
+    <col min="11" max="11" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="59.25" customWidth="1"/>
+    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="194.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="220.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="18"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5EEE4B-252D-4CFB-AFF8-E94DF36C06BE}">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.25" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.875" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.375" customWidth="1"/>
+    <col min="11" max="11" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26" customWidth="1"/>
+    <col min="13" max="13" width="59.25" customWidth="1"/>
+    <col min="14" max="14" width="23.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="194.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="220.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L6" s="18"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42B52B5-8BD3-4209-B587-ED8D0CB3DE5A}">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.25" customWidth="1"/>
+    <col min="4" max="4" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.875" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.375" customWidth="1"/>
+    <col min="11" max="11" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26" customWidth="1"/>
+    <col min="13" max="13" width="68.625" customWidth="1"/>
+    <col min="14" max="14" width="14.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="194.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="220.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8C7ABA-8253-488C-B6E7-31B6C735BE66}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -10292,7 +11124,7 @@
         <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>62</v>
@@ -10426,7 +11258,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B5" s="2">
         <f>'유닛 테이블'!E5</f>
@@ -10668,7 +11500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8CF9CA-9C63-4BA8-9530-F3FA06453166}">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -10713,7 +11545,7 @@
         <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>62</v>
@@ -10847,7 +11679,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B5" s="2">
         <f>'2레벨 유닛 테이블'!E5</f>
@@ -11087,1029 +11919,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD2B524-FBA0-41D2-80D1-8A3ADF03F13A}">
-  <dimension ref="A1:J19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.125" customWidth="1"/>
-    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="2">
-        <f>'3레벨 유닛 테이블'!E2</f>
-        <v>0.5</v>
-      </c>
-      <c r="C2" s="2">
-        <f>'3레벨 유닛 테이블'!F2</f>
-        <v>40</v>
-      </c>
-      <c r="D2" s="2">
-        <f>'3레벨 유닛 테이블'!G2</f>
-        <v>5</v>
-      </c>
-      <c r="E2" s="2">
-        <f>'3레벨 유닛 테이블'!H2</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <f>'3레벨 유닛 테이블'!J2</f>
-        <v>75</v>
-      </c>
-      <c r="G2" s="2">
-        <f>'3레벨 유닛 테이블'!K2</f>
-        <v>15</v>
-      </c>
-      <c r="H2" s="2">
-        <f>'3레벨 유닛 테이블'!L2</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <f>'3레벨 유닛 테이블'!M2</f>
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="2">
-        <f>'3레벨 유닛 테이블'!N2</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="2">
-        <f>'3레벨 유닛 테이블'!E3</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <f>'3레벨 유닛 테이블'!F3</f>
-        <v>50</v>
-      </c>
-      <c r="D3" s="2">
-        <f>'3레벨 유닛 테이블'!G3</f>
-        <v>6</v>
-      </c>
-      <c r="E3" s="2">
-        <f>'3레벨 유닛 테이블'!H3</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <f>'3레벨 유닛 테이블'!J3</f>
-        <v>125</v>
-      </c>
-      <c r="G3" s="2">
-        <f>'3레벨 유닛 테이블'!K3</f>
-        <v>30</v>
-      </c>
-      <c r="H3" s="2">
-        <f>'3레벨 유닛 테이블'!L3</f>
-        <v>0.5</v>
-      </c>
-      <c r="I3" s="2">
-        <f>'3레벨 유닛 테이블'!M3</f>
-        <v>1.5</v>
-      </c>
-      <c r="J3" s="2">
-        <f>'3레벨 유닛 테이블'!N3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="2">
-        <f>'3레벨 유닛 테이블'!E4</f>
-        <v>3</v>
-      </c>
-      <c r="C4" s="2">
-        <f>'3레벨 유닛 테이블'!F4</f>
-        <v>60</v>
-      </c>
-      <c r="D4" s="2">
-        <f>'3레벨 유닛 테이블'!G4</f>
-        <v>7</v>
-      </c>
-      <c r="E4" s="2">
-        <f>'3레벨 유닛 테이블'!H4</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <f>'3레벨 유닛 테이블'!J4</f>
-        <v>90</v>
-      </c>
-      <c r="G4" s="2">
-        <f>'3레벨 유닛 테이블'!K4</f>
-        <v>50</v>
-      </c>
-      <c r="H4" s="2">
-        <f>'3레벨 유닛 테이블'!L4</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <f>'3레벨 유닛 테이블'!M4</f>
-        <v>2</v>
-      </c>
-      <c r="J4" s="2">
-        <f>'3레벨 유닛 테이블'!N4</f>
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="2">
-        <f>'3레벨 유닛 테이블'!E5</f>
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
-        <f>'3레벨 유닛 테이블'!F5</f>
-        <v>70</v>
-      </c>
-      <c r="D5" s="2">
-        <f>'3레벨 유닛 테이블'!G5</f>
-        <v>8</v>
-      </c>
-      <c r="E5" s="2">
-        <f>'3레벨 유닛 테이블'!H5</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <f>'3레벨 유닛 테이블'!J5</f>
-        <v>75</v>
-      </c>
-      <c r="G5" s="2">
-        <f>'3레벨 유닛 테이블'!K5</f>
-        <v>15</v>
-      </c>
-      <c r="H5" s="2">
-        <f>'3레벨 유닛 테이블'!L5</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <f>'3레벨 유닛 테이블'!M5</f>
-        <v>1</v>
-      </c>
-      <c r="J5" s="2">
-        <f>'3레벨 유닛 테이블'!N5</f>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="2">
-        <f>'3레벨 유닛 테이블'!E6</f>
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
-        <f>'3레벨 유닛 테이블'!F6</f>
-        <v>80</v>
-      </c>
-      <c r="D6" s="2">
-        <f>'3레벨 유닛 테이블'!G6</f>
-        <v>9</v>
-      </c>
-      <c r="E6" s="2">
-        <f>'3레벨 유닛 테이블'!H6</f>
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <f>'3레벨 유닛 테이블'!J6</f>
-        <v>75</v>
-      </c>
-      <c r="G6" s="2">
-        <f>'3레벨 유닛 테이블'!K6</f>
-        <v>45</v>
-      </c>
-      <c r="H6" s="2">
-        <f>'3레벨 유닛 테이블'!L6</f>
-        <v>1</v>
-      </c>
-      <c r="I6" s="2">
-        <f>'3레벨 유닛 테이블'!M6</f>
-        <v>2</v>
-      </c>
-      <c r="J6" s="2">
-        <f>'3레벨 유닛 테이블'!N6</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9E97C7-0D4E-464E-B00F-2E8287F827CA}">
-  <dimension ref="A1:P6"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.875" customWidth="1"/>
-    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.375" customWidth="1"/>
-    <col min="11" max="11" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="59.25" customWidth="1"/>
-    <col min="14" max="14" width="43.25" customWidth="1"/>
-    <col min="15" max="15" width="37.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="194.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <f t="shared" ref="C2:C6" si="0">VLOOKUP(B2, 카테고리_유닛타입, 2,FALSE)</f>
-        <v>근거리</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="O2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="138" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>중거리</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>원거리</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="220.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>원거리</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5EEE4B-252D-4CFB-AFF8-E94DF36C06BE}">
-  <dimension ref="A1:P6"/>
-  <sheetViews>
-    <sheetView topLeftCell="H4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.875" customWidth="1"/>
-    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.375" customWidth="1"/>
-    <col min="11" max="11" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26" customWidth="1"/>
-    <col min="13" max="13" width="59.25" customWidth="1"/>
-    <col min="14" max="14" width="43.25" customWidth="1"/>
-    <col min="15" max="15" width="33" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="194.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <f t="shared" ref="C2:C6" si="0">VLOOKUP(B2, 카테고리_유닛타입, 2,FALSE)</f>
-        <v>근거리</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="O2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="138" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>중거리</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>원거리</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="220.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>원거리</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/유닛 및 건물/양_유닛.xlsx
+++ b/유닛 및 건물/양_유닛.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home_pc\OneDrive\바탕 화면\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4F176E-F021-4191-B911-C8F1DA1996CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A023332-2679-43DD-8213-03DAEB547400}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="647" activeTab="1" xr2:uid="{5DC44C0D-AFC0-4050-AC88-DAB7CE401A2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="647" firstSheet="3" activeTab="7" xr2:uid="{5DC44C0D-AFC0-4050-AC88-DAB7CE401A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="유닛 생산" sheetId="1" r:id="rId1"/>
@@ -366,14 +366,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>벽이 있는 경우 벽과 1 타일의 거리를 두고 벽 앞에 정지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양 유닛 또는 벽이 공격 받았을 경우 양 유닛이 벽 뒤로 적 유닛을 공격하러감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>벽 뒤로 5타일 이상 벗어난 경우 2의 이동속도로 벽 뒤로 이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -499,6 +491,14 @@
   <si>
     <t>Idle</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽이 있는 경우 벽과 1 타일의 거리를 두고 벽 뒤에 정지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양 유닛이 공격 받았을 경우 해당 유닛 오른쪽으로 이동 및 전투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -941,35 +941,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>37912</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97694</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>32089</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>37912</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1681</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97694</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>59739</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="직선 화살표 연결선 8">
+        <xdr:cNvPr id="61" name="직선 화살표 연결선 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FFC0DAC-63C5-451A-B0D2-473A795D4443}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6557783-9465-4F83-B499-E102B080B667}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="2"/>
-          <a:endCxn id="4" idx="0"/>
+          <a:stCxn id="79" idx="2"/>
+          <a:endCxn id="80" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4838512" y="4643717"/>
-          <a:ext cx="0" cy="387164"/>
+          <a:off x="13086330" y="4811907"/>
+          <a:ext cx="0" cy="443287"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -997,35 +997,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>37911</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>113739</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97694</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>168592</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>37912</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>81803</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97695</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>196243</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="직선 화살표 연결선 9">
+        <xdr:cNvPr id="63" name="직선 화살표 연결선 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3975D5D6-831B-4B6A-89AB-F2B54AFD1431}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{136D480F-5757-4C60-8FC4-13737F9FBADA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="2"/>
-          <a:endCxn id="7" idx="0"/>
+          <a:stCxn id="80" idx="2"/>
+          <a:endCxn id="70" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4838511" y="5562039"/>
-          <a:ext cx="1" cy="387164"/>
+        <a:xfrm>
+          <a:off x="13086330" y="5779683"/>
+          <a:ext cx="1" cy="443287"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1053,35 +1053,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>37910</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>149038</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97695</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>150127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>37911</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>117102</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97696</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>177777</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="연결선: 꺾임 14">
+        <xdr:cNvPr id="64" name="연결선: 꺾임 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07F81DD6-D21B-43CE-A2BF-4642B262BB70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA452FB2-FB0A-497F-9989-261245093407}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="2"/>
-          <a:endCxn id="22" idx="0"/>
+          <a:stCxn id="81" idx="2"/>
+          <a:endCxn id="82" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4644929" y="7467319"/>
-          <a:ext cx="387164" cy="1"/>
+        <a:xfrm rot="5400000">
+          <a:off x="12864688" y="11178315"/>
+          <a:ext cx="443287" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1111,40 +1111,39 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>176303</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>115421</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97694</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>59027</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>37910</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>19611</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97695</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>86678</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="연결선: 꺾임 15">
+        <xdr:cNvPr id="65" name="연결선: 꺾임 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7C39942-3E49-4E5E-9243-E103EFEAA560}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FF86DD7-8DD4-4F1C-AE5D-11F381F58049}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="1"/>
-          <a:endCxn id="35" idx="0"/>
+          <a:stCxn id="83" idx="2"/>
+          <a:endCxn id="81" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="3605303" y="6611471"/>
-          <a:ext cx="1233207" cy="3676090"/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="12864687" y="9424670"/>
+          <a:ext cx="443287" cy="1"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
+        <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -18537"/>
-            <a:gd name="adj2" fmla="val 95024"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="19050">
@@ -1173,36 +1172,36 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>37911</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>16248</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97694</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>75396</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>37912</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>193862</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97695</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>103046</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="직선 화살표 연결선 44">
+        <xdr:cNvPr id="66" name="직선 화살표 연결선 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46AFE575-4F51-41C6-9082-B49F5821042C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B40B9B08-224A-4D07-B00A-91381320A3D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="22" idx="2"/>
-          <a:endCxn id="197" idx="0"/>
+          <a:stCxn id="82" idx="2"/>
+          <a:endCxn id="85" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4838511" y="8188698"/>
-          <a:ext cx="1" cy="387164"/>
+        <a:xfrm>
+          <a:off x="13086330" y="11921032"/>
+          <a:ext cx="1" cy="443287"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1230,35 +1229,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>37911</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>165285</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>277953</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85342</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>37912</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>138952</xdr:rowOff>
+      <xdr:colOff>667168</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>91340</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="연결선: 꺾임 53">
+        <xdr:cNvPr id="67" name="연결선: 꺾임 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7690D580-E11A-4411-9A7B-2A9BFC8B0E91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19473582-CE9B-4F4F-9788-87070D8EA649}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="35" idx="2"/>
-          <a:endCxn id="62" idx="0"/>
+          <a:stCxn id="83" idx="3"/>
+          <a:endCxn id="84" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4642128" y="12096468"/>
-          <a:ext cx="392767" cy="1"/>
+        <a:xfrm flipV="1">
+          <a:off x="14652044" y="8398069"/>
+          <a:ext cx="1081942" cy="5998"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1288,99 +1287,40 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>197223</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97695</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>171587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>597834</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>161364</xdr:rowOff>
+      <xdr:colOff>97696</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>199238</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="73" name="연결선: 꺾임 72">
+        <xdr:cNvPr id="69" name="연결선: 꺾임 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2215FB0C-A376-4973-9E51-A5A62E419D88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2238286-E8C2-472F-879D-6509DDA434AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="35" idx="1"/>
-          <a:endCxn id="116" idx="0"/>
+          <a:cxnSpLocks/>
+          <a:stCxn id="85" idx="2"/>
+          <a:endCxn id="177" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="2076451" y="11093823"/>
-          <a:ext cx="1264583" cy="802341"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>224489</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>57710</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>585318</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>17930</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="77" name="연결선: 꺾임 76">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D90682BD-0ED5-4882-A4D3-09275DE2C9C8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="197" idx="3"/>
-          <a:endCxn id="4" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5710889" y="5296460"/>
-          <a:ext cx="360829" cy="3941670"/>
+        <a:xfrm rot="5400000">
+          <a:off x="12864688" y="13901412"/>
+          <a:ext cx="443287" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -63354"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="19050">
@@ -1406,23 +1346,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>154641</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>161365</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>543790</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>196243</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>569258</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>344325</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>96001</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="순서도: 판단 115">
+        <xdr:cNvPr id="70" name="순서도: 판단 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{938FD2B7-E0D4-4BD1-975B-264CDCFA4CFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFE4E631-005C-4A53-A5FF-F63FAFD23801}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1430,8 +1370,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="840441" y="11896165"/>
-          <a:ext cx="2472017" cy="1324535"/>
+          <a:off x="12146972" y="6222970"/>
+          <a:ext cx="1878717" cy="938849"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -1473,28 +1413,20 @@
             <a:t>HP</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>가 </a:t>
+            <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>0</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>이 됐는가</a:t>
+            <a:t>= 0</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
@@ -1516,39 +1448,39 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>154640</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>57711</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198871</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>537133</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>194984</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>570619</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>118404</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="135" name="연결선: 꺾임 134">
+        <xdr:cNvPr id="71" name="연결선: 꺾임 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC76399E-0EDB-4CD0-97F5-5C2A8FC549BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{146858E8-0CF1-4E8E-A373-AE1A31034672}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="116" idx="1"/>
-          <a:endCxn id="4" idx="1"/>
+          <a:stCxn id="81" idx="1"/>
+          <a:endCxn id="80" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1">
-          <a:off x="840440" y="5296461"/>
-          <a:ext cx="3125693" cy="7261973"/>
+          <a:off x="11802053" y="5517440"/>
+          <a:ext cx="371748" cy="4784055"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -7314"/>
+            <a:gd name="adj1" fmla="val -271129"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="19050">
@@ -1577,36 +1509,36 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>569258</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>194983</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>414045</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85342</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>537134</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>194983</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>110532</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>111039</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="144" name="직선 화살표 연결선 143">
+        <xdr:cNvPr id="72" name="직선 화살표 연결선 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E19BF6F2-B243-42E5-A678-D15C531F25F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ACC3E30-5274-4C47-83F2-320BCA80D063}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="62" idx="1"/>
-          <a:endCxn id="116" idx="3"/>
+          <a:stCxn id="84" idx="3"/>
+          <a:endCxn id="175" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3312458" y="12558433"/>
-          <a:ext cx="653676" cy="0"/>
+        <a:xfrm>
+          <a:off x="17559045" y="8398069"/>
+          <a:ext cx="1081942" cy="25697"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1634,35 +1566,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>344325</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>36523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>605676</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>39222</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>654907</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>42213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="147" name="연결선: 꺾임 146">
+        <xdr:cNvPr id="74" name="연결선: 꺾임 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67C1A18-2ECC-453A-960C-7EBA61744705}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11C488D9-BFE4-4267-A8C7-2C91125F94A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="116" idx="2"/>
-          <a:endCxn id="154" idx="0"/>
+          <a:stCxn id="70" idx="3"/>
+          <a:endCxn id="75" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2045352" y="13251797"/>
-          <a:ext cx="648822" cy="586627"/>
+        <a:xfrm flipV="1">
+          <a:off x="3807961" y="6686705"/>
+          <a:ext cx="1696037" cy="5690"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1692,23 +1624,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>415177</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>39222</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>654907</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>189992</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>110376</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>147919</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419379</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>90872</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="154" name="직사각형 153">
+        <xdr:cNvPr id="75" name="직사각형 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3194A21-459F-41E3-8D73-CAED51ABD224}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{374DD281-EB48-4B07-9FFE-7BCA40DC3045}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1716,8 +1648,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1786777" y="13869522"/>
-          <a:ext cx="1752599" cy="527797"/>
+          <a:off x="5503998" y="6424537"/>
+          <a:ext cx="1842654" cy="524335"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1765,35 +1697,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>31561</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>57897</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>689244</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>137317</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>44261</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>25961</xdr:rowOff>
+      <xdr:colOff>654907</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>140432</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="184" name="연결선: 꺾임 183">
+        <xdr:cNvPr id="76" name="연결선: 꺾임 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1308D87F-12B8-40F0-BF52-281E76786659}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5E4C187-8B32-43B6-B27B-2A7C9AF91F92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="197" idx="2"/>
-          <a:endCxn id="35" idx="0"/>
+          <a:stCxn id="85" idx="3"/>
+          <a:endCxn id="295" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="4644929" y="10093979"/>
-          <a:ext cx="387164" cy="12700"/>
+        <a:xfrm>
+          <a:off x="14370608" y="13022044"/>
+          <a:ext cx="1351117" cy="3115"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1826,482 +1758,2274 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>597833</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>570619</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>163789</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>41462</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>317495</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>32089</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="300" name="그룹 299">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="직사각형 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E46594F-FC04-4264-847D-24A1ACF70F12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCAC1487-1610-4DBE-9357-BC4A2F3CF436}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="3341033" y="4115920"/>
-          <a:ext cx="2994956" cy="8708092"/>
-          <a:chOff x="6474758" y="4115920"/>
-          <a:chExt cx="2994956" cy="8708092"/>
+          <a:off x="12173801" y="4290834"/>
+          <a:ext cx="1825058" cy="521073"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="직사각형 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58CA3642-7855-4A80-A136-0EDD1A5FE223}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7099859" y="4115920"/>
-            <a:ext cx="1744755" cy="527797"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="28575">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>유닛 생성</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>570619</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>59739</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>317495</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>168592</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="직사각형 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73670D07-100C-48FD-9A22-68AA6EF6E40C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12173801" y="5255194"/>
+          <a:ext cx="1825058" cy="524489"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>오른쪽으로 이동</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198871</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>86679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>689244</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>150127</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="순서도: 판단 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{516138A0-6FDE-416A-BF93-AD91E593E94B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11802053" y="9646315"/>
+          <a:ext cx="2568555" cy="1310357"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>타일 뒤에 벽이 있는가</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>?</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>유닛 생성</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="직사각형 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{545F40E5-2828-4B08-A62F-92B413F1691F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7099859" y="5030881"/>
-            <a:ext cx="1744755" cy="531158"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="28575">
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>570619</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>177777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>317495</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>75396</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="직사각형 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E317AC9-EFD4-4470-927B-8FC6F5AB4C21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12173801" y="11399959"/>
+          <a:ext cx="1825058" cy="521073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>이동 정지</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>610161</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123651</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>277953</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>59028</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="순서도: 판단 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F18EA4D5-C95E-4AB5-96DB-C8D08C8790DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11520616" y="7605106"/>
+          <a:ext cx="3131428" cy="1597922"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>사거리 안에 적 존재</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>?</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>오늘쪽으로 이동</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="순서도: 판단 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{899D0E85-538C-4D50-858E-4B82232F7D18}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6739029" y="5949203"/>
-            <a:ext cx="2466414" cy="1324535"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartDecision">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="28575">
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>667168</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28368</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>414045</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>142316</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="직사각형 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{096B7083-EFD5-4F0A-AD9F-C1D598BA51F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15733986" y="8133277"/>
+          <a:ext cx="1825059" cy="529584"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 공격</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198871</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>103046</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>689244</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>171587</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="순서도: 판단 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94BD748B-98E2-4332-AF8B-6FF9AD594887}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11802053" y="12364319"/>
+          <a:ext cx="2568555" cy="1315450"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>공격 받았는가</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>?</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>벽을 맞났는가</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>?</a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97695</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>96001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97696</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123651</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="131" name="연결선: 꺾임 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE31AF6C-FFA4-4EB0-B28E-12C3711B094D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="70" idx="2"/>
+          <a:endCxn id="83" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="12864688" y="7383462"/>
+          <a:ext cx="443287" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>110532</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>155861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>315202</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66215</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="175" name="순서도: 판단 174">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A924E1AF-BABA-4859-875E-B01648CB2509}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18640987" y="7845134"/>
+          <a:ext cx="2282851" cy="1157263"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="직사각형 21">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7694188D-076E-4FE2-B316-043EB33A6CEB}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7099859" y="7660902"/>
-            <a:ext cx="1744755" cy="527796"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="28575">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>공격하던 대상 사망</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>?</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>이동 정지</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="35" name="순서도: 판단 34">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14511E86-F35C-4A20-9290-523BFDE77C5A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6474758" y="10287561"/>
-            <a:ext cx="2994956" cy="1612525"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartDecision">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="28575">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>543790</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>127924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>344325</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>22589</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="176" name="순서도: 판단 175">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA238E78-1D2A-4BAF-B346-8D776ABEC7DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12146972" y="15090833"/>
+          <a:ext cx="1878717" cy="933756"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>= 0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>?</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>사거리 안에 적 유닛이 들어왔는가</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>?</a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>570619</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>199238</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>317495</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>100273</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="177" name="직사각형 176">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE386ABF-B049-4BA6-81A9-40939BFCFA2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12173801" y="14123056"/>
+          <a:ext cx="1825058" cy="524490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="62" name="직사각형 61">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{134B7946-B0E9-4ED3-8D31-15DD0A20469D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7099859" y="12292853"/>
-            <a:ext cx="1744755" cy="531159"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="28575">
+            </a:rPr>
+            <a:t>오른쪽으로 이동</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>18571</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>18361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>176817</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>63104</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="178" name="순서도: 판단 177">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A92DAB-EFCA-4269-8B88-653DBC588CEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11621753" y="18514179"/>
+          <a:ext cx="2929155" cy="1499470"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>사거리 안에 적 존재</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>?</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> 공격</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="197" name="순서도: 판단 196">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BC7079F-F968-47D4-8FEF-A5CC43564A6D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6739029" y="8575862"/>
-            <a:ext cx="2466414" cy="1324535"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartDecision">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="28575">
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>344325</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>175068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>654907</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>179166</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="183" name="연결선: 꺾임 182">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A1FE372-5A3B-4DB6-8929-FC4F1FE16091}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="176" idx="3"/>
+          <a:endCxn id="185" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14025689" y="15553613"/>
+          <a:ext cx="1696036" cy="4098"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>654907</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>120718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419379</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>21598</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="185" name="직사각형 184">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B41272-0DD2-4DE3-B8C6-67FCC35F7738}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15721725" y="15291445"/>
+          <a:ext cx="1842654" cy="524335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 사망</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97694</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>100273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97695</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>127924</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="186" name="직선 화살표 연결선 185">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66B4B859-814F-418A-94E3-DEB76B55D9FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="177" idx="2"/>
+          <a:endCxn id="176" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13086330" y="14647546"/>
+          <a:ext cx="1" cy="443287"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97695</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>22589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97696</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>50240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="189" name="연결선: 꺾임 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB194190-C383-4E06-B34F-2E97F01139D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="176" idx="2"/>
+          <a:endCxn id="198" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="12864688" y="16246232"/>
+          <a:ext cx="443287" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76021</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>147728</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>570619</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>107515</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="192" name="연결선: 꺾임 191">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB5AB84D-9A99-404E-907A-758212D66FDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="217" idx="1"/>
+          <a:endCxn id="210" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="11679203" y="20721728"/>
+          <a:ext cx="494598" cy="1414514"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -112747"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>610161</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>50240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>277953</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>198528</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="198" name="순서도: 판단 197">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71666639-646C-4538-8CE6-2236EB28FDC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11520616" y="16467876"/>
+          <a:ext cx="3131428" cy="1603016"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>벽까지의 거리 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>=&gt; 5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>적 유닛이 벽을 공격했는가</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>?</a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97694</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>198527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97695</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>18360</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="199" name="연결선: 꺾임 198">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B147FCD-7241-49A0-A77A-253721A4EDD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="198" idx="2"/>
+          <a:endCxn id="178" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="12864687" y="18292534"/>
+          <a:ext cx="443287" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>277953</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>17064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>303627</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>20475</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="202" name="연결선: 꺾임 201">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2919E453-123E-41A7-BB9C-8CF042771D8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="198" idx="3"/>
+          <a:endCxn id="203" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14652044" y="17265973"/>
+          <a:ext cx="718401" cy="3411"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>303627</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>155353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>77933</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>86592</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="203" name="직사각형 202">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D140EB5-C023-4129-B8EC-3D64774E6DD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15370445" y="16780808"/>
+          <a:ext cx="2545215" cy="970329"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>벽까지의 거리 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>=&gt; 1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>이 될 때까지</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>의 이동 속도로 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>왼쪽으로 이동</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>91346</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>69453</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104046</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>97103</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="209" name="연결선: 꺾임 208">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96CFCDAA-1A8E-4239-A386-DEDCCC682EEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="178" idx="2"/>
+          <a:endCxn id="210" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="12864688" y="20235292"/>
+          <a:ext cx="443287" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>570619</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>90754</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>317496</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>204702</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="210" name="직사각형 209">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{026E0DDF-CD82-4753-BE1F-FC91FDC15F4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12173801" y="20456936"/>
+          <a:ext cx="1825059" cy="529584"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 공격</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76021</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>24529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>119366</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="217" name="순서도: 판단 216">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16F40046-DCF8-43A0-B5BE-52A7CA22CBB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11679203" y="21429802"/>
+          <a:ext cx="2814254" cy="1412879"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>공격하던 대상 사망</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>?</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97694</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>204702</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97695</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>24529</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="218" name="직선 화살표 연결선 217">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52108EF7-B28B-4508-B964-40FC8D4CA736}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="210" idx="2"/>
+          <a:endCxn id="217" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13086330" y="20986520"/>
+          <a:ext cx="1" cy="443282"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>119366</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>86592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190780</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>107515</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="225" name="연결선: 꺾임 224">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AC9D7E6-3F32-4613-A52D-648045F89698}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="217" idx="3"/>
+          <a:endCxn id="203" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14493457" y="17751137"/>
+          <a:ext cx="2149596" cy="4385105"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>194243</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>142317</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>559231</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66216</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="262" name="연결선: 꺾임 261">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA4AB80D-065F-4BFF-AE4B-97CA85D2292D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="175" idx="2"/>
+          <a:endCxn id="84" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="18044697" y="7264681"/>
+          <a:ext cx="339536" cy="3135897"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -67327"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>317495</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>315202</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>111039</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="269" name="연결선: 꺾임 268">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F982A3F-56A2-4FBF-8110-55BAF69B6EE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="175" idx="3"/>
+          <a:endCxn id="80" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13998859" y="5517439"/>
+          <a:ext cx="6924979" cy="2906327"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -3301"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>654907</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>86082</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419379</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>194781</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="295" name="직사각형 294">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28A00C53-FAB0-49B4-A1AC-89826552BDD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15721725" y="12762991"/>
+          <a:ext cx="1842654" cy="524335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>none</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>317495</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>22678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>77933</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>17064</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="306" name="연결선: 꺾임 305">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A6E9C2A-9557-40CD-B0EF-002CC47E0E1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="203" idx="3"/>
+          <a:endCxn id="82" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13998859" y="11660496"/>
+          <a:ext cx="3916801" cy="5605477"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -5836"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8212,10 +9936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6F94A7-7021-4009-9B15-493C51B47768}">
-  <dimension ref="B2:Q20"/>
+  <dimension ref="B2:Q21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8380,7 +10104,7 @@
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="9"/>
       <c r="C15" s="6" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -8395,7 +10119,7 @@
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
       <c r="C16" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -8410,7 +10134,7 @@
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
       <c r="C17" s="16" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -8426,7 +10150,7 @@
       <c r="B18" s="11"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -8448,6 +10172,7 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
@@ -8457,9 +10182,15 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8514,7 +10245,7 @@
         <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>62</v>
@@ -8570,7 +10301,7 @@
       </c>
       <c r="B3" s="2">
         <f>'3레벨 유닛 테이블'!E3</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C3" s="2">
         <f>'3레벨 유닛 테이블'!F3</f>
@@ -8648,7 +10379,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2">
         <f>'3레벨 유닛 테이블'!E5</f>
@@ -8964,8 +10695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D3F61F-0347-41D5-91A8-0D2FBCD00291}">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9038,22 +10769,22 @@
         <v>64</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -9138,7 +10869,7 @@
         <v>근거리</v>
       </c>
       <c r="E3" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F3" s="2">
         <v>50</v>
@@ -9262,7 +10993,7 @@
         <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -9420,8 +11151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937CA577-D084-4477-A6FD-EDAD9D0A7061}">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9491,25 +11222,25 @@
         <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -9594,7 +11325,7 @@
         <v>근거리</v>
       </c>
       <c r="E3" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F3" s="2">
         <v>50</v>
@@ -9718,7 +11449,7 @@
         <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -9865,8 +11596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD66771-CF09-47A9-9913-EE7E810D654C}">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:U1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9935,25 +11666,25 @@
         <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -10038,7 +11769,7 @@
         <v>근거리</v>
       </c>
       <c r="E3" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F3" s="2">
         <v>50</v>
@@ -10162,7 +11893,7 @@
         <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -10339,10 +12070,10 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>65</v>
@@ -10372,7 +12103,7 @@
         <v>29</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="194.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10409,7 +12140,7 @@
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -10447,7 +12178,7 @@
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -10459,7 +12190,7 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>31</v>
@@ -10483,7 +12214,7 @@
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -10495,7 +12226,7 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -10519,7 +12250,7 @@
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="220.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -10531,7 +12262,7 @@
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>66</v>
@@ -10553,7 +12284,7 @@
       <c r="L6" s="18"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -10598,10 +12329,10 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>65</v>
@@ -10631,7 +12362,7 @@
         <v>29</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="194.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10642,7 +12373,7 @@
         <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
@@ -10668,7 +12399,7 @@
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -10706,7 +12437,7 @@
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -10718,7 +12449,7 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>31</v>
@@ -10742,7 +12473,7 @@
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -10754,7 +12485,7 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -10778,7 +12509,7 @@
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="220.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -10790,7 +12521,7 @@
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>66</v>
@@ -10803,16 +12534,16 @@
         <v>32</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J6" s="18"/>
       <c r="K6" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L6" s="18"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -10855,10 +12586,10 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>65</v>
@@ -10888,7 +12619,7 @@
         <v>29</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="194.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10899,7 +12630,7 @@
         <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
@@ -10925,7 +12656,7 @@
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -10963,7 +12694,7 @@
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -10975,7 +12706,7 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>31</v>
@@ -10999,7 +12730,7 @@
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -11011,7 +12742,7 @@
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -11035,7 +12766,7 @@
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="220.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -11047,7 +12778,7 @@
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>66</v>
@@ -11060,16 +12791,16 @@
         <v>32</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -11083,7 +12814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8C7ABA-8253-488C-B6E7-31B6C735BE66}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -11124,7 +12855,7 @@
         <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>62</v>
@@ -11180,7 +12911,7 @@
       </c>
       <c r="B3" s="2">
         <f>'유닛 테이블'!E3</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C3" s="2">
         <f>'유닛 테이블'!F3</f>
@@ -11258,7 +12989,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2">
         <f>'유닛 테이블'!E5</f>
@@ -11545,7 +13276,7 @@
         <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>62</v>
@@ -11601,7 +13332,7 @@
       </c>
       <c r="B3" s="2">
         <f>'2레벨 유닛 테이블'!E3</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C3" s="2">
         <f>'2레벨 유닛 테이블'!F3</f>
@@ -11679,7 +13410,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2">
         <f>'2레벨 유닛 테이블'!E5</f>

--- a/유닛 및 건물/양_유닛.xlsx
+++ b/유닛 및 건물/양_유닛.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home_pc\OneDrive\바탕 화면\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A023332-2679-43DD-8213-03DAEB547400}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620EC8A0-57A8-4C6F-A7E7-36283B4EA825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="647" firstSheet="3" activeTab="7" xr2:uid="{5DC44C0D-AFC0-4050-AC88-DAB7CE401A2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="647" firstSheet="3" activeTab="8" xr2:uid="{5DC44C0D-AFC0-4050-AC88-DAB7CE401A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="유닛 생산" sheetId="1" r:id="rId1"/>
     <sheet name="유닛 테이블" sheetId="2" r:id="rId2"/>
     <sheet name="2레벨 유닛 테이블" sheetId="8" r:id="rId3"/>
     <sheet name="3레벨 유닛 테이블" sheetId="13" r:id="rId4"/>
-    <sheet name="외형&amp;무기&amp;투사체&amp;특징" sheetId="7" r:id="rId5"/>
-    <sheet name="2레벨 외형&amp;무기&amp;투사체&amp;특징" sheetId="6" r:id="rId6"/>
-    <sheet name="3레벨 외형&amp;무기&amp;투사체&amp;특징" sheetId="12" r:id="rId7"/>
-    <sheet name="유닛 테이블DB" sheetId="10" r:id="rId8"/>
-    <sheet name="2레벨 유닛 테이블DB" sheetId="11" r:id="rId9"/>
-    <sheet name="3레벨 유닛 테이블DB" sheetId="14" r:id="rId10"/>
-    <sheet name="Index" sheetId="3" r:id="rId11"/>
+    <sheet name="Index" sheetId="3" r:id="rId5"/>
+    <sheet name="외형&amp;무기&amp;투사체&amp;특징" sheetId="7" r:id="rId6"/>
+    <sheet name="2레벨 외형&amp;무기&amp;투사체&amp;특징" sheetId="6" r:id="rId7"/>
+    <sheet name="3레벨 외형&amp;무기&amp;투사체&amp;특징" sheetId="12" r:id="rId8"/>
+    <sheet name="유닛 테이블DB" sheetId="10" r:id="rId9"/>
+    <sheet name="2레벨 유닛 테이블DB" sheetId="11" r:id="rId10"/>
+    <sheet name="3레벨 유닛 테이블DB" sheetId="14" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2레벨 외형&amp;무기&amp;투사체&amp;특징'!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2레벨 외형&amp;무기&amp;투사체&amp;특징'!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Index!$F$2:$G$3</definedName>
     <definedName name="카테고리_유닛타입">Index!$C$2:$D$4</definedName>
     <definedName name="카테고리_피해타입">Index!$F$2:$G$3</definedName>
   </definedNames>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="116">
   <si>
     <t>이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -500,6 +501,14 @@
     <t>양 유닛이 공격 받았을 경우 해당 유닛 오른쪽으로 이동 및 전투</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>관통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관통수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -10201,11 +10210,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD2B524-FBA0-41D2-80D1-8A3ADF03F13A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8CF9CA-9C63-4BA8-9530-F3FA06453166}">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10259,40 +10268,40 @@
         <v>42</v>
       </c>
       <c r="B2" s="2">
-        <f>'3레벨 유닛 테이블'!E2</f>
+        <f>'2레벨 유닛 테이블'!E2</f>
         <v>0.5</v>
       </c>
       <c r="C2" s="2">
-        <f>'3레벨 유닛 테이블'!F2</f>
+        <f>'2레벨 유닛 테이블'!F2</f>
         <v>40</v>
       </c>
       <c r="D2" s="2">
-        <f>'3레벨 유닛 테이블'!G2</f>
+        <f>'2레벨 유닛 테이블'!G2</f>
         <v>5</v>
       </c>
       <c r="E2" s="2">
-        <f>'3레벨 유닛 테이블'!H2</f>
+        <f>'2레벨 유닛 테이블'!H2</f>
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <f>'3레벨 유닛 테이블'!J2</f>
-        <v>75</v>
+        <f>'2레벨 유닛 테이블'!K2</f>
+        <v>80</v>
       </c>
       <c r="G2" s="2">
-        <f>'3레벨 유닛 테이블'!K2</f>
-        <v>15</v>
+        <f>'2레벨 유닛 테이블'!L2</f>
+        <v>10</v>
       </c>
       <c r="H2" s="2">
-        <f>'3레벨 유닛 테이블'!L2</f>
+        <f>'2레벨 유닛 테이블'!M2</f>
         <v>0</v>
       </c>
       <c r="I2" s="2">
-        <f>'3레벨 유닛 테이블'!M2</f>
+        <f>'2레벨 유닛 테이블'!N2</f>
         <v>0.5</v>
       </c>
       <c r="J2" s="2">
-        <f>'3레벨 유닛 테이블'!N2</f>
-        <v>1.5</v>
+        <f>'유닛 테이블'!O2</f>
+        <v>1.6</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -10300,39 +10309,39 @@
         <v>43</v>
       </c>
       <c r="B3" s="2">
-        <f>'3레벨 유닛 테이블'!E3</f>
+        <f>'2레벨 유닛 테이블'!E3</f>
         <v>0.8</v>
       </c>
       <c r="C3" s="2">
-        <f>'3레벨 유닛 테이블'!F3</f>
+        <f>'2레벨 유닛 테이블'!F3</f>
         <v>50</v>
       </c>
       <c r="D3" s="2">
-        <f>'3레벨 유닛 테이블'!G3</f>
+        <f>'2레벨 유닛 테이블'!G3</f>
         <v>6</v>
       </c>
       <c r="E3" s="2">
-        <f>'3레벨 유닛 테이블'!H3</f>
+        <f>'2레벨 유닛 테이블'!H3</f>
         <v>1</v>
       </c>
       <c r="F3" s="2">
-        <f>'3레벨 유닛 테이블'!J3</f>
-        <v>125</v>
+        <f>'2레벨 유닛 테이블'!K3</f>
+        <v>90</v>
       </c>
       <c r="G3" s="2">
-        <f>'3레벨 유닛 테이블'!K3</f>
-        <v>30</v>
+        <f>'2레벨 유닛 테이블'!L3</f>
+        <v>25</v>
       </c>
       <c r="H3" s="2">
-        <f>'3레벨 유닛 테이블'!L3</f>
+        <f>'2레벨 유닛 테이블'!M3</f>
         <v>0.5</v>
       </c>
       <c r="I3" s="2">
-        <f>'3레벨 유닛 테이블'!M3</f>
-        <v>1.5</v>
+        <f>'2레벨 유닛 테이블'!N3</f>
+        <v>1.25</v>
       </c>
       <c r="J3" s="2">
-        <f>'3레벨 유닛 테이블'!N3</f>
+        <f>'유닛 테이블'!O3</f>
         <v>1</v>
       </c>
     </row>
@@ -10341,39 +10350,39 @@
         <v>44</v>
       </c>
       <c r="B4" s="2">
-        <f>'3레벨 유닛 테이블'!E4</f>
+        <f>'2레벨 유닛 테이블'!E4</f>
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <f>'3레벨 유닛 테이블'!F4</f>
+        <f>'2레벨 유닛 테이블'!F4</f>
         <v>60</v>
       </c>
       <c r="D4" s="2">
-        <f>'3레벨 유닛 테이블'!G4</f>
+        <f>'2레벨 유닛 테이블'!G4</f>
         <v>7</v>
       </c>
       <c r="E4" s="2">
-        <f>'3레벨 유닛 테이블'!H4</f>
+        <f>'2레벨 유닛 테이블'!H4</f>
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <f>'3레벨 유닛 테이블'!J4</f>
-        <v>90</v>
+        <f>'2레벨 유닛 테이블'!K4</f>
+        <v>70</v>
       </c>
       <c r="G4" s="2">
-        <f>'3레벨 유닛 테이블'!K4</f>
-        <v>50</v>
+        <f>'2레벨 유닛 테이블'!L4</f>
+        <v>35</v>
       </c>
       <c r="H4" s="2">
-        <f>'3레벨 유닛 테이블'!L4</f>
+        <f>'2레벨 유닛 테이블'!M4</f>
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <f>'3레벨 유닛 테이블'!M4</f>
-        <v>2</v>
+        <f>'2레벨 유닛 테이블'!N4</f>
+        <v>1.5</v>
       </c>
       <c r="J4" s="2">
-        <f>'3레벨 유닛 테이블'!N4</f>
+        <f>'유닛 테이블'!O4</f>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -10382,40 +10391,40 @@
         <v>85</v>
       </c>
       <c r="B5" s="2">
-        <f>'3레벨 유닛 테이블'!E5</f>
+        <f>'2레벨 유닛 테이블'!E5</f>
         <v>4</v>
       </c>
       <c r="C5" s="2">
-        <f>'3레벨 유닛 테이블'!F5</f>
+        <f>'2레벨 유닛 테이블'!F5</f>
         <v>70</v>
       </c>
       <c r="D5" s="2">
-        <f>'3레벨 유닛 테이블'!G5</f>
+        <f>'2레벨 유닛 테이블'!G5</f>
         <v>8</v>
       </c>
       <c r="E5" s="2">
-        <f>'3레벨 유닛 테이블'!H5</f>
+        <f>'2레벨 유닛 테이블'!H5</f>
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <f>'3레벨 유닛 테이블'!J5</f>
-        <v>75</v>
+        <f>'2레벨 유닛 테이블'!K5</f>
+        <v>60</v>
       </c>
       <c r="G5" s="2">
-        <f>'3레벨 유닛 테이블'!K5</f>
+        <f>'2레벨 유닛 테이블'!L5</f>
         <v>15</v>
       </c>
       <c r="H5" s="2">
-        <f>'3레벨 유닛 테이블'!L5</f>
+        <f>'2레벨 유닛 테이블'!M5</f>
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <f>'3레벨 유닛 테이블'!M5</f>
+        <f>'2레벨 유닛 테이블'!N5</f>
         <v>1</v>
       </c>
       <c r="J5" s="2">
-        <f>'3레벨 유닛 테이블'!N5</f>
-        <v>1.4</v>
+        <f>'유닛 테이블'!O5</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -10423,39 +10432,39 @@
         <v>46</v>
       </c>
       <c r="B6" s="2">
-        <f>'3레벨 유닛 테이블'!E6</f>
+        <f>'2레벨 유닛 테이블'!E6</f>
         <v>5</v>
       </c>
       <c r="C6" s="2">
-        <f>'3레벨 유닛 테이블'!F6</f>
+        <f>'2레벨 유닛 테이블'!F6</f>
         <v>80</v>
       </c>
       <c r="D6" s="2">
-        <f>'3레벨 유닛 테이블'!G6</f>
+        <f>'2레벨 유닛 테이블'!G6</f>
         <v>9</v>
       </c>
       <c r="E6" s="2">
-        <f>'3레벨 유닛 테이블'!H6</f>
-        <v>1</v>
+        <f>'2레벨 유닛 테이블'!H6</f>
+        <v>2</v>
       </c>
       <c r="F6" s="2">
-        <f>'3레벨 유닛 테이블'!J6</f>
-        <v>75</v>
+        <f>'2레벨 유닛 테이블'!K6</f>
+        <v>60</v>
       </c>
       <c r="G6" s="2">
-        <f>'3레벨 유닛 테이블'!K6</f>
-        <v>45</v>
+        <f>'2레벨 유닛 테이블'!L6</f>
+        <v>35</v>
       </c>
       <c r="H6" s="2">
-        <f>'3레벨 유닛 테이블'!L6</f>
-        <v>1</v>
+        <f>'2레벨 유닛 테이블'!M6</f>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <f>'3레벨 유닛 테이블'!M6</f>
-        <v>2</v>
+        <f>'2레벨 유닛 테이블'!N6</f>
+        <v>1.5</v>
       </c>
       <c r="J6" s="2">
-        <f>'3레벨 유닛 테이블'!N6</f>
+        <f>'유닛 테이블'!O6</f>
         <v>1.3</v>
       </c>
     </row>
@@ -10622,2200 +10631,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325F995D-D464-4E08-87B8-359E9E3CF2CA}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD2B524-FBA0-41D2-80D1-8A3ADF03F13A}">
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D3F61F-0347-41D5-91A8-0D2FBCD00291}">
-  <dimension ref="A1:U8"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="str">
-        <f t="shared" ref="D2:D6" si="0">VLOOKUP(C2, 카테고리_유닛타입, 2,FALSE)</f>
-        <v>근거리</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="2">
-        <v>40</v>
-      </c>
-      <c r="G2" s="2">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="str">
-        <f t="shared" ref="I2:I6" si="1">VLOOKUP(H2, 카테고리_피해타입,2,FALSE)</f>
-        <v>단일</v>
-      </c>
-      <c r="J2" s="2">
-        <v>50</v>
-      </c>
-      <c r="K2" s="2">
-        <v>5</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N2" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="F3" s="2">
-        <v>50</v>
-      </c>
-      <c r="G3" s="2">
-        <v>6</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>범위</v>
-      </c>
-      <c r="J3" s="2">
-        <v>80</v>
-      </c>
-      <c r="K3" s="2">
-        <v>15</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>중거리</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>60</v>
-      </c>
-      <c r="G4" s="2">
-        <v>7</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>단일</v>
-      </c>
-      <c r="J4" s="2">
-        <v>60</v>
-      </c>
-      <c r="K4" s="2">
-        <v>25</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>2</v>
-      </c>
-      <c r="N4" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>원거리</v>
-      </c>
-      <c r="E5" s="2">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2">
-        <v>70</v>
-      </c>
-      <c r="G5" s="2">
-        <v>8</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>단일</v>
-      </c>
-      <c r="J5" s="2">
-        <v>50</v>
-      </c>
-      <c r="K5" s="2">
-        <v>10</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1</v>
-      </c>
-      <c r="N5" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>원거리</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2">
-        <v>80</v>
-      </c>
-      <c r="G6" s="2">
-        <v>9</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>범위</v>
-      </c>
-      <c r="J6" s="2">
-        <v>50</v>
-      </c>
-      <c r="K6" s="2">
-        <v>25</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1</v>
-      </c>
-      <c r="M6" s="2">
-        <v>2</v>
-      </c>
-      <c r="N6" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937CA577-D084-4477-A6FD-EDAD9D0A7061}">
-  <dimension ref="A1:U8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="str">
-        <f t="shared" ref="D2:D6" si="0">VLOOKUP(C2, 카테고리_유닛타입, 2,FALSE)</f>
-        <v>근거리</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="2">
-        <v>40</v>
-      </c>
-      <c r="G2" s="2">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="str">
-        <f>VLOOKUP(H2, 카테고리_피해타입,2,FALSE)</f>
-        <v>단일</v>
-      </c>
-      <c r="J2" s="2">
-        <v>60</v>
-      </c>
-      <c r="K2" s="2">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N2" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="F3" s="2">
-        <v>50</v>
-      </c>
-      <c r="G3" s="2">
-        <v>6</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2" t="str">
-        <f>VLOOKUP(H3, 카테고리_피해타입,2,FALSE)</f>
-        <v>범위</v>
-      </c>
-      <c r="J3" s="2">
-        <v>100</v>
-      </c>
-      <c r="K3" s="2">
-        <v>22</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>중거리</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>60</v>
-      </c>
-      <c r="G4" s="2">
-        <v>7</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="str">
-        <f t="shared" ref="I4:I6" si="1">VLOOKUP(H4, 카테고리_피해타입,2,FALSE)</f>
-        <v>단일</v>
-      </c>
-      <c r="J4" s="2">
-        <v>70</v>
-      </c>
-      <c r="K4" s="2">
-        <v>35</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>2</v>
-      </c>
-      <c r="N4" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>원거리</v>
-      </c>
-      <c r="E5" s="2">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2">
-        <v>70</v>
-      </c>
-      <c r="G5" s="2">
-        <v>8</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>단일</v>
-      </c>
-      <c r="J5" s="2">
-        <v>60</v>
-      </c>
-      <c r="K5" s="2">
-        <v>10</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1</v>
-      </c>
-      <c r="N5" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>원거리</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2">
-        <v>80</v>
-      </c>
-      <c r="G6" s="2">
-        <v>9</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>범위</v>
-      </c>
-      <c r="J6" s="2">
-        <v>60</v>
-      </c>
-      <c r="K6" s="2">
-        <v>35</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1</v>
-      </c>
-      <c r="M6" s="2">
-        <v>2</v>
-      </c>
-      <c r="N6" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD66771-CF09-47A9-9913-EE7E810D654C}">
-  <dimension ref="A1:U8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="str">
-        <f t="shared" ref="D2:D6" si="0">VLOOKUP(C2, 카테고리_유닛타입, 2,FALSE)</f>
-        <v>근거리</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="2">
-        <v>40</v>
-      </c>
-      <c r="G2" s="2">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="str">
-        <f>VLOOKUP(H2, 카테고리_피해타입,2,FALSE)</f>
-        <v>단일</v>
-      </c>
-      <c r="J2" s="2">
-        <v>75</v>
-      </c>
-      <c r="K2" s="2">
-        <v>15</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N2" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="F3" s="2">
-        <v>50</v>
-      </c>
-      <c r="G3" s="2">
-        <v>6</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2" t="str">
-        <f>VLOOKUP(H3, 카테고리_피해타입,2,FALSE)</f>
-        <v>범위</v>
-      </c>
-      <c r="J3" s="2">
-        <v>125</v>
-      </c>
-      <c r="K3" s="2">
-        <v>30</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>중거리</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>60</v>
-      </c>
-      <c r="G4" s="2">
-        <v>7</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="str">
-        <f t="shared" ref="I4:I6" si="1">VLOOKUP(H4, 카테고리_피해타입,2,FALSE)</f>
-        <v>단일</v>
-      </c>
-      <c r="J4" s="2">
-        <v>90</v>
-      </c>
-      <c r="K4" s="2">
-        <v>50</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>2</v>
-      </c>
-      <c r="N4" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>원거리</v>
-      </c>
-      <c r="E5" s="2">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2">
-        <v>70</v>
-      </c>
-      <c r="G5" s="2">
-        <v>8</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>단일</v>
-      </c>
-      <c r="J5" s="2">
-        <v>75</v>
-      </c>
-      <c r="K5" s="2">
-        <v>15</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1</v>
-      </c>
-      <c r="N5" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>원거리</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2">
-        <v>80</v>
-      </c>
-      <c r="G6" s="2">
-        <v>9</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>범위</v>
-      </c>
-      <c r="J6" s="2">
-        <v>75</v>
-      </c>
-      <c r="K6" s="2">
-        <v>45</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1</v>
-      </c>
-      <c r="M6" s="2">
-        <v>2</v>
-      </c>
-      <c r="N6" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9E97C7-0D4E-464E-B00F-2E8287F827CA}">
-  <dimension ref="A1:N6"/>
-  <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.25" customWidth="1"/>
-    <col min="4" max="4" width="37.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.875" customWidth="1"/>
-    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.375" customWidth="1"/>
-    <col min="11" max="11" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="59.25" customWidth="1"/>
-    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="194.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="220.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5EEE4B-252D-4CFB-AFF8-E94DF36C06BE}">
-  <dimension ref="A1:N6"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.25" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.875" customWidth="1"/>
-    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.375" customWidth="1"/>
-    <col min="11" max="11" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26" customWidth="1"/>
-    <col min="13" max="13" width="59.25" customWidth="1"/>
-    <col min="14" max="14" width="23.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="194.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="220.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42B52B5-8BD3-4209-B587-ED8D0CB3DE5A}">
-  <dimension ref="A1:N6"/>
-  <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.25" customWidth="1"/>
-    <col min="4" max="4" width="30.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.875" customWidth="1"/>
-    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.375" customWidth="1"/>
-    <col min="11" max="11" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26" customWidth="1"/>
-    <col min="13" max="13" width="68.625" customWidth="1"/>
-    <col min="14" max="14" width="14.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="194.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="220.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8C7ABA-8253-488C-B6E7-31B6C735BE66}">
-  <dimension ref="A1:J19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12869,39 +10689,39 @@
         <v>42</v>
       </c>
       <c r="B2" s="2">
-        <f>'유닛 테이블'!E2</f>
+        <f>'3레벨 유닛 테이블'!E2</f>
         <v>0.5</v>
       </c>
       <c r="C2" s="2">
-        <f>'유닛 테이블'!F2</f>
+        <f>'3레벨 유닛 테이블'!F2</f>
         <v>40</v>
       </c>
       <c r="D2" s="2">
-        <f>'유닛 테이블'!G2</f>
+        <f>'3레벨 유닛 테이블'!G2</f>
         <v>5</v>
       </c>
       <c r="E2" s="2">
-        <f>'유닛 테이블'!H2</f>
+        <f>'3레벨 유닛 테이블'!H2</f>
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <f>'유닛 테이블'!J2</f>
-        <v>50</v>
+        <f>'3레벨 유닛 테이블'!K2</f>
+        <v>100</v>
       </c>
       <c r="G2" s="2">
-        <f>'유닛 테이블'!K2</f>
-        <v>5</v>
+        <f>'3레벨 유닛 테이블'!L2</f>
+        <v>20</v>
       </c>
       <c r="H2" s="2">
-        <f>'유닛 테이블'!L2</f>
+        <f>'3레벨 유닛 테이블'!M2</f>
         <v>0</v>
       </c>
       <c r="I2" s="2">
-        <f>'유닛 테이블'!M2</f>
+        <f>'3레벨 유닛 테이블'!N2</f>
         <v>0.5</v>
       </c>
       <c r="J2" s="2">
-        <f>'유닛 테이블'!N2</f>
+        <f>'3레벨 유닛 테이블'!O2</f>
         <v>1.5</v>
       </c>
     </row>
@@ -12910,39 +10730,39 @@
         <v>43</v>
       </c>
       <c r="B3" s="2">
-        <f>'유닛 테이블'!E3</f>
+        <f>'3레벨 유닛 테이블'!E3</f>
         <v>0.8</v>
       </c>
       <c r="C3" s="2">
-        <f>'유닛 테이블'!F3</f>
+        <f>'3레벨 유닛 테이블'!F3</f>
         <v>50</v>
       </c>
       <c r="D3" s="2">
-        <f>'유닛 테이블'!G3</f>
+        <f>'3레벨 유닛 테이블'!G3</f>
         <v>6</v>
       </c>
       <c r="E3" s="2">
-        <f>'유닛 테이블'!H3</f>
+        <f>'3레벨 유닛 테이블'!H3</f>
         <v>1</v>
       </c>
       <c r="F3" s="2">
-        <f>'유닛 테이블'!J3</f>
-        <v>80</v>
+        <f>'3레벨 유닛 테이블'!K3</f>
+        <v>110</v>
       </c>
       <c r="G3" s="2">
-        <f>'유닛 테이블'!K3</f>
-        <v>15</v>
+        <f>'3레벨 유닛 테이블'!L3</f>
+        <v>40</v>
       </c>
       <c r="H3" s="2">
-        <f>'유닛 테이블'!L3</f>
+        <f>'3레벨 유닛 테이블'!M3</f>
         <v>0.5</v>
       </c>
       <c r="I3" s="2">
-        <f>'유닛 테이블'!M3</f>
-        <v>1.5</v>
+        <f>'3레벨 유닛 테이블'!N3</f>
+        <v>1.25</v>
       </c>
       <c r="J3" s="2">
-        <f>'유닛 테이블'!N3</f>
+        <f>'3레벨 유닛 테이블'!O3</f>
         <v>1</v>
       </c>
     </row>
@@ -12951,39 +10771,39 @@
         <v>44</v>
       </c>
       <c r="B4" s="2">
-        <f>'유닛 테이블'!E4</f>
+        <f>'3레벨 유닛 테이블'!E4</f>
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <f>'유닛 테이블'!F4</f>
+        <f>'3레벨 유닛 테이블'!F4</f>
         <v>60</v>
       </c>
       <c r="D4" s="2">
-        <f>'유닛 테이블'!G4</f>
+        <f>'3레벨 유닛 테이블'!G4</f>
         <v>7</v>
       </c>
       <c r="E4" s="2">
-        <f>'유닛 테이블'!H4</f>
+        <f>'3레벨 유닛 테이블'!H4</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <f>'3레벨 유닛 테이블'!K4</f>
+        <v>85</v>
+      </c>
+      <c r="G4" s="2">
+        <f>'3레벨 유닛 테이블'!L4</f>
+        <v>50</v>
+      </c>
+      <c r="H4" s="2">
+        <f>'3레벨 유닛 테이블'!M4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="2">
-        <f>'유닛 테이블'!J4</f>
-        <v>60</v>
-      </c>
-      <c r="G4" s="2">
-        <f>'유닛 테이블'!K4</f>
-        <v>25</v>
-      </c>
-      <c r="H4" s="2">
-        <f>'유닛 테이블'!L4</f>
-        <v>0</v>
-      </c>
       <c r="I4" s="2">
-        <f>'유닛 테이블'!M4</f>
-        <v>2</v>
+        <f>'3레벨 유닛 테이블'!N4</f>
+        <v>1.5</v>
       </c>
       <c r="J4" s="2">
-        <f>'유닛 테이블'!N4</f>
+        <f>'3레벨 유닛 테이블'!O4</f>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -12992,39 +10812,39 @@
         <v>85</v>
       </c>
       <c r="B5" s="2">
-        <f>'유닛 테이블'!E5</f>
+        <f>'3레벨 유닛 테이블'!E5</f>
         <v>4</v>
       </c>
       <c r="C5" s="2">
-        <f>'유닛 테이블'!F5</f>
+        <f>'3레벨 유닛 테이블'!F5</f>
         <v>70</v>
       </c>
       <c r="D5" s="2">
-        <f>'유닛 테이블'!G5</f>
+        <f>'3레벨 유닛 테이블'!G5</f>
         <v>8</v>
       </c>
       <c r="E5" s="2">
-        <f>'유닛 테이블'!H5</f>
+        <f>'3레벨 유닛 테이블'!H5</f>
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <f>'유닛 테이블'!J5</f>
-        <v>50</v>
+        <f>'3레벨 유닛 테이블'!K5</f>
+        <v>75</v>
       </c>
       <c r="G5" s="2">
-        <f>'유닛 테이블'!K5</f>
-        <v>10</v>
+        <f>'3레벨 유닛 테이블'!L5</f>
+        <v>20</v>
       </c>
       <c r="H5" s="2">
-        <f>'유닛 테이블'!L5</f>
+        <f>'3레벨 유닛 테이블'!M5</f>
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <f>'유닛 테이블'!M5</f>
+        <f>'3레벨 유닛 테이블'!N5</f>
         <v>1</v>
       </c>
       <c r="J5" s="2">
-        <f>'유닛 테이블'!N5</f>
+        <f>'3레벨 유닛 테이블'!O5</f>
         <v>1.4</v>
       </c>
     </row>
@@ -13033,39 +10853,39 @@
         <v>46</v>
       </c>
       <c r="B6" s="2">
-        <f>'유닛 테이블'!E6</f>
+        <f>'3레벨 유닛 테이블'!E6</f>
         <v>5</v>
       </c>
       <c r="C6" s="2">
-        <f>'유닛 테이블'!F6</f>
+        <f>'3레벨 유닛 테이블'!F6</f>
         <v>80</v>
       </c>
       <c r="D6" s="2">
-        <f>'유닛 테이블'!G6</f>
+        <f>'3레벨 유닛 테이블'!G6</f>
         <v>9</v>
       </c>
       <c r="E6" s="2">
-        <f>'유닛 테이블'!H6</f>
-        <v>1</v>
+        <f>'3레벨 유닛 테이블'!H6</f>
+        <v>2</v>
       </c>
       <c r="F6" s="2">
-        <f>'유닛 테이블'!J6</f>
-        <v>50</v>
+        <f>'3레벨 유닛 테이블'!K6</f>
+        <v>75</v>
       </c>
       <c r="G6" s="2">
-        <f>'유닛 테이블'!K6</f>
-        <v>25</v>
+        <f>'3레벨 유닛 테이블'!L6</f>
+        <v>45</v>
       </c>
       <c r="H6" s="2">
-        <f>'유닛 테이블'!L6</f>
-        <v>1</v>
+        <f>'3레벨 유닛 테이블'!M6</f>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <f>'유닛 테이블'!M6</f>
-        <v>2</v>
+        <f>'3레벨 유닛 테이블'!N6</f>
+        <v>1.5</v>
       </c>
       <c r="J6" s="2">
-        <f>'유닛 테이블'!N6</f>
+        <f>'3레벨 유닛 테이블'!O6</f>
         <v>1.3</v>
       </c>
     </row>
@@ -13231,12 +11051,2266 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D3F61F-0347-41D5-91A8-0D2FBCD00291}">
+  <dimension ref="A1:V8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f t="shared" ref="D2:D6" si="0">VLOOKUP(C2, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>근거리</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>40</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f t="shared" ref="I2:I6" si="1">VLOOKUP(H2, 카테고리_피해타입,2,FALSE)</f>
+        <v>단일</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>70</v>
+      </c>
+      <c r="L2" s="2">
+        <v>5</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>근거리</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F3" s="2">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>범위</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>80</v>
+      </c>
+      <c r="L3" s="2">
+        <v>15</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>중거리</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>60</v>
+      </c>
+      <c r="G4" s="2">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>단일</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>60</v>
+      </c>
+      <c r="L4" s="2">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>원거리</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>70</v>
+      </c>
+      <c r="G5" s="2">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>단일</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>50</v>
+      </c>
+      <c r="L5" s="2">
+        <v>15</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>원거리</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>80</v>
+      </c>
+      <c r="G6" s="2">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>단일</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>50</v>
+      </c>
+      <c r="L6" s="2">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937CA577-D084-4477-A6FD-EDAD9D0A7061}">
+  <dimension ref="A1:V8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f t="shared" ref="D2:D6" si="0">VLOOKUP(C2, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>근거리</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>40</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f>VLOOKUP(H2, 카테고리_피해타입,2,FALSE)</f>
+        <v>단일</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>80</v>
+      </c>
+      <c r="L2" s="2">
+        <v>10</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>근거리</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F3" s="2">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f>VLOOKUP(H3, 카테고리_피해타입,2,FALSE)</f>
+        <v>범위</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>90</v>
+      </c>
+      <c r="L3" s="2">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>중거리</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>60</v>
+      </c>
+      <c r="G4" s="2">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f t="shared" ref="I4:I6" si="1">VLOOKUP(H4, 카테고리_피해타입,2,FALSE)</f>
+        <v>단일</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>70</v>
+      </c>
+      <c r="L4" s="2">
+        <v>35</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>원거리</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>70</v>
+      </c>
+      <c r="G5" s="2">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>단일</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>60</v>
+      </c>
+      <c r="L5" s="2">
+        <v>15</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>원거리</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>80</v>
+      </c>
+      <c r="G6" s="2">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>60</v>
+      </c>
+      <c r="L6" s="2">
+        <v>35</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD66771-CF09-47A9-9913-EE7E810D654C}">
+  <dimension ref="A1:V8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f t="shared" ref="D2:D6" si="0">VLOOKUP(C2, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>근거리</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>40</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f>VLOOKUP(H2, 카테고리_피해타입,2,FALSE)</f>
+        <v>단일</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>100</v>
+      </c>
+      <c r="L2" s="2">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>근거리</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F3" s="2">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f>VLOOKUP(H3, 카테고리_피해타입,2,FALSE)</f>
+        <v>범위</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>110</v>
+      </c>
+      <c r="L3" s="2">
+        <v>40</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>중거리</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>60</v>
+      </c>
+      <c r="G4" s="2">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="e">
+        <f t="shared" ref="I4:I6" si="1">VLOOKUP(H4, 카테고리_피해타입,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>85</v>
+      </c>
+      <c r="L4" s="2">
+        <v>50</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>원거리</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>70</v>
+      </c>
+      <c r="G5" s="2">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>단일</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>75</v>
+      </c>
+      <c r="L5" s="2">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>원거리</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>80</v>
+      </c>
+      <c r="G6" s="2">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2" t="e">
+        <f>VLOOKUP(H6, 카테고리_피해타입,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2">
+        <v>75</v>
+      </c>
+      <c r="L6" s="2">
+        <v>45</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325F995D-D464-4E08-87B8-359E9E3CF2CA}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9E97C7-0D4E-464E-B00F-2E8287F827CA}">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.25" customWidth="1"/>
+    <col min="4" max="4" width="37.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.875" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.375" customWidth="1"/>
+    <col min="11" max="11" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="59.25" customWidth="1"/>
+    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="194.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="220.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="18"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5EEE4B-252D-4CFB-AFF8-E94DF36C06BE}">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.25" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.875" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.375" customWidth="1"/>
+    <col min="11" max="11" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26" customWidth="1"/>
+    <col min="13" max="13" width="59.25" customWidth="1"/>
+    <col min="14" max="14" width="23.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="194.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="220.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L6" s="18"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42B52B5-8BD3-4209-B587-ED8D0CB3DE5A}">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.25" customWidth="1"/>
+    <col min="4" max="4" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.875" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.375" customWidth="1"/>
+    <col min="11" max="11" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26" customWidth="1"/>
+    <col min="13" max="13" width="68.625" customWidth="1"/>
+    <col min="14" max="14" width="14.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="194.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="220.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8CF9CA-9C63-4BA8-9530-F3FA06453166}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8C7ABA-8253-488C-B6E7-31B6C735BE66}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13290,40 +13364,40 @@
         <v>42</v>
       </c>
       <c r="B2" s="2">
-        <f>'2레벨 유닛 테이블'!E2</f>
+        <f>'유닛 테이블'!E2</f>
         <v>0.5</v>
       </c>
       <c r="C2" s="2">
-        <f>'2레벨 유닛 테이블'!F2</f>
+        <f>'유닛 테이블'!F2</f>
         <v>40</v>
       </c>
       <c r="D2" s="2">
-        <f>'2레벨 유닛 테이블'!G2</f>
+        <f>'유닛 테이블'!G2</f>
         <v>5</v>
       </c>
       <c r="E2" s="2">
-        <f>'2레벨 유닛 테이블'!H2</f>
+        <f>'유닛 테이블'!H2</f>
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <f>'2레벨 유닛 테이블'!J2</f>
-        <v>60</v>
+        <f>'유닛 테이블'!K2</f>
+        <v>70</v>
       </c>
       <c r="G2" s="2">
-        <f>'2레벨 유닛 테이블'!K2</f>
-        <v>10</v>
+        <f>'유닛 테이블'!L2</f>
+        <v>5</v>
       </c>
       <c r="H2" s="2">
-        <f>'2레벨 유닛 테이블'!L2</f>
+        <f>'유닛 테이블'!M2</f>
         <v>0</v>
       </c>
       <c r="I2" s="2">
-        <f>'2레벨 유닛 테이블'!M2</f>
+        <f>'유닛 테이블'!N2</f>
         <v>0.5</v>
       </c>
       <c r="J2" s="2">
-        <f>'유닛 테이블'!N2</f>
-        <v>1.5</v>
+        <f>'유닛 테이블'!O2</f>
+        <v>1.6</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -13331,39 +13405,39 @@
         <v>43</v>
       </c>
       <c r="B3" s="2">
-        <f>'2레벨 유닛 테이블'!E3</f>
+        <f>'유닛 테이블'!E3</f>
         <v>0.8</v>
       </c>
       <c r="C3" s="2">
-        <f>'2레벨 유닛 테이블'!F3</f>
+        <f>'유닛 테이블'!F3</f>
         <v>50</v>
       </c>
       <c r="D3" s="2">
-        <f>'2레벨 유닛 테이블'!G3</f>
+        <f>'유닛 테이블'!G3</f>
         <v>6</v>
       </c>
       <c r="E3" s="2">
-        <f>'2레벨 유닛 테이블'!H3</f>
+        <f>'유닛 테이블'!H3</f>
         <v>1</v>
       </c>
       <c r="F3" s="2">
-        <f>'2레벨 유닛 테이블'!J3</f>
-        <v>100</v>
+        <f>'유닛 테이블'!K3</f>
+        <v>80</v>
       </c>
       <c r="G3" s="2">
-        <f>'2레벨 유닛 테이블'!K3</f>
-        <v>22</v>
+        <f>'유닛 테이블'!L3</f>
+        <v>15</v>
       </c>
       <c r="H3" s="2">
-        <f>'2레벨 유닛 테이블'!L3</f>
+        <f>'유닛 테이블'!M3</f>
         <v>0.5</v>
       </c>
       <c r="I3" s="2">
-        <f>'2레벨 유닛 테이블'!M3</f>
+        <f>'유닛 테이블'!N3</f>
         <v>1.5</v>
       </c>
       <c r="J3" s="2">
-        <f>'유닛 테이블'!N3</f>
+        <f>'유닛 테이블'!O3</f>
         <v>1</v>
       </c>
     </row>
@@ -13372,39 +13446,39 @@
         <v>44</v>
       </c>
       <c r="B4" s="2">
-        <f>'2레벨 유닛 테이블'!E4</f>
+        <f>'유닛 테이블'!E4</f>
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <f>'2레벨 유닛 테이블'!F4</f>
+        <f>'유닛 테이블'!F4</f>
         <v>60</v>
       </c>
       <c r="D4" s="2">
-        <f>'2레벨 유닛 테이블'!G4</f>
+        <f>'유닛 테이블'!G4</f>
         <v>7</v>
       </c>
       <c r="E4" s="2">
-        <f>'2레벨 유닛 테이블'!H4</f>
+        <f>'유닛 테이블'!H4</f>
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <f>'2레벨 유닛 테이블'!J4</f>
-        <v>70</v>
+        <f>'유닛 테이블'!K4</f>
+        <v>60</v>
       </c>
       <c r="G4" s="2">
-        <f>'2레벨 유닛 테이블'!K4</f>
-        <v>35</v>
+        <f>'유닛 테이블'!L4</f>
+        <v>25</v>
       </c>
       <c r="H4" s="2">
-        <f>'2레벨 유닛 테이블'!L4</f>
+        <f>'유닛 테이블'!M4</f>
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <f>'2레벨 유닛 테이블'!M4</f>
-        <v>2</v>
+        <f>'유닛 테이블'!N4</f>
+        <v>1.25</v>
       </c>
       <c r="J4" s="2">
-        <f>'유닛 테이블'!N4</f>
+        <f>'유닛 테이블'!O4</f>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -13413,40 +13487,40 @@
         <v>85</v>
       </c>
       <c r="B5" s="2">
-        <f>'2레벨 유닛 테이블'!E5</f>
+        <f>'유닛 테이블'!E5</f>
         <v>4</v>
       </c>
       <c r="C5" s="2">
-        <f>'2레벨 유닛 테이블'!F5</f>
+        <f>'유닛 테이블'!F5</f>
         <v>70</v>
       </c>
       <c r="D5" s="2">
-        <f>'2레벨 유닛 테이블'!G5</f>
+        <f>'유닛 테이블'!G5</f>
         <v>8</v>
       </c>
       <c r="E5" s="2">
-        <f>'2레벨 유닛 테이블'!H5</f>
+        <f>'유닛 테이블'!H5</f>
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <f>'2레벨 유닛 테이블'!J5</f>
-        <v>60</v>
+        <f>'유닛 테이블'!K5</f>
+        <v>50</v>
       </c>
       <c r="G5" s="2">
-        <f>'2레벨 유닛 테이블'!K5</f>
-        <v>10</v>
+        <f>'유닛 테이블'!L5</f>
+        <v>15</v>
       </c>
       <c r="H5" s="2">
-        <f>'2레벨 유닛 테이블'!L5</f>
+        <f>'유닛 테이블'!M5</f>
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <f>'2레벨 유닛 테이블'!M5</f>
+        <f>'유닛 테이블'!N5</f>
         <v>1</v>
       </c>
       <c r="J5" s="2">
-        <f>'유닛 테이블'!N5</f>
-        <v>1.4</v>
+        <f>'유닛 테이블'!O5</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -13454,39 +13528,39 @@
         <v>46</v>
       </c>
       <c r="B6" s="2">
-        <f>'2레벨 유닛 테이블'!E6</f>
+        <f>'유닛 테이블'!E6</f>
         <v>5</v>
       </c>
       <c r="C6" s="2">
-        <f>'2레벨 유닛 테이블'!F6</f>
+        <f>'유닛 테이블'!F6</f>
         <v>80</v>
       </c>
       <c r="D6" s="2">
-        <f>'2레벨 유닛 테이블'!G6</f>
+        <f>'유닛 테이블'!G6</f>
         <v>9</v>
       </c>
       <c r="E6" s="2">
-        <f>'2레벨 유닛 테이블'!H6</f>
-        <v>1</v>
+        <f>'유닛 테이블'!H6</f>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
-        <f>'2레벨 유닛 테이블'!J6</f>
-        <v>60</v>
+        <f>'유닛 테이블'!K6</f>
+        <v>50</v>
       </c>
       <c r="G6" s="2">
-        <f>'2레벨 유닛 테이블'!K6</f>
-        <v>35</v>
+        <f>'유닛 테이블'!L6</f>
+        <v>25</v>
       </c>
       <c r="H6" s="2">
-        <f>'2레벨 유닛 테이블'!L6</f>
-        <v>1</v>
+        <f>'유닛 테이블'!M6</f>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <f>'2레벨 유닛 테이블'!M6</f>
-        <v>2</v>
+        <f>'유닛 테이블'!N6</f>
+        <v>1.5</v>
       </c>
       <c r="J6" s="2">
-        <f>'유닛 테이블'!N6</f>
+        <f>'유닛 테이블'!O6</f>
         <v>1.3</v>
       </c>
     </row>

--- a/유닛 및 건물/양_유닛.xlsx
+++ b/유닛 및 건물/양_유닛.xlsx
@@ -8,26 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home_pc\OneDrive\바탕 화면\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620EC8A0-57A8-4C6F-A7E7-36283B4EA825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A412317-E14E-4F40-B141-36A44B73CEB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="647" firstSheet="3" activeTab="8" xr2:uid="{5DC44C0D-AFC0-4050-AC88-DAB7CE401A2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="647" firstSheet="1" activeTab="4" xr2:uid="{5DC44C0D-AFC0-4050-AC88-DAB7CE401A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="유닛 생산" sheetId="1" r:id="rId1"/>
     <sheet name="유닛 테이블" sheetId="2" r:id="rId2"/>
     <sheet name="2레벨 유닛 테이블" sheetId="8" r:id="rId3"/>
     <sheet name="3레벨 유닛 테이블" sheetId="13" r:id="rId4"/>
-    <sheet name="Index" sheetId="3" r:id="rId5"/>
-    <sheet name="외형&amp;무기&amp;투사체&amp;특징" sheetId="7" r:id="rId6"/>
-    <sheet name="2레벨 외형&amp;무기&amp;투사체&amp;특징" sheetId="6" r:id="rId7"/>
-    <sheet name="3레벨 외형&amp;무기&amp;투사체&amp;특징" sheetId="12" r:id="rId8"/>
-    <sheet name="유닛 테이블DB" sheetId="10" r:id="rId9"/>
-    <sheet name="2레벨 유닛 테이블DB" sheetId="11" r:id="rId10"/>
-    <sheet name="3레벨 유닛 테이블DB" sheetId="14" r:id="rId11"/>
+    <sheet name="유닛 테이블DB" sheetId="10" r:id="rId5"/>
+    <sheet name="2레벨 유닛 테이블DB" sheetId="11" r:id="rId6"/>
+    <sheet name="3레벨 유닛 테이블DB" sheetId="14" r:id="rId7"/>
+    <sheet name="Index" sheetId="3" r:id="rId8"/>
+    <sheet name="외형&amp;무기&amp;투사체&amp;특징" sheetId="7" r:id="rId9"/>
+    <sheet name="2레벨 외형&amp;무기&amp;투사체&amp;특징" sheetId="6" r:id="rId10"/>
+    <sheet name="3레벨 외형&amp;무기&amp;투사체&amp;특징" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2레벨 외형&amp;무기&amp;투사체&amp;특징'!$A$1:$M$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Index!$F$2:$G$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'2레벨 외형&amp;무기&amp;투사체&amp;특징'!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Index!$F$2:$G$3</definedName>
     <definedName name="카테고리_유닛타입">Index!$C$2:$D$4</definedName>
     <definedName name="카테고리_피해타입">Index!$F$2:$G$3</definedName>
   </definedNames>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="112">
   <si>
     <t>이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -438,30 +438,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>얼음 운석을 떨어트림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_Wizard_Icemeteo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_Wizard_Icemeteo_Hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_Wizard_Fireball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_Wizard_Fireball_Hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화염구를 날림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AttackWide</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -506,7 +482,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>관통수</t>
+    <t>스태프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_Wizard_Staff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5213,7 +5197,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="20442786">
-          <a:off x="6676402" y="9613988"/>
+          <a:off x="10521039" y="8800033"/>
           <a:ext cx="3566977" cy="1336689"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6530,433 +6514,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>887089</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2742473</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1752031</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="220" name="그림 219" descr="Pin on Magic Staffs, Wands &amp; Robes">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC51BF10-6A1D-491F-B997-2CE52C121B2F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="15467212">
-          <a:off x="6982811" y="7949323"/>
-          <a:ext cx="864942" cy="2742473"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1948382</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1018309</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>13804</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1796538</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="221" name="그림 220">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9FD8925-1AB9-4C18-84BC-3D73FBA9FD52}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId16">
-                  <a14:imgEffect>
-                    <a14:backgroundRemoval t="9524" b="90476" l="10000" r="90000">
-                      <a14:foregroundMark x1="26364" y1="71429" x2="77727" y2="84524"/>
-                      <a14:foregroundMark x1="77727" y1="84524" x2="10909" y2="54762"/>
-                      <a14:foregroundMark x1="10909" y1="54762" x2="81364" y2="58333"/>
-                      <a14:foregroundMark x1="81364" y1="58333" x2="23636" y2="53571"/>
-                      <a14:foregroundMark x1="23636" y1="53571" x2="69545" y2="66667"/>
-                      <a14:foregroundMark x1="69545" y1="66667" x2="37727" y2="71429"/>
-                      <a14:foregroundMark x1="37727" y1="71429" x2="78636" y2="73810"/>
-                      <a14:foregroundMark x1="78636" y1="73810" x2="11364" y2="73810"/>
-                      <a14:foregroundMark x1="11364" y1="73810" x2="78182" y2="73810"/>
-                      <a14:foregroundMark x1="78182" y1="73810" x2="22273" y2="73810"/>
-                      <a14:foregroundMark x1="22273" y1="73810" x2="78636" y2="85714"/>
-                      <a14:foregroundMark x1="78636" y1="85714" x2="38636" y2="86905"/>
-                      <a14:foregroundMark x1="76818" y1="69048" x2="12273" y2="66667"/>
-                      <a14:foregroundMark x1="12273" y1="66667" x2="60000" y2="63095"/>
-                      <a14:foregroundMark x1="60000" y1="63095" x2="35909" y2="65476"/>
-                      <a14:foregroundMark x1="35909" y1="65476" x2="70000" y2="53571"/>
-                      <a14:foregroundMark x1="70000" y1="53571" x2="25000" y2="54762"/>
-                      <a14:foregroundMark x1="25000" y1="54762" x2="59545" y2="52381"/>
-                      <a14:foregroundMark x1="59545" y1="52381" x2="26364" y2="53571"/>
-                      <a14:foregroundMark x1="26364" y1="53571" x2="65000" y2="55952"/>
-                      <a14:foregroundMark x1="65000" y1="55952" x2="40000" y2="63095"/>
-                      <a14:foregroundMark x1="40000" y1="63095" x2="81364" y2="65476"/>
-                      <a14:foregroundMark x1="81364" y1="65476" x2="44091" y2="79762"/>
-                      <a14:foregroundMark x1="44091" y1="79762" x2="84545" y2="79762"/>
-                      <a14:foregroundMark x1="84545" y1="79762" x2="42273" y2="90476"/>
-                      <a14:backgroundMark x1="18182" y1="26190" x2="19091" y2="19048"/>
-                      <a14:backgroundMark x1="36364" y1="23810" x2="34545" y2="19048"/>
-                      <a14:backgroundMark x1="38636" y1="32143" x2="38636" y2="32143"/>
-                      <a14:backgroundMark x1="55455" y1="23810" x2="58636" y2="8333"/>
-                    </a14:backgroundRemoval>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16928609" y="9019309"/>
-          <a:ext cx="2083239" cy="778229"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>408363</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>605962</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2452897</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2180854</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="222" name="그림 221" descr="프로즌오브2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A57002E0-60F6-46C6-B046-42217D324AA4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="12548408" y="8606962"/>
-          <a:ext cx="2044534" cy="1574892"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>337662</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>567046</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>2007148</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2197306</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="223" name="그림 222" descr="프로즌오브2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{190B19C6-0300-41B8-A6A3-76F727B63DE3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="19335707" y="8568046"/>
-          <a:ext cx="1669486" cy="1630260"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1121313</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>121226</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>3298951</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>710045</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="224" name="그림 223">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4DA9B72-CF3A-4E55-809D-20B52329C659}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-        <a:srcRect t="29232" b="18455"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20076063" y="8146039"/>
-          <a:ext cx="2177638" cy="588819"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>2025531</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>852922</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>4421345</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2238376</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="그룹 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D847F3E-3D5F-43F1-B530-7D9972C0F387}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="25443424" y="8853922"/>
-          <a:ext cx="2395814" cy="1385454"/>
-          <a:chOff x="21023576" y="8853922"/>
-          <a:chExt cx="2395814" cy="1385454"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="218" name="그림 217" descr="Pin on Magic Staffs, Wands &amp; Robes">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD2A1B96-5588-4227-BDD5-AA309CCD8488}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm rot="15700966">
-            <a:off x="21895573" y="8548881"/>
-            <a:ext cx="651819" cy="2395814"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="225" name="그림 224">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C8A7C15-73DB-4787-9941-2D98B0DFBD7D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect l="44449"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="22132636" y="8853922"/>
-            <a:ext cx="881007" cy="1385454"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -6983,7 +6540,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="24038571" y="6934840"/>
+          <a:off x="24314116" y="6958653"/>
           <a:ext cx="1058297" cy="275584"/>
           <a:chOff x="19604003" y="6944365"/>
           <a:chExt cx="1058297" cy="275584"/>
@@ -7106,7 +6663,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="24915732" y="567788"/>
+          <a:off x="25191277" y="577994"/>
           <a:ext cx="1379144" cy="1503952"/>
           <a:chOff x="20097566" y="571499"/>
           <a:chExt cx="1379144" cy="1503952"/>
@@ -7126,7 +6683,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7160,7 +6717,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
             <a:extLst>
               <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
                 <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -7250,7 +6807,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7304,7 +6861,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:srcRect r="58226"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -7477,7 +7034,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7509,6 +7066,67 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>119064</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>833438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2861537</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1698380</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="그림 39" descr="Pin on Magic Staffs, Wands &amp; Robes">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3314F36-6D83-4DBF-A025-F285C8A1D895}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="15467212">
+          <a:off x="11463893" y="7919485"/>
+          <a:ext cx="864942" cy="2742473"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8401,13 +8019,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>119062</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>887089</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2742473</xdr:colOff>
+      <xdr:colOff>2861535</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>1752031</xdr:rowOff>
     </xdr:to>
@@ -8439,7 +8057,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="15467212">
-          <a:off x="6968091" y="7958848"/>
+          <a:off x="11273391" y="7973136"/>
           <a:ext cx="864942" cy="2742473"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8462,121 +8080,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>2787532</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>852922</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>5183346</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2238376</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="69" name="그룹 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A373932E-9297-4BD0-8573-85D22259860A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="25957095" y="8877735"/>
-          <a:ext cx="2395814" cy="1385454"/>
-          <a:chOff x="21023576" y="8853922"/>
-          <a:chExt cx="2395814" cy="1385454"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="70" name="그림 69" descr="Pin on Magic Staffs, Wands &amp; Robes">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3205A2EF-0616-4C7A-A8FF-CF400F6E7621}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm rot="15700966">
-            <a:off x="21895573" y="8548881"/>
-            <a:ext cx="651819" cy="2395814"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="71" name="그림 70">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3947E84C-CAF4-4161-8901-7D740537EECC}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect l="44449"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="22132636" y="8853922"/>
-            <a:ext cx="881007" cy="1385454"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
       <xdr:colOff>1878839</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>363681</xdr:rowOff>
@@ -8600,7 +8103,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="25048402" y="577994"/>
+          <a:off x="25619902" y="577994"/>
           <a:ext cx="1379144" cy="1503952"/>
           <a:chOff x="20097566" y="571499"/>
           <a:chExt cx="1379144" cy="1503952"/>
@@ -8620,7 +8123,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8654,7 +8157,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
             <a:extLst>
               <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
                 <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -8748,7 +8251,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="23790241" y="6872928"/>
+          <a:off x="24361741" y="6872928"/>
           <a:ext cx="1058297" cy="494659"/>
           <a:chOff x="19604003" y="7068190"/>
           <a:chExt cx="1058297" cy="494659"/>
@@ -8889,227 +8392,6 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1463173</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>243923</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>3843426</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>112959</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="그림 78" descr="파이어볼 움켜쥔 신의 주먹? 환상입니다, 거대한 불꽃 구름입니다">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89B98E24-D077-4D49-8E2B-221340D079CE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId19">
-                  <a14:imgEffect>
-                    <a14:backgroundRemoval t="5114" b="89773" l="9790" r="89860">
-                      <a14:backgroundMark x1="62937" y1="85795" x2="75524" y2="50568"/>
-                      <a14:backgroundMark x1="75524" y1="50568" x2="60490" y2="73864"/>
-                      <a14:backgroundMark x1="60490" y1="73864" x2="74476" y2="49432"/>
-                      <a14:backgroundMark x1="74476" y1="49432" x2="56294" y2="74432"/>
-                      <a14:backgroundMark x1="56294" y1="74432" x2="74476" y2="41477"/>
-                      <a14:backgroundMark x1="74476" y1="41477" x2="61538" y2="78977"/>
-                      <a14:backgroundMark x1="61538" y1="78977" x2="75175" y2="54545"/>
-                      <a14:backgroundMark x1="75175" y1="54545" x2="65385" y2="81818"/>
-                      <a14:backgroundMark x1="65385" y1="81818" x2="77972" y2="54545"/>
-                      <a14:backgroundMark x1="77972" y1="54545" x2="68531" y2="81250"/>
-                      <a14:backgroundMark x1="68531" y1="81250" x2="81469" y2="47727"/>
-                      <a14:backgroundMark x1="57343" y1="12500" x2="75524" y2="3409"/>
-                      <a14:backgroundMark x1="75524" y1="3409" x2="73776" y2="0"/>
-                      <a14:backgroundMark x1="79371" y1="25000" x2="92308" y2="3977"/>
-                      <a14:backgroundMark x1="92308" y1="3977" x2="92308" y2="7386"/>
-                      <a14:backgroundMark x1="85315" y1="20455" x2="87762" y2="14205"/>
-                      <a14:backgroundMark x1="88462" y1="14205" x2="88462" y2="10227"/>
-                      <a14:backgroundMark x1="61888" y1="10795" x2="90210" y2="20455"/>
-                      <a14:backgroundMark x1="90210" y1="20455" x2="76573" y2="6250"/>
-                      <a14:backgroundMark x1="76573" y1="6250" x2="90210" y2="9091"/>
-                      <a14:backgroundMark x1="90210" y1="9091" x2="76923" y2="10227"/>
-                      <a14:backgroundMark x1="76923" y1="10227" x2="92308" y2="10795"/>
-                      <a14:backgroundMark x1="92308" y1="10795" x2="77972" y2="1136"/>
-                      <a14:backgroundMark x1="77972" y1="1136" x2="83566" y2="2841"/>
-                      <a14:backgroundMark x1="52797" y1="19318" x2="76923" y2="10795"/>
-                      <a14:backgroundMark x1="76923" y1="10795" x2="87413" y2="17045"/>
-                      <a14:backgroundMark x1="87413" y1="17045" x2="84965" y2="36364"/>
-                      <a14:backgroundMark x1="84965" y1="36364" x2="83566" y2="13636"/>
-                      <a14:backgroundMark x1="83566" y1="13636" x2="78322" y2="36364"/>
-                      <a14:backgroundMark x1="78322" y1="36364" x2="80420" y2="6250"/>
-                      <a14:backgroundMark x1="80420" y1="6250" x2="79021" y2="34659"/>
-                      <a14:backgroundMark x1="79021" y1="34659" x2="79720" y2="11932"/>
-                      <a14:backgroundMark x1="79720" y1="11932" x2="78671" y2="34091"/>
-                      <a14:backgroundMark x1="78671" y1="34091" x2="72378" y2="18750"/>
-                      <a14:backgroundMark x1="72378" y1="18750" x2="72378" y2="18750"/>
-                    </a14:backgroundRemoval>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="2359774">
-          <a:off x="22656298" y="8268736"/>
-          <a:ext cx="4356691" cy="2678911"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>103908</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>280218</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>173181</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2373007</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="그림 79">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6B136D-F5F5-4064-A334-CF17B08622C8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId21">
-                  <a14:imgEffect>
-                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17127681" y="8281218"/>
-          <a:ext cx="2043546" cy="2092789"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>3429002</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>658091</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>3740728</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2505941</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="그림 80" descr="마법진 레드 | 무료 클립 아트 | illustAC">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23CF7E4C-E179-4239-9F42-2918D5A17035}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="14041" r="10845"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="26598565" y="8682904"/>
-          <a:ext cx="311726" cy="1847850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -9156,7 +8438,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9190,7 +8472,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
             <a:extLst>
               <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
                 <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -9280,7 +8562,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9334,7 +8616,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:srcRect r="58226"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -9507,7 +8789,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9539,112 +8821,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1679879</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>268845</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>415603</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2522384</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="그림 65" descr="파이어볼 움켜쥔 신의 주먹? 환상입니다, 거대한 불꽃 구름입니다">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53F52094-77A1-463C-9B20-5AC6EBC28F24}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId19">
-                  <a14:imgEffect>
-                    <a14:backgroundRemoval t="5114" b="89773" l="9790" r="89860">
-                      <a14:backgroundMark x1="62937" y1="85795" x2="75524" y2="50568"/>
-                      <a14:backgroundMark x1="75524" y1="50568" x2="60490" y2="73864"/>
-                      <a14:backgroundMark x1="60490" y1="73864" x2="74476" y2="49432"/>
-                      <a14:backgroundMark x1="74476" y1="49432" x2="56294" y2="74432"/>
-                      <a14:backgroundMark x1="56294" y1="74432" x2="74476" y2="41477"/>
-                      <a14:backgroundMark x1="74476" y1="41477" x2="61538" y2="78977"/>
-                      <a14:backgroundMark x1="61538" y1="78977" x2="75175" y2="54545"/>
-                      <a14:backgroundMark x1="75175" y1="54545" x2="65385" y2="81818"/>
-                      <a14:backgroundMark x1="65385" y1="81818" x2="77972" y2="54545"/>
-                      <a14:backgroundMark x1="77972" y1="54545" x2="68531" y2="81250"/>
-                      <a14:backgroundMark x1="68531" y1="81250" x2="81469" y2="47727"/>
-                      <a14:backgroundMark x1="57343" y1="12500" x2="75524" y2="3409"/>
-                      <a14:backgroundMark x1="75524" y1="3409" x2="73776" y2="0"/>
-                      <a14:backgroundMark x1="79371" y1="25000" x2="92308" y2="3977"/>
-                      <a14:backgroundMark x1="92308" y1="3977" x2="92308" y2="7386"/>
-                      <a14:backgroundMark x1="85315" y1="20455" x2="87762" y2="14205"/>
-                      <a14:backgroundMark x1="88462" y1="14205" x2="88462" y2="10227"/>
-                      <a14:backgroundMark x1="61888" y1="10795" x2="90210" y2="20455"/>
-                      <a14:backgroundMark x1="90210" y1="20455" x2="76573" y2="6250"/>
-                      <a14:backgroundMark x1="76573" y1="6250" x2="90210" y2="9091"/>
-                      <a14:backgroundMark x1="90210" y1="9091" x2="76923" y2="10227"/>
-                      <a14:backgroundMark x1="76923" y1="10227" x2="92308" y2="10795"/>
-                      <a14:backgroundMark x1="92308" y1="10795" x2="77972" y2="1136"/>
-                      <a14:backgroundMark x1="77972" y1="1136" x2="83566" y2="2841"/>
-                      <a14:backgroundMark x1="52797" y1="19318" x2="76923" y2="10795"/>
-                      <a14:backgroundMark x1="76923" y1="10795" x2="87413" y2="17045"/>
-                      <a14:backgroundMark x1="87413" y1="17045" x2="84965" y2="36364"/>
-                      <a14:backgroundMark x1="84965" y1="36364" x2="83566" y2="13636"/>
-                      <a14:backgroundMark x1="83566" y1="13636" x2="78322" y2="36364"/>
-                      <a14:backgroundMark x1="78322" y1="36364" x2="80420" y2="6250"/>
-                      <a14:backgroundMark x1="80420" y1="6250" x2="79021" y2="34659"/>
-                      <a14:backgroundMark x1="79021" y1="34659" x2="79720" y2="11932"/>
-                      <a14:backgroundMark x1="79720" y1="11932" x2="78671" y2="34091"/>
-                      <a14:backgroundMark x1="78671" y1="34091" x2="72378" y2="18750"/>
-                      <a14:backgroundMark x1="72378" y1="18750" x2="72378" y2="18750"/>
-                    </a14:backgroundRemoval>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="2359774">
-          <a:off x="15895942" y="8293658"/>
-          <a:ext cx="3664911" cy="2253539"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10113,7 +9289,7 @@
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="9"/>
       <c r="C15" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -10143,7 +9319,7 @@
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
       <c r="C17" s="16" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -10210,6 +9386,2288 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5EEE4B-252D-4CFB-AFF8-E94DF36C06BE}">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.25" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.375" customWidth="1"/>
+    <col min="7" max="7" width="40.875" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.375" customWidth="1"/>
+    <col min="11" max="11" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26" customWidth="1"/>
+    <col min="13" max="13" width="59.25" customWidth="1"/>
+    <col min="14" max="14" width="20.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="194.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="220.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="18"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42B52B5-8BD3-4209-B587-ED8D0CB3DE5A}">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.25" customWidth="1"/>
+    <col min="4" max="4" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.875" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.375" customWidth="1"/>
+    <col min="11" max="11" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26" customWidth="1"/>
+    <col min="13" max="13" width="68.625" customWidth="1"/>
+    <col min="14" max="14" width="20.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="194.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="220.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D3F61F-0347-41D5-91A8-0D2FBCD00291}">
+  <dimension ref="A1:U8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f t="shared" ref="D2:D6" si="0">VLOOKUP(C2, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>근거리</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>40</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f t="shared" ref="I2:I6" si="1">VLOOKUP(H2, 카테고리_피해타입,2,FALSE)</f>
+        <v>단일</v>
+      </c>
+      <c r="J2" s="2">
+        <v>70</v>
+      </c>
+      <c r="K2" s="2">
+        <v>5</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>근거리</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F3" s="2">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>범위</v>
+      </c>
+      <c r="J3" s="2">
+        <v>80</v>
+      </c>
+      <c r="K3" s="2">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>중거리</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>60</v>
+      </c>
+      <c r="G4" s="2">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>단일</v>
+      </c>
+      <c r="J4" s="2">
+        <v>60</v>
+      </c>
+      <c r="K4" s="2">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>원거리</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>70</v>
+      </c>
+      <c r="G5" s="2">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>단일</v>
+      </c>
+      <c r="J5" s="2">
+        <v>50</v>
+      </c>
+      <c r="K5" s="2">
+        <v>15</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>원거리</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>80</v>
+      </c>
+      <c r="G6" s="2">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>단일</v>
+      </c>
+      <c r="J6" s="2">
+        <v>50</v>
+      </c>
+      <c r="K6" s="2">
+        <v>25</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937CA577-D084-4477-A6FD-EDAD9D0A7061}">
+  <dimension ref="A1:U8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f t="shared" ref="D2:D6" si="0">VLOOKUP(C2, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>근거리</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>40</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f>VLOOKUP(H2, 카테고리_피해타입,2,FALSE)</f>
+        <v>단일</v>
+      </c>
+      <c r="J2" s="2">
+        <v>80</v>
+      </c>
+      <c r="K2" s="2">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>근거리</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F3" s="2">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f>VLOOKUP(H3, 카테고리_피해타입,2,FALSE)</f>
+        <v>범위</v>
+      </c>
+      <c r="J3" s="2">
+        <v>90</v>
+      </c>
+      <c r="K3" s="2">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>중거리</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>60</v>
+      </c>
+      <c r="G4" s="2">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f t="shared" ref="I4:I6" si="1">VLOOKUP(H4, 카테고리_피해타입,2,FALSE)</f>
+        <v>단일</v>
+      </c>
+      <c r="J4" s="2">
+        <v>70</v>
+      </c>
+      <c r="K4" s="2">
+        <v>35</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>원거리</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>70</v>
+      </c>
+      <c r="G5" s="2">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>단일</v>
+      </c>
+      <c r="J5" s="2">
+        <v>60</v>
+      </c>
+      <c r="K5" s="2">
+        <v>15</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>원거리</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>80</v>
+      </c>
+      <c r="G6" s="2">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>범위</v>
+      </c>
+      <c r="J6" s="2">
+        <v>60</v>
+      </c>
+      <c r="K6" s="2">
+        <v>35</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD66771-CF09-47A9-9913-EE7E810D654C}">
+  <dimension ref="A1:U8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f t="shared" ref="D2:D6" si="0">VLOOKUP(C2, 카테고리_유닛타입, 2,FALSE)</f>
+        <v>근거리</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>40</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f>VLOOKUP(H2, 카테고리_피해타입,2,FALSE)</f>
+        <v>단일</v>
+      </c>
+      <c r="J2" s="2">
+        <v>100</v>
+      </c>
+      <c r="K2" s="2">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>근거리</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F3" s="2">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f>VLOOKUP(H3, 카테고리_피해타입,2,FALSE)</f>
+        <v>범위</v>
+      </c>
+      <c r="J3" s="2">
+        <v>110</v>
+      </c>
+      <c r="K3" s="2">
+        <v>40</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>중거리</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>60</v>
+      </c>
+      <c r="G4" s="2">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f t="shared" ref="I4:I5" si="1">VLOOKUP(H4, 카테고리_피해타입,2,FALSE)</f>
+        <v>단일</v>
+      </c>
+      <c r="J4" s="2">
+        <v>85</v>
+      </c>
+      <c r="K4" s="2">
+        <v>50</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>원거리</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>70</v>
+      </c>
+      <c r="G5" s="2">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>단일</v>
+      </c>
+      <c r="J5" s="2">
+        <v>75</v>
+      </c>
+      <c r="K5" s="2">
+        <v>20</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>원거리</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>80</v>
+      </c>
+      <c r="G6" s="2">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f>VLOOKUP(H6, 카테고리_피해타입,2,FALSE)</f>
+        <v>범위</v>
+      </c>
+      <c r="J6" s="2">
+        <v>75</v>
+      </c>
+      <c r="K6" s="2">
+        <v>45</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8C7ABA-8253-488C-B6E7-31B6C735BE66}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
+    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2">
+        <f>'유닛 테이블'!E2</f>
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="2">
+        <f>'유닛 테이블'!F2</f>
+        <v>40</v>
+      </c>
+      <c r="D2" s="2">
+        <f>'유닛 테이블'!G2</f>
+        <v>5</v>
+      </c>
+      <c r="E2" s="2">
+        <f>'유닛 테이블'!H2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <f>'유닛 테이블'!J2</f>
+        <v>70</v>
+      </c>
+      <c r="G2" s="2">
+        <f>'유닛 테이블'!K2</f>
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <f>'유닛 테이블'!L2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <f>'유닛 테이블'!M2</f>
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="2">
+        <f>'유닛 테이블'!N2</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2">
+        <f>'유닛 테이블'!E3</f>
+        <v>0.8</v>
+      </c>
+      <c r="C3" s="2">
+        <f>'유닛 테이블'!F3</f>
+        <v>50</v>
+      </c>
+      <c r="D3" s="2">
+        <f>'유닛 테이블'!G3</f>
+        <v>6</v>
+      </c>
+      <c r="E3" s="2">
+        <f>'유닛 테이블'!H3</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <f>'유닛 테이블'!J3</f>
+        <v>80</v>
+      </c>
+      <c r="G3" s="2">
+        <f>'유닛 테이블'!K3</f>
+        <v>15</v>
+      </c>
+      <c r="H3" s="2">
+        <f>'유닛 테이블'!L3</f>
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="2">
+        <f>'유닛 테이블'!M3</f>
+        <v>1.5</v>
+      </c>
+      <c r="J3" s="2">
+        <f>'유닛 테이블'!N3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="2">
+        <f>'유닛 테이블'!E4</f>
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <f>'유닛 테이블'!F4</f>
+        <v>60</v>
+      </c>
+      <c r="D4" s="2">
+        <f>'유닛 테이블'!G4</f>
+        <v>7</v>
+      </c>
+      <c r="E4" s="2">
+        <f>'유닛 테이블'!H4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <f>'유닛 테이블'!J4</f>
+        <v>60</v>
+      </c>
+      <c r="G4" s="2">
+        <f>'유닛 테이블'!K4</f>
+        <v>25</v>
+      </c>
+      <c r="H4" s="2">
+        <f>'유닛 테이블'!L4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <f>'유닛 테이블'!M4</f>
+        <v>1.25</v>
+      </c>
+      <c r="J4" s="2">
+        <f>'유닛 테이블'!N4</f>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="2">
+        <f>'유닛 테이블'!E5</f>
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <f>'유닛 테이블'!F5</f>
+        <v>70</v>
+      </c>
+      <c r="D5" s="2">
+        <f>'유닛 테이블'!G5</f>
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <f>'유닛 테이블'!H5</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <f>'유닛 테이블'!J5</f>
+        <v>50</v>
+      </c>
+      <c r="G5" s="2">
+        <f>'유닛 테이블'!K5</f>
+        <v>15</v>
+      </c>
+      <c r="H5" s="2">
+        <f>'유닛 테이블'!L5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <f>'유닛 테이블'!M5</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <f>'유닛 테이블'!N5</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2">
+        <f>'유닛 테이블'!E6</f>
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <f>'유닛 테이블'!F6</f>
+        <v>80</v>
+      </c>
+      <c r="D6" s="2">
+        <f>'유닛 테이블'!G6</f>
+        <v>9</v>
+      </c>
+      <c r="E6" s="2">
+        <f>'유닛 테이블'!H6</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <f>'유닛 테이블'!J6</f>
+        <v>50</v>
+      </c>
+      <c r="G6" s="2">
+        <f>'유닛 테이블'!K6</f>
+        <v>25</v>
+      </c>
+      <c r="H6" s="2">
+        <f>'유닛 테이블'!L6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <f>'유닛 테이블'!M6</f>
+        <v>1.5</v>
+      </c>
+      <c r="J6" s="2">
+        <f>'유닛 테이블'!N6</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8CF9CA-9C63-4BA8-9530-F3FA06453166}">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -10254,7 +11712,7 @@
         <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>62</v>
@@ -10284,23 +11742,23 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
+        <f>'2레벨 유닛 테이블'!J2</f>
+        <v>80</v>
+      </c>
+      <c r="G2" s="2">
         <f>'2레벨 유닛 테이블'!K2</f>
-        <v>80</v>
-      </c>
-      <c r="G2" s="2">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2">
         <f>'2레벨 유닛 테이블'!L2</f>
-        <v>10</v>
-      </c>
-      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
         <f>'2레벨 유닛 테이블'!M2</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <f>'2레벨 유닛 테이블'!N2</f>
         <v>0.5</v>
       </c>
       <c r="J2" s="2">
-        <f>'유닛 테이블'!O2</f>
+        <f>'유닛 테이블'!N2</f>
         <v>1.6</v>
       </c>
     </row>
@@ -10325,23 +11783,23 @@
         <v>1</v>
       </c>
       <c r="F3" s="2">
+        <f>'2레벨 유닛 테이블'!J3</f>
+        <v>90</v>
+      </c>
+      <c r="G3" s="2">
         <f>'2레벨 유닛 테이블'!K3</f>
-        <v>90</v>
-      </c>
-      <c r="G3" s="2">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2">
         <f>'2레벨 유닛 테이블'!L3</f>
-        <v>25</v>
-      </c>
-      <c r="H3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="2">
         <f>'2레벨 유닛 테이블'!M3</f>
-        <v>0.5</v>
-      </c>
-      <c r="I3" s="2">
-        <f>'2레벨 유닛 테이블'!N3</f>
         <v>1.25</v>
       </c>
       <c r="J3" s="2">
-        <f>'유닛 테이블'!O3</f>
+        <f>'유닛 테이블'!N3</f>
         <v>1</v>
       </c>
     </row>
@@ -10366,23 +11824,23 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
+        <f>'2레벨 유닛 테이블'!J4</f>
+        <v>70</v>
+      </c>
+      <c r="G4" s="2">
         <f>'2레벨 유닛 테이블'!K4</f>
-        <v>70</v>
-      </c>
-      <c r="G4" s="2">
+        <v>35</v>
+      </c>
+      <c r="H4" s="2">
         <f>'2레벨 유닛 테이블'!L4</f>
-        <v>35</v>
-      </c>
-      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
         <f>'2레벨 유닛 테이블'!M4</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <f>'2레벨 유닛 테이블'!N4</f>
         <v>1.5</v>
       </c>
       <c r="J4" s="2">
-        <f>'유닛 테이블'!O4</f>
+        <f>'유닛 테이블'!N4</f>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -10407,23 +11865,23 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
+        <f>'2레벨 유닛 테이블'!J5</f>
+        <v>60</v>
+      </c>
+      <c r="G5" s="2">
         <f>'2레벨 유닛 테이블'!K5</f>
-        <v>60</v>
-      </c>
-      <c r="G5" s="2">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2">
         <f>'2레벨 유닛 테이블'!L5</f>
-        <v>15</v>
-      </c>
-      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
         <f>'2레벨 유닛 테이블'!M5</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <f>'2레벨 유닛 테이블'!N5</f>
         <v>1</v>
       </c>
       <c r="J5" s="2">
-        <f>'유닛 테이블'!O5</f>
+        <f>'유닛 테이블'!N5</f>
         <v>1.5</v>
       </c>
     </row>
@@ -10445,26 +11903,26 @@
       </c>
       <c r="E6" s="2">
         <f>'2레벨 유닛 테이블'!H6</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2">
+        <f>'2레벨 유닛 테이블'!J6</f>
+        <v>60</v>
+      </c>
+      <c r="G6" s="2">
         <f>'2레벨 유닛 테이블'!K6</f>
-        <v>60</v>
-      </c>
-      <c r="G6" s="2">
+        <v>35</v>
+      </c>
+      <c r="H6" s="2">
         <f>'2레벨 유닛 테이블'!L6</f>
-        <v>35</v>
-      </c>
-      <c r="H6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="2">
         <f>'2레벨 유닛 테이블'!M6</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <f>'2레벨 유닛 테이블'!N6</f>
         <v>1.5</v>
       </c>
       <c r="J6" s="2">
-        <f>'유닛 테이블'!O6</f>
+        <f>'유닛 테이블'!N6</f>
         <v>1.3</v>
       </c>
     </row>
@@ -10630,12 +12088,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD2B524-FBA0-41D2-80D1-8A3ADF03F13A}">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10675,7 +12133,7 @@
         <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>62</v>
@@ -10705,23 +12163,23 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
+        <f>'3레벨 유닛 테이블'!J2</f>
+        <v>100</v>
+      </c>
+      <c r="G2" s="2">
         <f>'3레벨 유닛 테이블'!K2</f>
-        <v>100</v>
-      </c>
-      <c r="G2" s="2">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2">
         <f>'3레벨 유닛 테이블'!L2</f>
-        <v>20</v>
-      </c>
-      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
         <f>'3레벨 유닛 테이블'!M2</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="2">
         <f>'3레벨 유닛 테이블'!N2</f>
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="2">
-        <f>'3레벨 유닛 테이블'!O2</f>
         <v>1.5</v>
       </c>
     </row>
@@ -10746,23 +12204,23 @@
         <v>1</v>
       </c>
       <c r="F3" s="2">
+        <f>'3레벨 유닛 테이블'!J3</f>
+        <v>110</v>
+      </c>
+      <c r="G3" s="2">
         <f>'3레벨 유닛 테이블'!K3</f>
-        <v>110</v>
-      </c>
-      <c r="G3" s="2">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2">
         <f>'3레벨 유닛 테이블'!L3</f>
-        <v>40</v>
-      </c>
-      <c r="H3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="2">
         <f>'3레벨 유닛 테이블'!M3</f>
-        <v>0.5</v>
-      </c>
-      <c r="I3" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="J3" s="2">
         <f>'3레벨 유닛 테이블'!N3</f>
-        <v>1.25</v>
-      </c>
-      <c r="J3" s="2">
-        <f>'3레벨 유닛 테이블'!O3</f>
         <v>1</v>
       </c>
     </row>
@@ -10784,26 +12242,26 @@
       </c>
       <c r="E4" s="2">
         <f>'3레벨 유닛 테이블'!H4</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
+        <f>'3레벨 유닛 테이블'!J4</f>
+        <v>85</v>
+      </c>
+      <c r="G4" s="2">
         <f>'3레벨 유닛 테이블'!K4</f>
-        <v>85</v>
-      </c>
-      <c r="G4" s="2">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2">
         <f>'3레벨 유닛 테이블'!L4</f>
-        <v>50</v>
-      </c>
-      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
         <f>'3레벨 유닛 테이블'!M4</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="J4" s="2">
         <f>'3레벨 유닛 테이블'!N4</f>
-        <v>1.5</v>
-      </c>
-      <c r="J4" s="2">
-        <f>'3레벨 유닛 테이블'!O4</f>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -10828,23 +12286,23 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
+        <f>'3레벨 유닛 테이블'!J5</f>
+        <v>75</v>
+      </c>
+      <c r="G5" s="2">
         <f>'3레벨 유닛 테이블'!K5</f>
-        <v>75</v>
-      </c>
-      <c r="G5" s="2">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2">
         <f>'3레벨 유닛 테이블'!L5</f>
-        <v>20</v>
-      </c>
-      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
         <f>'3레벨 유닛 테이블'!M5</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
         <f>'3레벨 유닛 테이블'!N5</f>
-        <v>1</v>
-      </c>
-      <c r="J5" s="2">
-        <f>'3레벨 유닛 테이블'!O5</f>
         <v>1.4</v>
       </c>
     </row>
@@ -10866,26 +12324,26 @@
       </c>
       <c r="E6" s="2">
         <f>'3레벨 유닛 테이블'!H6</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2">
+        <f>'3레벨 유닛 테이블'!J6</f>
+        <v>75</v>
+      </c>
+      <c r="G6" s="2">
         <f>'3레벨 유닛 테이블'!K6</f>
-        <v>75</v>
-      </c>
-      <c r="G6" s="2">
+        <v>45</v>
+      </c>
+      <c r="H6" s="2">
         <f>'3레벨 유닛 테이블'!L6</f>
-        <v>45</v>
-      </c>
-      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
         <f>'3레벨 유닛 테이블'!M6</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="J6" s="2">
         <f>'3레벨 유닛 테이블'!N6</f>
-        <v>1.5</v>
-      </c>
-      <c r="J6" s="2">
-        <f>'3레벨 유닛 테이블'!O6</f>
         <v>1.3</v>
       </c>
     </row>
@@ -11051,1410 +12509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D3F61F-0347-41D5-91A8-0D2FBCD00291}">
-  <dimension ref="A1:V8"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="str">
-        <f t="shared" ref="D2:D6" si="0">VLOOKUP(C2, 카테고리_유닛타입, 2,FALSE)</f>
-        <v>근거리</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="2">
-        <v>40</v>
-      </c>
-      <c r="G2" s="2">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="str">
-        <f t="shared" ref="I2:I6" si="1">VLOOKUP(H2, 카테고리_피해타입,2,FALSE)</f>
-        <v>단일</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>70</v>
-      </c>
-      <c r="L2" s="2">
-        <v>5</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O2" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="F3" s="2">
-        <v>50</v>
-      </c>
-      <c r="G3" s="2">
-        <v>6</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>범위</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>80</v>
-      </c>
-      <c r="L3" s="2">
-        <v>15</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="O3" s="2">
-        <v>1</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>중거리</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>60</v>
-      </c>
-      <c r="G4" s="2">
-        <v>7</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>단일</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>60</v>
-      </c>
-      <c r="L4" s="2">
-        <v>25</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="O4" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>원거리</v>
-      </c>
-      <c r="E5" s="2">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2">
-        <v>70</v>
-      </c>
-      <c r="G5" s="2">
-        <v>8</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>단일</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>50</v>
-      </c>
-      <c r="L5" s="2">
-        <v>15</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>1</v>
-      </c>
-      <c r="O5" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>원거리</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2">
-        <v>80</v>
-      </c>
-      <c r="G6" s="2">
-        <v>9</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>단일</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>50</v>
-      </c>
-      <c r="L6" s="2">
-        <v>25</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="O6" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937CA577-D084-4477-A6FD-EDAD9D0A7061}">
-  <dimension ref="A1:V8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="str">
-        <f t="shared" ref="D2:D6" si="0">VLOOKUP(C2, 카테고리_유닛타입, 2,FALSE)</f>
-        <v>근거리</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="2">
-        <v>40</v>
-      </c>
-      <c r="G2" s="2">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="str">
-        <f>VLOOKUP(H2, 카테고리_피해타입,2,FALSE)</f>
-        <v>단일</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>80</v>
-      </c>
-      <c r="L2" s="2">
-        <v>10</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O2" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="F3" s="2">
-        <v>50</v>
-      </c>
-      <c r="G3" s="2">
-        <v>6</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2" t="str">
-        <f>VLOOKUP(H3, 카테고리_피해타입,2,FALSE)</f>
-        <v>범위</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>90</v>
-      </c>
-      <c r="L3" s="2">
-        <v>25</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="O3" s="2">
-        <v>1</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>중거리</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>60</v>
-      </c>
-      <c r="G4" s="2">
-        <v>7</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="str">
-        <f t="shared" ref="I4:I6" si="1">VLOOKUP(H4, 카테고리_피해타입,2,FALSE)</f>
-        <v>단일</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>70</v>
-      </c>
-      <c r="L4" s="2">
-        <v>35</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="O4" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>원거리</v>
-      </c>
-      <c r="E5" s="2">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2">
-        <v>70</v>
-      </c>
-      <c r="G5" s="2">
-        <v>8</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>단일</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>60</v>
-      </c>
-      <c r="L5" s="2">
-        <v>15</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>1</v>
-      </c>
-      <c r="O5" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>원거리</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2">
-        <v>80</v>
-      </c>
-      <c r="G6" s="2">
-        <v>9</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2</v>
-      </c>
-      <c r="I6" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2">
-        <v>60</v>
-      </c>
-      <c r="L6" s="2">
-        <v>35</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="O6" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD66771-CF09-47A9-9913-EE7E810D654C}">
-  <dimension ref="A1:V8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="str">
-        <f t="shared" ref="D2:D6" si="0">VLOOKUP(C2, 카테고리_유닛타입, 2,FALSE)</f>
-        <v>근거리</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="2">
-        <v>40</v>
-      </c>
-      <c r="G2" s="2">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="str">
-        <f>VLOOKUP(H2, 카테고리_피해타입,2,FALSE)</f>
-        <v>단일</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>100</v>
-      </c>
-      <c r="L2" s="2">
-        <v>20</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O2" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="F3" s="2">
-        <v>50</v>
-      </c>
-      <c r="G3" s="2">
-        <v>6</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2" t="str">
-        <f>VLOOKUP(H3, 카테고리_피해타입,2,FALSE)</f>
-        <v>범위</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>110</v>
-      </c>
-      <c r="L3" s="2">
-        <v>40</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="O3" s="2">
-        <v>1</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>중거리</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>60</v>
-      </c>
-      <c r="G4" s="2">
-        <v>7</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2</v>
-      </c>
-      <c r="I4" s="2" t="e">
-        <f t="shared" ref="I4:I6" si="1">VLOOKUP(H4, 카테고리_피해타입,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
-        <v>85</v>
-      </c>
-      <c r="L4" s="2">
-        <v>50</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="O4" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>원거리</v>
-      </c>
-      <c r="E5" s="2">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2">
-        <v>70</v>
-      </c>
-      <c r="G5" s="2">
-        <v>8</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>단일</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>75</v>
-      </c>
-      <c r="L5" s="2">
-        <v>20</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>1</v>
-      </c>
-      <c r="O5" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>원거리</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2">
-        <v>80</v>
-      </c>
-      <c r="G6" s="2">
-        <v>9</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2</v>
-      </c>
-      <c r="I6" s="2" t="e">
-        <f>VLOOKUP(H6, 카테고리_피해타입,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J6" s="2">
-        <v>5</v>
-      </c>
-      <c r="K6" s="2">
-        <v>75</v>
-      </c>
-      <c r="L6" s="2">
-        <v>45</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="O6" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325F995D-D464-4E08-87B8-359E9E3CF2CA}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -12520,7 +12575,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -12531,12 +12586,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9E97C7-0D4E-464E-B00F-2E8287F827CA}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12767,7 +12822,7 @@
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="2" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>50</v>
@@ -12788,940 +12843,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5EEE4B-252D-4CFB-AFF8-E94DF36C06BE}">
-  <dimension ref="A1:N6"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.25" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.875" customWidth="1"/>
-    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.375" customWidth="1"/>
-    <col min="11" max="11" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26" customWidth="1"/>
-    <col min="13" max="13" width="59.25" customWidth="1"/>
-    <col min="14" max="14" width="23.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="194.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="220.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42B52B5-8BD3-4209-B587-ED8D0CB3DE5A}">
-  <dimension ref="A1:N6"/>
-  <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.25" customWidth="1"/>
-    <col min="4" max="4" width="30.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.875" customWidth="1"/>
-    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.375" customWidth="1"/>
-    <col min="11" max="11" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26" customWidth="1"/>
-    <col min="13" max="13" width="68.625" customWidth="1"/>
-    <col min="14" max="14" width="14.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="194.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="220.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8C7ABA-8253-488C-B6E7-31B6C735BE66}">
-  <dimension ref="A1:J19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.125" customWidth="1"/>
-    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="2">
-        <f>'유닛 테이블'!E2</f>
-        <v>0.5</v>
-      </c>
-      <c r="C2" s="2">
-        <f>'유닛 테이블'!F2</f>
-        <v>40</v>
-      </c>
-      <c r="D2" s="2">
-        <f>'유닛 테이블'!G2</f>
-        <v>5</v>
-      </c>
-      <c r="E2" s="2">
-        <f>'유닛 테이블'!H2</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <f>'유닛 테이블'!K2</f>
-        <v>70</v>
-      </c>
-      <c r="G2" s="2">
-        <f>'유닛 테이블'!L2</f>
-        <v>5</v>
-      </c>
-      <c r="H2" s="2">
-        <f>'유닛 테이블'!M2</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <f>'유닛 테이블'!N2</f>
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="2">
-        <f>'유닛 테이블'!O2</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="2">
-        <f>'유닛 테이블'!E3</f>
-        <v>0.8</v>
-      </c>
-      <c r="C3" s="2">
-        <f>'유닛 테이블'!F3</f>
-        <v>50</v>
-      </c>
-      <c r="D3" s="2">
-        <f>'유닛 테이블'!G3</f>
-        <v>6</v>
-      </c>
-      <c r="E3" s="2">
-        <f>'유닛 테이블'!H3</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <f>'유닛 테이블'!K3</f>
-        <v>80</v>
-      </c>
-      <c r="G3" s="2">
-        <f>'유닛 테이블'!L3</f>
-        <v>15</v>
-      </c>
-      <c r="H3" s="2">
-        <f>'유닛 테이블'!M3</f>
-        <v>0.5</v>
-      </c>
-      <c r="I3" s="2">
-        <f>'유닛 테이블'!N3</f>
-        <v>1.5</v>
-      </c>
-      <c r="J3" s="2">
-        <f>'유닛 테이블'!O3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="2">
-        <f>'유닛 테이블'!E4</f>
-        <v>3</v>
-      </c>
-      <c r="C4" s="2">
-        <f>'유닛 테이블'!F4</f>
-        <v>60</v>
-      </c>
-      <c r="D4" s="2">
-        <f>'유닛 테이블'!G4</f>
-        <v>7</v>
-      </c>
-      <c r="E4" s="2">
-        <f>'유닛 테이블'!H4</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <f>'유닛 테이블'!K4</f>
-        <v>60</v>
-      </c>
-      <c r="G4" s="2">
-        <f>'유닛 테이블'!L4</f>
-        <v>25</v>
-      </c>
-      <c r="H4" s="2">
-        <f>'유닛 테이블'!M4</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <f>'유닛 테이블'!N4</f>
-        <v>1.25</v>
-      </c>
-      <c r="J4" s="2">
-        <f>'유닛 테이블'!O4</f>
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="2">
-        <f>'유닛 테이블'!E5</f>
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
-        <f>'유닛 테이블'!F5</f>
-        <v>70</v>
-      </c>
-      <c r="D5" s="2">
-        <f>'유닛 테이블'!G5</f>
-        <v>8</v>
-      </c>
-      <c r="E5" s="2">
-        <f>'유닛 테이블'!H5</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <f>'유닛 테이블'!K5</f>
-        <v>50</v>
-      </c>
-      <c r="G5" s="2">
-        <f>'유닛 테이블'!L5</f>
-        <v>15</v>
-      </c>
-      <c r="H5" s="2">
-        <f>'유닛 테이블'!M5</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <f>'유닛 테이블'!N5</f>
-        <v>1</v>
-      </c>
-      <c r="J5" s="2">
-        <f>'유닛 테이블'!O5</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="2">
-        <f>'유닛 테이블'!E6</f>
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
-        <f>'유닛 테이블'!F6</f>
-        <v>80</v>
-      </c>
-      <c r="D6" s="2">
-        <f>'유닛 테이블'!G6</f>
-        <v>9</v>
-      </c>
-      <c r="E6" s="2">
-        <f>'유닛 테이블'!H6</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <f>'유닛 테이블'!K6</f>
-        <v>50</v>
-      </c>
-      <c r="G6" s="2">
-        <f>'유닛 테이블'!L6</f>
-        <v>25</v>
-      </c>
-      <c r="H6" s="2">
-        <f>'유닛 테이블'!M6</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <f>'유닛 테이블'!N6</f>
-        <v>1.5</v>
-      </c>
-      <c r="J6" s="2">
-        <f>'유닛 테이블'!O6</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>